--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBCD4C3-1E53-4025-96F7-39F8E0ED473C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50DD408-C924-4D0C-9BB2-0A2D18380116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="269">
   <si>
     <t>Design</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Verifica apertura disambiguazione: Deleghe SDD</t>
   </si>
   <si>
-    <t>Verifica apertura disambiguazione: Quadratura unificata</t>
-  </si>
-  <si>
     <t>Verifica apertura disambiguazione: Incasso per conto</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
     <t>MatrixWeb: Navigation_BackOffice_Verifica apertura disambiguazione: Deleghe SDD</t>
   </si>
   <si>
-    <t>MatrixWeb: Navigation_BackOffice_Verifica apertura disambiguazione: Quadratura unificata</t>
-  </si>
-  <si>
     <t>MatrixWeb: Navigation_BackOffice_Verifica apertura disambiguazione: Incasso per conto</t>
   </si>
   <si>
@@ -474,6 +468,378 @@
   </si>
   <si>
     <t>Allianz Projects\Digital Interaction\Allianz Matrix Web\Sales</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Analisi dei bisogni</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Clients_Verifica aggancio Analisi dei bisogni</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica presenza links Menu</t>
+  </si>
+  <si>
+    <t>Verifica presenza links Menu</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica tutti i link presenti</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Primo Piano</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Primo Piano</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info e verifica atterraggio della pagina</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info e verifica tutti i link presenti</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Raccolte</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Raccolte</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Prodotti</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Prodotti</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Iniziative</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Iniziative</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Eventi e Sponsorizzazioni</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Eventi e Sponsorizzazioni</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica atterraggio della pagina e la presenza dei sottomenu</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Sales Academy</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Sales Academy</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Momento della Verità</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Momento della Verità</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Le release</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Le release</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica atterraggio della pagina e la presenza dei panel</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Manuali Informatici</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Manuali Informatici</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Circolari</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Circolari</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Company Handbook</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Company Handbook</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Antiriciclaggio</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Risorse per l\'Agenzia</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Risorse per l\'Agenzia</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Operatività</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Operatività</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Risorse per l'Agenzia</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Risorse per l'Agenzia</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Il Mondo Allianz</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Il Mondo Allianz</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu Principali</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu Principali</t>
+  </si>
+  <si>
+    <t>Top Menu incident - Verifica presenza dei link</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Top Menu incident - Verifica presenza dei link</t>
+  </si>
+  <si>
+    <t>Click dei top Menu link: calendario, incident, notifiche, utente e lo switch button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click link incident, verifica presenza dei link </t>
+  </si>
+  <si>
+    <t>Top Menu notifiche - Verifica presenza dei link</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Top Menu notifiche - Verifica presenza dei link</t>
+  </si>
+  <si>
+    <t>Top Menu Clients</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Top Menu Clients</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Top Menu Sales</t>
+  </si>
+  <si>
+    <t>Click link notifiche, verifica presenza dei link</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu Sales</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_VerificaTop Menu Numbers</t>
+  </si>
+  <si>
+    <t>Verifica Menu Numbers</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu Sales</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_VerificaTop Menu Backoffice</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu News</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu News</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu Le mie info</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu Le mie info</t>
+  </si>
+  <si>
+    <t>Verifica presenza della buca di ricerca</t>
+  </si>
+  <si>
+    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Clients</t>
+  </si>
+  <si>
+    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Sales</t>
+  </si>
+  <si>
+    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Sales </t>
+  </si>
+  <si>
+    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina News</t>
+  </si>
+  <si>
+    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Le mie info</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Button Clients</t>
+  </si>
+  <si>
+    <t>Verifica Button Clients</t>
+  </si>
+  <si>
+    <t>Click su button Clients e verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Button Sales</t>
+  </si>
+  <si>
+    <t>Verifica Button Sales</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Button Numbers</t>
+  </si>
+  <si>
+    <t>Verifica Button Numbers</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Button Backoffice</t>
+  </si>
+  <si>
+    <t>Verifica Button Backoffice</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Button News</t>
+  </si>
+  <si>
+    <t>Verifica Button News</t>
+  </si>
+  <si>
+    <t>Click sul button Sales e verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Click sul button Numbers e verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Click sul button Backoffice e verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Click sul button News e verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Verifica Centro notifiche</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Centro notifiche</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica link: Vedi tutte le news</t>
+  </si>
+  <si>
+    <t>Verifica link: Vedi tutte le news</t>
+  </si>
+  <si>
+    <t>Click sul link "Vai al centro notifiche" e verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Click sul link "Vedi tutte" e verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Verifica buca di ricerca</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica buca di ricerca</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica aggancio Numbers</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Numbers</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers e verifica aggancio della pagina</t>
+  </si>
+  <si>
+    <t>Verifica Filtro</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica Filtro</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers e verifica cliccando l'icona di filtro l'apertura del popup</t>
+  </si>
+  <si>
+    <t>Verifica PDF</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica PDF</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers e verifica cliccando l'icona ddel pdf l'apertura del pdf</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Ricavi di Agenzia</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica aggancio Ricavi di Agenzia</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business aggancio New Business</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business aggancio New Business</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business aggancio Incassi</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business aggancio Incassi</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina New business</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina RICAVI DI AGENZIA</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business aggancio Portafoglio</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina Incassi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business aggancio Portafoglio</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Prodotti aggancio Primo indice prodotto</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Prodotti aggancio Primo indice prodotto</t>
+  </si>
+  <si>
+    <t>Verifica su Indicatori Operativi aggancio Primo indice digitale</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Indicatori Operativi aggancio Primo indice digitale</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab prodotti, verifica l'atterraggio alla pagina del primo indice prodotto</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab Indicatori Operativi, verifica l'atterraggio alla pagina del primo indice digitale</t>
+  </si>
+  <si>
+    <t>Verifica aggancio su Incentivi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica aggancio su Incentivi</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, verifica click tab incentivi</t>
+  </si>
+  <si>
+    <t>Allianz Projects\Digital Interaction\Allianz Matrix Web\Numbers</t>
+  </si>
+  <si>
+    <t>Verifica Menu Backoffice</t>
+  </si>
+  <si>
+    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Backoffice</t>
   </si>
 </sst>
 </file>
@@ -889,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +1309,7 @@
     </row>
     <row r="2" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -961,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>12</v>
@@ -970,12 +1336,12 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -993,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -1002,18 +1368,18 @@
         <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
@@ -1025,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>12</v>
@@ -1034,15 +1400,15 @@
         <v>2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
@@ -1057,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>12</v>
@@ -1066,15 +1432,15 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
@@ -1089,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>12</v>
@@ -1098,15 +1464,15 @@
         <v>2</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
@@ -1121,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>12</v>
@@ -1130,15 +1496,15 @@
         <v>2</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>22</v>
@@ -1153,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>12</v>
@@ -1162,15 +1528,15 @@
         <v>2</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>22</v>
@@ -1185,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>12</v>
@@ -1194,15 +1560,15 @@
         <v>2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>22</v>
@@ -1217,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>12</v>
@@ -1226,15 +1592,15 @@
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
@@ -1249,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>12</v>
@@ -1258,15 +1624,15 @@
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>22</v>
@@ -1281,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>12</v>
@@ -1290,18 +1656,18 @@
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>15</v>
@@ -1313,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>12</v>
@@ -1322,15 +1688,15 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>31</v>
@@ -1354,18 +1720,18 @@
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>15</v>
@@ -1386,18 +1752,18 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>15</v>
@@ -1418,18 +1784,18 @@
         <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>15</v>
@@ -1450,15 +1816,15 @@
         <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>31</v>
@@ -1482,15 +1848,15 @@
         <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>31</v>
@@ -1514,15 +1880,15 @@
         <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>31</v>
@@ -1546,15 +1912,15 @@
         <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>31</v>
@@ -1578,15 +1944,15 @@
         <v>2</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>31</v>
@@ -1610,15 +1976,15 @@
         <v>2</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>31</v>
@@ -1642,15 +2008,15 @@
         <v>2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>31</v>
@@ -1674,15 +2040,15 @@
         <v>2</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>31</v>
@@ -1706,15 +2072,15 @@
         <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>31</v>
@@ -1738,15 +2104,15 @@
         <v>2</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>31</v>
@@ -1770,15 +2136,15 @@
         <v>2</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>31</v>
@@ -1802,15 +2168,15 @@
         <v>2</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>31</v>
@@ -1834,15 +2200,15 @@
         <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>31</v>
@@ -1866,15 +2232,15 @@
         <v>2</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>31</v>
@@ -1898,15 +2264,15 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>31</v>
@@ -1930,15 +2296,15 @@
         <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>31</v>
@@ -1962,19 +2328,19 @@
         <v>2</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D34" s="3" t="s">
         <v>15</v>
       </c>
@@ -1985,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>12</v>
@@ -1994,12 +2360,12 @@
         <v>2</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>18</v>
@@ -2017,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>12</v>
@@ -2026,18 +2392,18 @@
         <v>2</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>15</v>
@@ -2049,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>12</v>
@@ -2058,18 +2424,18 @@
         <v>2</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>15</v>
@@ -2081,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>12</v>
@@ -2090,18 +2456,18 @@
         <v>2</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>15</v>
@@ -2113,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>12</v>
@@ -2122,18 +2488,18 @@
         <v>2</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>15</v>
@@ -2145,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>12</v>
@@ -2154,18 +2520,18 @@
         <v>2</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>15</v>
@@ -2177,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>12</v>
@@ -2186,18 +2552,18 @@
         <v>2</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>15</v>
@@ -2209,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>12</v>
@@ -2218,18 +2584,18 @@
         <v>2</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>15</v>
@@ -2241,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>12</v>
@@ -2250,18 +2616,18 @@
         <v>2</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>15</v>
@@ -2273,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>12</v>
@@ -2282,18 +2648,18 @@
         <v>2</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>15</v>
@@ -2305,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>12</v>
@@ -2314,18 +2680,18 @@
         <v>2</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>15</v>
@@ -2337,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>12</v>
@@ -2346,18 +2712,18 @@
         <v>2</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>15</v>
@@ -2369,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>12</v>
@@ -2378,18 +2744,18 @@
         <v>2</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>15</v>
@@ -2401,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>12</v>
@@ -2410,18 +2776,18 @@
         <v>2</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>15</v>
@@ -2433,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>12</v>
@@ -2442,18 +2808,18 @@
         <v>2</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>15</v>
@@ -2465,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>12</v>
@@ -2474,18 +2840,18 @@
         <v>2</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>15</v>
@@ -2497,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>12</v>
@@ -2506,19 +2872,19 @@
         <v>2</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D51" s="3" t="s">
         <v>15</v>
       </c>
@@ -2529,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>12</v>
@@ -2538,242 +2904,242 @@
         <v>2</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="B54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="B55" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="B56" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="B57" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="B58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C59" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>15</v>
@@ -2785,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>12</v>
@@ -2794,19 +3160,19 @@
         <v>2</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
       </c>
@@ -2826,7 +3192,1479 @@
         <v>2</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50DD408-C924-4D0C-9BB2-0A2D18380116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70F3742-CBB3-4754-8984-6E7CB201D827}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="271">
   <si>
     <t>Design</t>
   </si>
@@ -623,9 +623,6 @@
     <t>Matrix Web : Navigation_HomePage_Top Menu Sales</t>
   </si>
   <si>
-    <t>Click link notifiche, verifica presenza dei link</t>
-  </si>
-  <si>
     <t>Verifica Top Menu Sales</t>
   </si>
   <si>
@@ -840,6 +837,15 @@
   </si>
   <si>
     <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Backoffice</t>
+  </si>
+  <si>
+    <t>Verifica apertura disambiguazione: Monitoraggio Customer Digital Footprint</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_BackOffice_Verifica apertura disambiguazione: Monitoraggio Customer Digital Footprint</t>
+  </si>
+  <si>
+    <t>Click link notifiche, click sulla rotellina e la verifica presenza dei link</t>
   </si>
 </sst>
 </file>
@@ -1255,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,7 +1793,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>96</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>97</v>
       </c>
@@ -1851,7 +1857,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>98</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>99</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>103</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>106</v>
       </c>
@@ -2267,7 +2273,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>111</v>
       </c>
@@ -2331,15 +2337,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>113</v>
+        <v>269</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>15</v>
@@ -2351,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>12</v>
@@ -2360,18 +2366,18 @@
         <v>2</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>15</v>
@@ -2397,13 +2403,13 @@
     </row>
     <row r="36" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>15</v>
@@ -2429,10 +2435,10 @@
     </row>
     <row r="37" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>54</v>
@@ -2461,10 +2467,10 @@
     </row>
     <row r="38" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>54</v>
@@ -2491,12 +2497,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>54</v>
@@ -2523,12 +2529,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>54</v>
@@ -2555,12 +2561,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>54</v>
@@ -2587,12 +2593,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>54</v>
@@ -2619,12 +2625,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>54</v>
@@ -2651,12 +2657,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>54</v>
@@ -2683,12 +2689,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>54</v>
@@ -2715,12 +2721,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>54</v>
@@ -2747,12 +2753,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>54</v>
@@ -2779,12 +2785,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>54</v>
@@ -2811,12 +2817,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>54</v>
@@ -2843,12 +2849,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>54</v>
@@ -2875,15 +2881,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>15</v>
@@ -2907,15 +2913,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>15</v>
@@ -2941,10 +2947,10 @@
     </row>
     <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>54</v>
@@ -2973,10 +2979,10 @@
     </row>
     <row r="54" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>54</v>
@@ -3005,10 +3011,10 @@
     </row>
     <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>54</v>
@@ -3037,10 +3043,10 @@
     </row>
     <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>54</v>
@@ -3069,10 +3075,10 @@
     </row>
     <row r="57" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>54</v>
@@ -3101,10 +3107,10 @@
     </row>
     <row r="58" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>54</v>
@@ -3133,10 +3139,10 @@
     </row>
     <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>54</v>
@@ -3163,140 +3169,140 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="D61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="D62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="D63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>162</v>
@@ -3323,12 +3329,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>162</v>
@@ -3355,76 +3361,76 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="D67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>162</v>
@@ -3451,44 +3457,44 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>169</v>
@@ -3515,44 +3521,44 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>152</v>
@@ -3579,44 +3585,44 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>162</v>
@@ -3643,76 +3649,76 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="D76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>162</v>
@@ -3739,208 +3745,208 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="D79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="D80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="C81" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="D83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="D84" s="3" t="s">
         <v>15</v>
       </c>
@@ -3963,335 +3969,335 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="D87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="D88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="D89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="C91" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="B92" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B91" s="3" t="s">
+      <c r="D92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="B93" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B92" s="3" t="s">
+      <c r="D93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="B94" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="D94" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4317,45 +4323,45 @@
     </row>
     <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -4376,18 +4382,18 @@
         <v>2</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
@@ -4408,18 +4414,18 @@
         <v>2</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -4440,18 +4446,18 @@
         <v>2</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -4472,15 +4478,15 @@
         <v>2</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>251</v>
@@ -4504,18 +4510,18 @@
         <v>2</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
@@ -4536,18 +4542,18 @@
         <v>2</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>15</v>
@@ -4568,18 +4574,18 @@
         <v>2</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>15</v>
@@ -4600,18 +4606,18 @@
         <v>2</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>15</v>
@@ -4632,18 +4638,18 @@
         <v>2</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
@@ -4664,7 +4670,39 @@
         <v>2</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70F3742-CBB3-4754-8984-6E7CB201D827}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3303E387-FC84-47DA-B584-506CC583DC34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="12780" yWindow="0" windowWidth="14400" windowHeight="11385" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3303E387-FC84-47DA-B584-506CC583DC34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81565C7-B479-4AF9-B1E3-FEC9F0067220}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="0" windowWidth="14400" windowHeight="11385" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="277">
   <si>
     <t>Design</t>
   </si>
@@ -134,15 +134,9 @@
     <t>Verifica aggancio Appuntamenti Futuri</t>
   </si>
   <si>
-    <t>Verifica Sinistri</t>
-  </si>
-  <si>
     <t>Si accede a BackOffice e verifica i link button della sezione Sinistri</t>
   </si>
   <si>
-    <t>Verifica Contabilità</t>
-  </si>
-  <si>
     <t>Si accede a BackOffice e verifica i link button della sezione Contabilità</t>
   </si>
   <si>
@@ -846,6 +840,30 @@
   </si>
   <si>
     <t>Click link notifiche, click sulla rotellina e la verifica presenza dei link</t>
+  </si>
+  <si>
+    <t>Verifica links Sinistri</t>
+  </si>
+  <si>
+    <t>Verifica links Contabilità</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Preventivi e quotazioni Vita - button: Vedi Tutti</t>
+  </si>
+  <si>
+    <t>Si accede a Sales, apri il pannello "Preventivi e quotazioni" e verifichi dal tab Danni il button "Vedi tutti" l'aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Preventivi e quotazioni Vita - button: Vedi Tutti</t>
+  </si>
+  <si>
+    <t>Si accede a Sales, clicca il pannello "Proposte Danni" e verifica dal tab Vita il button "Vedi tutti" l'aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Si accede a Sales, clicca il pannello "Proposte Danni" e verifica dal tab Danni il button "Vedi tutti" l'aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Si accede a Sales, clicca il pannello "Preventivi e quotazioni" e verifica dal tab Vita il button "Vedi tutti" l'aggancio alla pagina</t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1333,7 @@
     </row>
     <row r="2" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -1333,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>12</v>
@@ -1342,12 +1360,12 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -1365,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -1374,15 +1392,15 @@
         <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
@@ -1397,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>12</v>
@@ -1406,12 +1424,12 @@
         <v>2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
@@ -1429,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>12</v>
@@ -1438,12 +1456,12 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>21</v>
@@ -1461,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>12</v>
@@ -1470,12 +1488,12 @@
         <v>2</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>23</v>
@@ -1493,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>12</v>
@@ -1502,12 +1520,12 @@
         <v>2</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -1525,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>12</v>
@@ -1534,12 +1552,12 @@
         <v>2</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>25</v>
@@ -1557,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>12</v>
@@ -1566,12 +1584,12 @@
         <v>2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
@@ -1589,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>12</v>
@@ -1598,12 +1616,12 @@
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -1621,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>12</v>
@@ -1630,12 +1648,12 @@
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>28</v>
@@ -1653,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>12</v>
@@ -1662,12 +1680,12 @@
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>29</v>
@@ -1685,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>12</v>
@@ -1694,12 +1712,12 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -1726,12 +1744,12 @@
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -1758,19 +1776,19 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1790,18 +1808,18 @@
         <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>15</v>
@@ -1822,15 +1840,15 @@
         <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>31</v>
@@ -1854,15 +1872,15 @@
         <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>31</v>
@@ -1886,15 +1904,15 @@
         <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>31</v>
@@ -1918,15 +1936,15 @@
         <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>31</v>
@@ -1950,15 +1968,15 @@
         <v>2</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>31</v>
@@ -1982,15 +2000,15 @@
         <v>2</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>31</v>
@@ -2014,15 +2032,15 @@
         <v>2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>31</v>
@@ -2046,15 +2064,15 @@
         <v>2</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>31</v>
@@ -2078,15 +2096,15 @@
         <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>31</v>
@@ -2110,15 +2128,15 @@
         <v>2</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>31</v>
@@ -2142,15 +2160,15 @@
         <v>2</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>31</v>
@@ -2174,15 +2192,15 @@
         <v>2</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>31</v>
@@ -2206,15 +2224,15 @@
         <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>31</v>
@@ -2238,15 +2256,15 @@
         <v>2</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>31</v>
@@ -2270,15 +2288,15 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>31</v>
@@ -2302,15 +2320,15 @@
         <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>31</v>
@@ -2334,15 +2352,15 @@
         <v>2</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>31</v>
@@ -2366,44 +2384,44 @@
         <v>2</v>
       </c>
       <c r="J34" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>18</v>
@@ -2421,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>12</v>
@@ -2430,50 +2448,50 @@
         <v>2</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>15</v>
@@ -2485,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>12</v>
@@ -2494,18 +2512,18 @@
         <v>2</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>15</v>
@@ -2517,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>12</v>
@@ -2526,18 +2544,18 @@
         <v>2</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>15</v>
@@ -2549,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>12</v>
@@ -2558,18 +2576,18 @@
         <v>2</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>15</v>
@@ -2581,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>12</v>
@@ -2590,18 +2608,18 @@
         <v>2</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>15</v>
@@ -2613,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>12</v>
@@ -2622,18 +2640,18 @@
         <v>2</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>15</v>
@@ -2645,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>12</v>
@@ -2654,18 +2672,18 @@
         <v>2</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>15</v>
@@ -2677,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>12</v>
@@ -2686,18 +2704,18 @@
         <v>2</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>15</v>
@@ -2709,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>12</v>
@@ -2718,18 +2736,18 @@
         <v>2</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>15</v>
@@ -2741,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>12</v>
@@ -2750,18 +2768,18 @@
         <v>2</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>15</v>
@@ -2773,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>12</v>
@@ -2782,18 +2800,18 @@
         <v>2</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>15</v>
@@ -2805,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>12</v>
@@ -2814,18 +2832,18 @@
         <v>2</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>15</v>
@@ -2837,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>12</v>
@@ -2846,18 +2864,18 @@
         <v>2</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>15</v>
@@ -2869,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>12</v>
@@ -2878,18 +2896,18 @@
         <v>2</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>15</v>
@@ -2901,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>12</v>
@@ -2910,18 +2928,18 @@
         <v>2</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>15</v>
@@ -2933,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>12</v>
@@ -2942,18 +2960,18 @@
         <v>2</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>15</v>
@@ -2965,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>12</v>
@@ -2974,18 +2992,18 @@
         <v>2</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>15</v>
@@ -2997,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>12</v>
@@ -3006,18 +3024,18 @@
         <v>2</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>15</v>
@@ -3029,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>12</v>
@@ -3038,18 +3056,18 @@
         <v>2</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>15</v>
@@ -3061,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>12</v>
@@ -3070,18 +3088,18 @@
         <v>2</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>15</v>
@@ -3093,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>12</v>
@@ -3102,18 +3120,18 @@
         <v>2</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>54</v>
+        <v>276</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>15</v>
@@ -3125,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>12</v>
@@ -3134,18 +3152,18 @@
         <v>2</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>15</v>
@@ -3157,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>12</v>
@@ -3166,18 +3184,18 @@
         <v>2</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>54</v>
+        <v>275</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
@@ -3189,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>12</v>
@@ -3198,18 +3216,18 @@
         <v>2</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>15</v>
@@ -3221,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>12</v>
@@ -3235,13 +3253,13 @@
     </row>
     <row r="62" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>15</v>
@@ -3262,18 +3280,18 @@
         <v>2</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>15</v>
@@ -3294,18 +3312,18 @@
         <v>2</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>15</v>
@@ -3326,18 +3344,18 @@
         <v>2</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>15</v>
@@ -3358,18 +3376,18 @@
         <v>2</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>15</v>
@@ -3390,19 +3408,19 @@
         <v>2</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="D67" s="3" t="s">
         <v>15</v>
       </c>
@@ -3422,18 +3440,18 @@
         <v>2</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>15</v>
@@ -3454,18 +3472,18 @@
         <v>2</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>15</v>
@@ -3486,18 +3504,18 @@
         <v>2</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>15</v>
@@ -3518,18 +3536,18 @@
         <v>2</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>15</v>
@@ -3550,18 +3568,18 @@
         <v>2</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>15</v>
@@ -3582,18 +3600,18 @@
         <v>2</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>15</v>
@@ -3614,18 +3632,18 @@
         <v>2</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -3646,18 +3664,18 @@
         <v>2</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>15</v>
@@ -3678,18 +3696,18 @@
         <v>2</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>15</v>
@@ -3710,18 +3728,18 @@
         <v>2</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>15</v>
@@ -3742,18 +3760,18 @@
         <v>2</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
@@ -3774,18 +3792,18 @@
         <v>2</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>15</v>
@@ -3806,19 +3824,19 @@
         <v>2</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
       </c>
@@ -3838,18 +3856,18 @@
         <v>2</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>15</v>
@@ -3870,18 +3888,18 @@
         <v>2</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -3902,18 +3920,18 @@
         <v>2</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>15</v>
@@ -3934,18 +3952,18 @@
         <v>2</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>15</v>
@@ -3966,18 +3984,18 @@
         <v>2</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>266</v>
+        <v>196</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
@@ -3998,18 +4016,18 @@
         <v>2</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
@@ -4030,18 +4048,18 @@
         <v>2</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4062,18 +4080,18 @@
         <v>2</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
@@ -4094,18 +4112,18 @@
         <v>2</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
@@ -4126,18 +4144,18 @@
         <v>2</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
@@ -4158,18 +4176,18 @@
         <v>2</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>15</v>
@@ -4190,18 +4208,18 @@
         <v>2</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -4222,18 +4240,18 @@
         <v>2</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>15</v>
@@ -4254,18 +4272,18 @@
         <v>2</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -4286,18 +4304,18 @@
         <v>2</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4318,51 +4336,51 @@
         <v>2</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="D96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
       </c>
@@ -4373,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>12</v>
@@ -4382,18 +4400,18 @@
         <v>2</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>265</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
@@ -4405,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>12</v>
@@ -4414,18 +4432,18 @@
         <v>2</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -4437,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>12</v>
@@ -4446,18 +4464,18 @@
         <v>2</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -4469,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>12</v>
@@ -4478,18 +4496,18 @@
         <v>2</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>15</v>
@@ -4501,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>12</v>
@@ -4510,18 +4528,18 @@
         <v>2</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
@@ -4533,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>12</v>
@@ -4542,19 +4560,19 @@
         <v>2</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="D103" s="3" t="s">
         <v>15</v>
       </c>
@@ -4565,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>12</v>
@@ -4574,18 +4592,18 @@
         <v>2</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>15</v>
@@ -4597,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>12</v>
@@ -4606,18 +4624,18 @@
         <v>2</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>15</v>
@@ -4629,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>12</v>
@@ -4638,19 +4656,19 @@
         <v>2</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
       </c>
@@ -4661,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>12</v>
@@ -4670,39 +4688,71 @@
         <v>2</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J107" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B107" s="3" t="s">
+    </row>
+    <row r="108" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>265</v>
+      <c r="D108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81565C7-B479-4AF9-B1E3-FEC9F0067220}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96281AF-422D-42D7-99D8-EDF1A124019C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96281AF-422D-42D7-99D8-EDF1A124019C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACCA968-5F82-4A47-A189-83DC084F701A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -242,9 +242,6 @@
     <t>Verifica aggancio Estrai dettaglio</t>
   </si>
   <si>
-    <t>Si accede a Sales seleziona una delle attività in scadenza e verifica aggancio della pagina</t>
-  </si>
-  <si>
     <t>Verifica aggancio Appuntamento</t>
   </si>
   <si>
@@ -864,6 +861,9 @@
   </si>
   <si>
     <t>Si accede a Sales, clicca il pannello "Preventivi e quotazioni" e verifica dal tab Vita il button "Vedi tutti" l'aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Si accede a Sales, clicca il pannello "Attività in scadenza", dopodichè cliccando su una delle attività in scadenza verifica l'aggancio della pagina</t>
   </si>
 </sst>
 </file>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="2" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>12</v>
@@ -1360,12 +1360,12 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -1392,15 +1392,15 @@
         <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>12</v>
@@ -1424,12 +1424,12 @@
         <v>2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>12</v>
@@ -1456,12 +1456,12 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>21</v>
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>12</v>
@@ -1488,12 +1488,12 @@
         <v>2</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>23</v>
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>12</v>
@@ -1520,12 +1520,12 @@
         <v>2</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -1543,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>12</v>
@@ -1552,12 +1552,12 @@
         <v>2</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>25</v>
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>12</v>
@@ -1584,12 +1584,12 @@
         <v>2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>12</v>
@@ -1616,12 +1616,12 @@
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>12</v>
@@ -1648,12 +1648,12 @@
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>28</v>
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>12</v>
@@ -1680,12 +1680,12 @@
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>29</v>
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>12</v>
@@ -1712,12 +1712,12 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -1744,12 +1744,12 @@
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -1776,15 +1776,15 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>33</v>
@@ -1808,15 +1808,15 @@
         <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>34</v>
@@ -1840,12 +1840,12 @@
         <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>35</v>
@@ -1872,12 +1872,12 @@
         <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>36</v>
@@ -1904,12 +1904,12 @@
         <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>37</v>
@@ -1936,12 +1936,12 @@
         <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>38</v>
@@ -1968,12 +1968,12 @@
         <v>2</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>39</v>
@@ -2000,12 +2000,12 @@
         <v>2</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>40</v>
@@ -2032,12 +2032,12 @@
         <v>2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>41</v>
@@ -2064,12 +2064,12 @@
         <v>2</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>42</v>
@@ -2096,12 +2096,12 @@
         <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>43</v>
@@ -2128,12 +2128,12 @@
         <v>2</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>44</v>
@@ -2160,12 +2160,12 @@
         <v>2</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>45</v>
@@ -2192,12 +2192,12 @@
         <v>2</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>46</v>
@@ -2224,12 +2224,12 @@
         <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>47</v>
@@ -2256,12 +2256,12 @@
         <v>2</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>48</v>
@@ -2288,12 +2288,12 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>49</v>
@@ -2320,12 +2320,12 @@
         <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>50</v>
@@ -2352,15 +2352,15 @@
         <v>2</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>31</v>
@@ -2384,12 +2384,12 @@
         <v>2</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>51</v>
@@ -2407,21 +2407,21 @@
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>18</v>
@@ -2439,21 +2439,21 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>53</v>
@@ -2471,21 +2471,21 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>54</v>
@@ -2503,21 +2503,21 @@
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>55</v>
@@ -2535,21 +2535,21 @@
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>56</v>
@@ -2567,21 +2567,21 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>57</v>
@@ -2599,21 +2599,21 @@
         <v>1</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>58</v>
@@ -2631,21 +2631,21 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>59</v>
@@ -2663,21 +2663,21 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>60</v>
@@ -2695,21 +2695,21 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>61</v>
@@ -2727,21 +2727,21 @@
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>62</v>
@@ -2759,21 +2759,21 @@
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>63</v>
@@ -2791,21 +2791,21 @@
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>64</v>
@@ -2823,21 +2823,21 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>65</v>
@@ -2855,21 +2855,21 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>66</v>
@@ -2887,21 +2887,21 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>67</v>
@@ -2919,27 +2919,27 @@
         <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>69</v>
+        <v>276</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>15</v>
@@ -2951,24 +2951,24 @@
         <v>1</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>52</v>
@@ -2983,24 +2983,24 @@
         <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>52</v>
@@ -3015,24 +3015,24 @@
         <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>52</v>
@@ -3047,27 +3047,27 @@
         <v>1</v>
       </c>
       <c r="G55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>15</v>
@@ -3079,24 +3079,24 @@
         <v>1</v>
       </c>
       <c r="G56" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>52</v>
@@ -3111,27 +3111,27 @@
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>15</v>
@@ -3143,24 +3143,24 @@
         <v>1</v>
       </c>
       <c r="G58" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>52</v>
@@ -3175,27 +3175,27 @@
         <v>1</v>
       </c>
       <c r="G59" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
@@ -3207,27 +3207,27 @@
         <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>15</v>
@@ -3239,28 +3239,28 @@
         <v>1</v>
       </c>
       <c r="G61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D62" s="3" t="s">
         <v>15</v>
       </c>
@@ -3280,19 +3280,19 @@
         <v>2</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="D63" s="3" t="s">
         <v>15</v>
       </c>
@@ -3312,18 +3312,18 @@
         <v>2</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>15</v>
@@ -3344,18 +3344,18 @@
         <v>2</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="C65" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>15</v>
@@ -3376,18 +3376,18 @@
         <v>2</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>15</v>
@@ -3408,18 +3408,18 @@
         <v>2</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="C67" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>15</v>
@@ -3440,18 +3440,18 @@
         <v>2</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="C68" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>15</v>
@@ -3472,18 +3472,18 @@
         <v>2</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>15</v>
@@ -3504,18 +3504,18 @@
         <v>2</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="C70" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>15</v>
@@ -3536,19 +3536,19 @@
         <v>2</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="D71" s="3" t="s">
         <v>15</v>
       </c>
@@ -3568,18 +3568,18 @@
         <v>2</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>15</v>
@@ -3600,18 +3600,18 @@
         <v>2</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="C73" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>15</v>
@@ -3632,18 +3632,18 @@
         <v>2</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -3664,18 +3664,18 @@
         <v>2</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>15</v>
@@ -3696,18 +3696,18 @@
         <v>2</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="C76" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>15</v>
@@ -3728,18 +3728,18 @@
         <v>2</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>15</v>
@@ -3760,18 +3760,18 @@
         <v>2</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="C78" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
@@ -3792,18 +3792,18 @@
         <v>2</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="C79" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>15</v>
@@ -3824,18 +3824,18 @@
         <v>2</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
@@ -3856,18 +3856,18 @@
         <v>2</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>15</v>
@@ -3888,18 +3888,18 @@
         <v>2</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -3920,18 +3920,18 @@
         <v>2</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>15</v>
@@ -3952,18 +3952,18 @@
         <v>2</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>15</v>
@@ -3984,18 +3984,18 @@
         <v>2</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="C85" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
@@ -4016,19 +4016,19 @@
         <v>2</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
       </c>
@@ -4048,18 +4048,18 @@
         <v>2</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4080,18 +4080,18 @@
         <v>2</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
@@ -4112,18 +4112,18 @@
         <v>2</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
@@ -4144,18 +4144,18 @@
         <v>2</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
@@ -4176,19 +4176,19 @@
         <v>2</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="D91" s="3" t="s">
         <v>15</v>
       </c>
@@ -4208,18 +4208,18 @@
         <v>2</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="C92" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -4240,18 +4240,18 @@
         <v>2</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="C93" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>15</v>
@@ -4272,18 +4272,18 @@
         <v>2</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="C94" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -4304,18 +4304,18 @@
         <v>2</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="C95" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4336,18 +4336,18 @@
         <v>2</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -4368,18 +4368,18 @@
         <v>2</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="C97" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -4400,19 +4400,19 @@
         <v>2</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>12</v>
@@ -4432,19 +4432,19 @@
         <v>2</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>12</v>
@@ -4464,19 +4464,19 @@
         <v>2</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>12</v>
@@ -4496,18 +4496,18 @@
         <v>2</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>15</v>
@@ -4519,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>12</v>
@@ -4528,18 +4528,18 @@
         <v>2</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
@@ -4551,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>12</v>
@@ -4560,18 +4560,18 @@
         <v>2</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>15</v>
@@ -4583,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>12</v>
@@ -4592,18 +4592,18 @@
         <v>2</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="C104" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>15</v>
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>12</v>
@@ -4624,19 +4624,19 @@
         <v>2</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="D105" s="3" t="s">
         <v>15</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>12</v>
@@ -4656,18 +4656,18 @@
         <v>2</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>12</v>
@@ -4688,18 +4688,18 @@
         <v>2</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>15</v>
@@ -4711,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>12</v>
@@ -4720,39 +4720,39 @@
         <v>2</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C108" s="3" t="s">
+      <c r="D108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J108" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACCA968-5F82-4A47-A189-83DC084F701A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FAEF2E-F30D-413F-A359-3928DD4FDBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="283">
   <si>
     <t>Design</t>
   </si>
@@ -863,7 +863,25 @@
     <t>Si accede a Sales, clicca il pannello "Preventivi e quotazioni" e verifica dal tab Vita il button "Vedi tutti" l'aggancio alla pagina</t>
   </si>
   <si>
-    <t>Si accede a Sales, clicca il pannello "Attività in scadenza", dopodichè cliccando su una delle attività in scadenza verifica l'aggancio della pagina</t>
+    <t>Si accede a Sales, clicca il pannello "Attività in scadenza", dopodiché cliccando su una delle attività in scadenza e infine su "Estrai dettaglio", verifica l'aggancio della pagina</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Contenuti Salvati</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Contenuti Salvati</t>
+  </si>
+  <si>
+    <t>Si accede a Sales e verifica aggancio della pagina News</t>
+  </si>
+  <si>
+    <t>Si accede a Sales e verifica aggancio della pagina Appuntamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si accede a Sales, clicca il pannello "Proposte Danni" e verifica dal tab Danni  l'atterraggio della prima Card </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si accede a Sales, clicca il pannello "Preventivi e quotazioni" e verifica dal tab Vita  l'atterraggio della prima Vita </t>
   </si>
 </sst>
 </file>
@@ -1279,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,7 +2989,7 @@
         <v>69</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>15</v>
@@ -3003,7 +3021,7 @@
         <v>70</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>52</v>
+        <v>279</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>15</v>
@@ -3099,7 +3117,7 @@
         <v>73</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>15</v>
@@ -3163,7 +3181,7 @@
         <v>74</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>52</v>
+        <v>281</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>15</v>
@@ -3381,10 +3399,10 @@
     </row>
     <row r="66" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>154</v>
+        <v>278</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>159</v>
@@ -3413,10 +3431,10 @@
     </row>
     <row r="67" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>159</v>
@@ -3445,13 +3463,13 @@
     </row>
     <row r="68" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>15</v>
@@ -3477,13 +3495,13 @@
     </row>
     <row r="69" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>15</v>
@@ -3509,10 +3527,10 @@
     </row>
     <row r="70" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>159</v>
@@ -3541,13 +3559,13 @@
     </row>
     <row r="71" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>15</v>
@@ -3573,10 +3591,10 @@
     </row>
     <row r="72" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>166</v>
@@ -3605,13 +3623,13 @@
     </row>
     <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>15</v>
@@ -3637,10 +3655,10 @@
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>149</v>
@@ -3669,13 +3687,13 @@
     </row>
     <row r="75" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>15</v>
@@ -3701,10 +3719,10 @@
     </row>
     <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>159</v>
@@ -3733,13 +3751,13 @@
     </row>
     <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>15</v>
@@ -3765,13 +3783,13 @@
     </row>
     <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
@@ -3797,10 +3815,10 @@
     </row>
     <row r="79" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>159</v>
@@ -3829,13 +3847,13 @@
     </row>
     <row r="80" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
@@ -3861,13 +3879,13 @@
     </row>
     <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>15</v>
@@ -3893,13 +3911,13 @@
     </row>
     <row r="82" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -3925,13 +3943,13 @@
     </row>
     <row r="83" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>15</v>
@@ -3957,13 +3975,13 @@
     </row>
     <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>15</v>
@@ -3989,13 +4007,13 @@
     </row>
     <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
@@ -4021,13 +4039,13 @@
     </row>
     <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
@@ -4053,13 +4071,13 @@
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4085,13 +4103,13 @@
     </row>
     <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
@@ -4117,13 +4135,13 @@
     </row>
     <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
@@ -4149,13 +4167,13 @@
     </row>
     <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
@@ -4181,13 +4199,13 @@
     </row>
     <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>15</v>
@@ -4213,13 +4231,13 @@
     </row>
     <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -4245,13 +4263,13 @@
     </row>
     <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>15</v>
@@ -4277,13 +4295,13 @@
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -4309,13 +4327,13 @@
     </row>
     <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4341,13 +4359,13 @@
     </row>
     <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -4373,46 +4391,46 @@
     </row>
     <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
       </c>
@@ -4423,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>12</v>
@@ -4432,18 +4450,18 @@
         <v>2</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>262</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -4469,13 +4487,13 @@
     </row>
     <row r="100" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -4501,10 +4519,10 @@
     </row>
     <row r="101" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>240</v>
@@ -4539,7 +4557,7 @@
         <v>241</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
@@ -4565,13 +4583,13 @@
     </row>
     <row r="103" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>15</v>
@@ -4597,13 +4615,13 @@
     </row>
     <row r="104" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>15</v>
@@ -4629,13 +4647,13 @@
     </row>
     <row r="105" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>15</v>
@@ -4661,13 +4679,13 @@
     </row>
     <row r="106" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
@@ -4693,13 +4711,13 @@
     </row>
     <row r="107" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>15</v>
@@ -4725,13 +4743,13 @@
     </row>
     <row r="108" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>15</v>
@@ -4752,6 +4770,38 @@
         <v>2</v>
       </c>
       <c r="J108" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J109" s="3" t="s">
         <v>262</v>
       </c>
     </row>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FAEF2E-F30D-413F-A359-3928DD4FDBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A826360C-8612-4135-AA67-367DA85D4F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="293">
   <si>
     <t>Design</t>
   </si>
@@ -707,12 +707,6 @@
     <t>Click sul button News e verifica atterraggio alla pagina</t>
   </si>
   <si>
-    <t>Verifica Centro notifiche</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica Centro notifiche</t>
-  </si>
-  <si>
     <t>Matrix Web : Navigation_HomePage_Verifica link: Vedi tutte le news</t>
   </si>
   <si>
@@ -857,9 +851,6 @@
     <t>Si accede a Sales, clicca il pannello "Proposte Danni" e verifica dal tab Vita il button "Vedi tutti" l'aggancio alla pagina</t>
   </si>
   <si>
-    <t>Si accede a Sales, clicca il pannello "Proposte Danni" e verifica dal tab Danni il button "Vedi tutti" l'aggancio alla pagina</t>
-  </si>
-  <si>
     <t>Si accede a Sales, clicca il pannello "Preventivi e quotazioni" e verifica dal tab Vita il button "Vedi tutti" l'aggancio alla pagina</t>
   </si>
   <si>
@@ -878,10 +869,49 @@
     <t>Si accede a Sales e verifica aggancio della pagina Appuntamento</t>
   </si>
   <si>
-    <t xml:space="preserve">Si accede a Sales, clicca il pannello "Proposte Danni" e verifica dal tab Danni  l'atterraggio della prima Card </t>
-  </si>
-  <si>
     <t xml:space="preserve">Si accede a Sales, clicca il pannello "Preventivi e quotazioni" e verifica dal tab Vita  l'atterraggio della prima Vita </t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Proposte Vita - Card Vita</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Proposte Vita - Card Vita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si accede a Sales, clicca il pannello "Proposte" e verifica dal tab Vita  l'atterraggio della prima Card </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si accede a Sales, clicca il pannello "Proposte" e verifica dal tab Danni  l'atterraggio della prima Card </t>
+  </si>
+  <si>
+    <t>Si accede a Sales, clicca il pannello "Proposte" e verifica dal tab Danni il button "Vedi tutti" l'aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio VPS Rami Vari("News")</t>
+  </si>
+  <si>
+    <t>Verifica testi e link delle notifiche</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica testi e link delle notifiche</t>
+  </si>
+  <si>
+    <t>Verifica  link "Vai al Centro notifiche" notifiche</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica  link "Vai al Centro notifiche" notifiche</t>
+  </si>
+  <si>
+    <t>Verifica notifiche siano visibili, che i titoli corrispondano e  controlla i testi dal menu a tendina di ciascuna notifica  corrispondano</t>
+  </si>
+  <si>
+    <t>Verifica Click Pannello "Notifiche in evidenza"</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Click Pannello "Notifiche in evidenza"</t>
+  </si>
+  <si>
+    <t>click sul pannello "Notifiche in evidenza" e verifica la presenza delle notifiche</t>
   </si>
 </sst>
 </file>
@@ -1297,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,13 +1829,13 @@
     </row>
     <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>15</v>
@@ -1831,13 +1861,13 @@
     </row>
     <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>15</v>
@@ -1863,13 +1893,13 @@
     </row>
     <row r="18" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>267</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
@@ -1895,10 +1925,10 @@
     </row>
     <row r="19" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>31</v>
@@ -1927,10 +1957,10 @@
     </row>
     <row r="20" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>31</v>
@@ -1959,10 +1989,10 @@
     </row>
     <row r="21" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>31</v>
@@ -1991,10 +2021,10 @@
     </row>
     <row r="22" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>31</v>
@@ -2023,10 +2053,10 @@
     </row>
     <row r="23" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>31</v>
@@ -2055,10 +2085,10 @@
     </row>
     <row r="24" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>31</v>
@@ -2087,10 +2117,10 @@
     </row>
     <row r="25" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>31</v>
@@ -2119,10 +2149,10 @@
     </row>
     <row r="26" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>31</v>
@@ -2151,10 +2181,10 @@
     </row>
     <row r="27" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>31</v>
@@ -2183,10 +2213,10 @@
     </row>
     <row r="28" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>31</v>
@@ -2215,10 +2245,10 @@
     </row>
     <row r="29" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>31</v>
@@ -2247,10 +2277,10 @@
     </row>
     <row r="30" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>31</v>
@@ -2279,10 +2309,10 @@
     </row>
     <row r="31" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>31</v>
@@ -2311,10 +2341,10 @@
     </row>
     <row r="32" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>31</v>
@@ -2343,10 +2373,10 @@
     </row>
     <row r="33" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>31</v>
@@ -2375,10 +2405,10 @@
     </row>
     <row r="34" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>266</v>
+        <v>109</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>265</v>
+        <v>50</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>31</v>
@@ -2405,15 +2435,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>15</v>
@@ -2425,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>12</v>
@@ -2434,18 +2464,18 @@
         <v>2</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>15</v>
@@ -2471,13 +2501,13 @@
     </row>
     <row r="37" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>15</v>
@@ -2503,10 +2533,10 @@
     </row>
     <row r="38" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>52</v>
@@ -2535,10 +2565,10 @@
     </row>
     <row r="39" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>52</v>
@@ -2567,10 +2597,10 @@
     </row>
     <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>52</v>
@@ -2599,10 +2629,10 @@
     </row>
     <row r="41" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>52</v>
@@ -2631,10 +2661,10 @@
     </row>
     <row r="42" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>52</v>
@@ -2663,10 +2693,10 @@
     </row>
     <row r="43" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>52</v>
@@ -2695,10 +2725,10 @@
     </row>
     <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>52</v>
@@ -2727,10 +2757,10 @@
     </row>
     <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>52</v>
@@ -2759,10 +2789,10 @@
     </row>
     <row r="46" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>52</v>
@@ -2791,10 +2821,10 @@
     </row>
     <row r="47" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>52</v>
@@ -2823,10 +2853,10 @@
     </row>
     <row r="48" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>52</v>
@@ -2855,10 +2885,10 @@
     </row>
     <row r="49" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>52</v>
@@ -2887,10 +2917,10 @@
     </row>
     <row r="50" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>52</v>
@@ -2919,10 +2949,10 @@
     </row>
     <row r="51" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>52</v>
@@ -2951,13 +2981,13 @@
     </row>
     <row r="52" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>276</v>
+        <v>52</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>15</v>
@@ -2983,13 +3013,13 @@
     </row>
     <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>15</v>
@@ -3015,13 +3045,13 @@
     </row>
     <row r="54" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>15</v>
@@ -3047,13 +3077,13 @@
     </row>
     <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>52</v>
+        <v>276</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>15</v>
@@ -3079,13 +3109,13 @@
     </row>
     <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>15</v>
@@ -3111,13 +3141,13 @@
     </row>
     <row r="57" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>15</v>
@@ -3143,13 +3173,13 @@
     </row>
     <row r="58" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>15</v>
@@ -3175,13 +3205,13 @@
     </row>
     <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>15</v>
@@ -3207,13 +3237,13 @@
     </row>
     <row r="60" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
@@ -3239,13 +3269,13 @@
     </row>
     <row r="61" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>15</v>
@@ -3269,15 +3299,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>136</v>
+        <v>279</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>15</v>
@@ -3289,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>12</v>
@@ -3298,18 +3328,18 @@
         <v>2</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>15</v>
@@ -3321,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>12</v>
@@ -3330,18 +3360,18 @@
         <v>2</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>15</v>
@@ -3367,13 +3397,13 @@
     </row>
     <row r="65" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>15</v>
@@ -3399,13 +3429,13 @@
     </row>
     <row r="66" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>278</v>
+        <v>148</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>15</v>
@@ -3431,10 +3461,10 @@
     </row>
     <row r="67" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>159</v>
@@ -3463,10 +3493,10 @@
     </row>
     <row r="68" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>156</v>
+        <v>274</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>159</v>
@@ -3495,13 +3525,13 @@
     </row>
     <row r="69" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>15</v>
@@ -3527,10 +3557,10 @@
     </row>
     <row r="70" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>159</v>
@@ -3559,13 +3589,13 @@
     </row>
     <row r="71" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>15</v>
@@ -3591,13 +3621,13 @@
     </row>
     <row r="72" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>15</v>
@@ -3623,13 +3653,13 @@
     </row>
     <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>15</v>
@@ -3655,13 +3685,13 @@
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -3687,13 +3717,13 @@
     </row>
     <row r="75" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>15</v>
@@ -3719,13 +3749,13 @@
     </row>
     <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>15</v>
@@ -3751,13 +3781,13 @@
     </row>
     <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>15</v>
@@ -3783,13 +3813,13 @@
     </row>
     <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
@@ -3815,10 +3845,10 @@
     </row>
     <row r="79" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>159</v>
@@ -3847,13 +3877,13 @@
     </row>
     <row r="80" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
@@ -3879,13 +3909,13 @@
     </row>
     <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>15</v>
@@ -3911,13 +3941,13 @@
     </row>
     <row r="82" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -3943,13 +3973,13 @@
     </row>
     <row r="83" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>15</v>
@@ -3975,13 +4005,13 @@
     </row>
     <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>15</v>
@@ -4007,13 +4037,13 @@
     </row>
     <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
@@ -4039,13 +4069,13 @@
     </row>
     <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
@@ -4071,13 +4101,13 @@
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4103,13 +4133,13 @@
     </row>
     <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
@@ -4135,13 +4165,13 @@
     </row>
     <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
@@ -4167,13 +4197,13 @@
     </row>
     <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
@@ -4199,13 +4229,13 @@
     </row>
     <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>15</v>
@@ -4231,13 +4261,13 @@
     </row>
     <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -4263,13 +4293,13 @@
     </row>
     <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>15</v>
@@ -4295,13 +4325,13 @@
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -4327,13 +4357,13 @@
     </row>
     <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4359,13 +4389,13 @@
     </row>
     <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -4391,13 +4421,13 @@
     </row>
     <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -4423,78 +4453,78 @@
     </row>
     <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="D99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
       </c>
@@ -4505,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>12</v>
@@ -4514,18 +4544,18 @@
         <v>2</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>15</v>
@@ -4537,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>12</v>
@@ -4546,18 +4576,18 @@
         <v>2</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
@@ -4569,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>12</v>
@@ -4578,18 +4608,18 @@
         <v>2</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>262</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>15</v>
@@ -4610,18 +4640,18 @@
         <v>2</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>15</v>
@@ -4642,18 +4672,18 @@
         <v>2</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>15</v>
@@ -4674,18 +4704,18 @@
         <v>2</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
@@ -4706,18 +4736,18 @@
         <v>2</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>15</v>
@@ -4738,18 +4768,18 @@
         <v>2</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>15</v>
@@ -4770,18 +4800,18 @@
         <v>2</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>15</v>
@@ -4802,7 +4832,135 @@
         <v>2</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A826360C-8612-4135-AA67-367DA85D4F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C0373B-85A0-49D1-9B4E-20AF25100BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="319">
   <si>
     <t>Design</t>
   </si>
@@ -912,6 +912,84 @@
   </si>
   <si>
     <t>click sul pannello "Notifiche in evidenza" e verifica la presenza delle notifiche</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu incident - Verifica atterraggio SRM Online</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu incident - Verifica atterraggio SRM Online</t>
+  </si>
+  <si>
+    <t>Click icona incident dai top Menu, click sul link SRM Online e verifica atterraggio</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu incident - Verifica atterraggio SisCo</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu incident - Verifica atterraggio SisCo</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu incident - Verifica atterraggio Elenco telefonico</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu incident - Verifica atterraggio Elenco telefonico</t>
+  </si>
+  <si>
+    <t>Click icona incident dai top Menu, click sul link Elenco telefonico e verifica atterraggio</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utility - Cruscotto resilience</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utility - Quattroruote - Calcolo valore veicolo</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utility - Interrogazioni centralizzate</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utility - Banche Dati ANIA</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utility - Gestione Magazzino OBU</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utility - Cruscotto Installazione Dispositivo Satellitare</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utility - Monitor Scoring AZ Bonus Drive</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utility - Quattroruote - Calcolo valore veicolo</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utility - Interrogazioni centralizzate</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utility - Banche Dati ANIA</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utility - Gestione Magazzino OBU</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utility - Cruscotto Installazione Dispositivo Satellitare</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utility - Monitor Scoring AZ Bonus Drive</t>
+  </si>
+  <si>
+    <t>Click icona SwitchBurger dai top Menu, click sul link Utilità e verifica atterraggio della pagina</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utility - Cruscotto resilience</t>
+  </si>
+  <si>
+    <t>Verifica presenza links da Utility</t>
+  </si>
+  <si>
+    <t>Click icona SwitchBurger dai top Menu, click sul link Utilità e verifica la presenza dei link</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica presenza links da Utility</t>
   </si>
 </sst>
 </file>
@@ -1327,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N101" sqref="N101"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4069,13 +4147,13 @@
     </row>
     <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
@@ -4101,13 +4179,13 @@
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>184</v>
+        <v>297</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4133,13 +4211,13 @@
     </row>
     <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>195</v>
+        <v>299</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
@@ -4165,13 +4243,13 @@
     </row>
     <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>197</v>
+        <v>318</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
@@ -4197,13 +4275,13 @@
     </row>
     <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>196</v>
+        <v>315</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>193</v>
+        <v>301</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>206</v>
+        <v>314</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
@@ -4229,13 +4307,13 @@
     </row>
     <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>207</v>
+        <v>314</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>15</v>
@@ -4261,13 +4339,13 @@
     </row>
     <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>201</v>
+        <v>309</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>208</v>
+        <v>314</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -4293,13 +4371,13 @@
     </row>
     <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>229</v>
+        <v>310</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>202</v>
+        <v>314</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>15</v>
@@ -4325,13 +4403,13 @@
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>209</v>
+        <v>311</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -4357,13 +4435,13 @@
     </row>
     <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4389,13 +4467,13 @@
     </row>
     <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -4421,13 +4499,13 @@
     </row>
     <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -4453,13 +4531,13 @@
     </row>
     <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
@@ -4485,13 +4563,13 @@
     </row>
     <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -4517,13 +4595,13 @@
     </row>
     <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -4549,13 +4627,13 @@
     </row>
     <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>290</v>
+        <v>193</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>15</v>
@@ -4581,385 +4659,737 @@
     </row>
     <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="D113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G103" s="3" t="s">
+      <c r="D114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J103" s="3" t="s">
+      <c r="H114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J114" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+    <row r="115" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G104" s="3" t="s">
+      <c r="D115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J104" s="3" t="s">
+      <c r="H115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J115" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+    <row r="116" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G105" s="3" t="s">
+      <c r="D116" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J105" s="3" t="s">
+      <c r="H116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J116" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+    <row r="117" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G106" s="3" t="s">
+      <c r="D117" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J106" s="3" t="s">
+      <c r="H117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J117" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+    <row r="118" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G107" s="3" t="s">
+      <c r="D118" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J107" s="3" t="s">
+      <c r="H118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J118" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+    <row r="119" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G108" s="3" t="s">
+      <c r="D119" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J108" s="3" t="s">
+      <c r="H119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J119" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+    <row r="120" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G109" s="3" t="s">
+      <c r="D120" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H109" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J109" s="3" t="s">
+      <c r="H120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J120" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+    <row r="121" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G110" s="3" t="s">
+      <c r="D121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H110" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J110" s="3" t="s">
+      <c r="H121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J121" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+    <row r="122" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G111" s="3" t="s">
+      <c r="D122" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J111" s="3" t="s">
+      <c r="H122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J122" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+    <row r="123" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G112" s="3" t="s">
+      <c r="D123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J112" s="3" t="s">
+      <c r="H123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J123" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+    <row r="124" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G113" s="3" t="s">
+      <c r="D124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G124" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J113" s="3" t="s">
+      <c r="H124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J124" s="3" t="s">
         <v>260</v>
       </c>
     </row>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C0373B-85A0-49D1-9B4E-20AF25100BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE351210-A226-4AED-BF00-A00FD27E0FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="324">
   <si>
     <t>Design</t>
   </si>
@@ -806,15 +806,9 @@
     <t>Si accede a Numbers, click sul tab Indicatori Operativi, verifica l'atterraggio alla pagina del primo indice digitale</t>
   </si>
   <si>
-    <t>Verifica aggancio su Incentivi</t>
-  </si>
-  <si>
     <t>Matrix Web : Navigation_Numbers_Verifica aggancio su Incentivi</t>
   </si>
   <si>
-    <t>Si accede a Numbers, verifica click tab incentivi</t>
-  </si>
-  <si>
     <t>Allianz Projects\Digital Interaction\Allianz Matrix Web\Numbers</t>
   </si>
   <si>
@@ -990,6 +984,27 @@
   </si>
   <si>
     <t>Matrix Web : Navigation_HomePage_Verifica presenza links da Utility</t>
+  </si>
+  <si>
+    <t>Verifica su Incentivi aggancio Primo indice dal Panel "GRUPPO INCENTIVATO 178 DAN"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si accede a Numbers, click sul tab Incentivi, click sul panel "GRUPPO INCENTIVATO 178 DAN" e verifica l'atterraggio alla pagina del primo indice </t>
+  </si>
+  <si>
+    <t>Verifica aggancio Le Mie Info</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio alla pagina "Le Mie Info"</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Le Mie Info</t>
+  </si>
+  <si>
+    <t>Verifica aggancio New Company Handbook</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio New Company Handbook</t>
   </si>
 </sst>
 </file>
@@ -1405,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,7 +1925,7 @@
         <v>91</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>31</v>
@@ -1942,7 +1957,7 @@
         <v>92</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>33</v>
@@ -1974,7 +1989,7 @@
         <v>93</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>34</v>
@@ -2515,10 +2530,10 @@
     </row>
     <row r="35" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>31</v>
@@ -3097,7 +3112,7 @@
         <v>68</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>15</v>
@@ -3129,7 +3144,7 @@
         <v>69</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>15</v>
@@ -3161,7 +3176,7 @@
         <v>70</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>15</v>
@@ -3225,7 +3240,7 @@
         <v>72</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>15</v>
@@ -3257,7 +3272,7 @@
         <v>73</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>15</v>
@@ -3283,13 +3298,13 @@
     </row>
     <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>15</v>
@@ -3321,7 +3336,7 @@
         <v>74</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
@@ -3353,7 +3368,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>15</v>
@@ -3379,13 +3394,13 @@
     </row>
     <row r="62" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>15</v>
@@ -3417,7 +3432,7 @@
         <v>76</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>15</v>
@@ -3475,13 +3490,13 @@
     </row>
     <row r="65" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>144</v>
+        <v>321</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>145</v>
+        <v>319</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>146</v>
+        <v>320</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>15</v>
@@ -3507,13 +3522,13 @@
     </row>
     <row r="66" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>15</v>
@@ -3539,13 +3554,13 @@
     </row>
     <row r="67" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>15</v>
@@ -3571,10 +3586,10 @@
     </row>
     <row r="68" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>274</v>
+        <v>152</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>159</v>
@@ -3603,10 +3618,10 @@
     </row>
     <row r="69" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>154</v>
+        <v>273</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>159</v>
@@ -3635,10 +3650,10 @@
     </row>
     <row r="70" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>159</v>
@@ -3667,13 +3682,13 @@
     </row>
     <row r="71" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>15</v>
@@ -3699,13 +3714,13 @@
     </row>
     <row r="72" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>15</v>
@@ -3731,10 +3746,10 @@
     </row>
     <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>159</v>
@@ -3763,13 +3778,13 @@
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -3795,10 +3810,10 @@
     </row>
     <row r="75" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>166</v>
@@ -3827,13 +3842,13 @@
     </row>
     <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>15</v>
@@ -3859,10 +3874,10 @@
     </row>
     <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>149</v>
@@ -3891,10 +3906,10 @@
     </row>
     <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>173</v>
+        <v>323</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>24</v>
+        <v>322</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>159</v>
@@ -3923,13 +3938,13 @@
     </row>
     <row r="79" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>15</v>
@@ -3955,13 +3970,13 @@
     </row>
     <row r="80" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
@@ -3987,10 +4002,10 @@
     </row>
     <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>159</v>
@@ -4019,13 +4034,13 @@
     </row>
     <row r="82" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -4051,13 +4066,13 @@
     </row>
     <row r="83" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>15</v>
@@ -4083,13 +4098,13 @@
     </row>
     <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>15</v>
@@ -4115,13 +4130,13 @@
     </row>
     <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
@@ -4147,13 +4162,13 @@
     </row>
     <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>294</v>
+        <v>185</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>293</v>
+        <v>184</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>295</v>
+        <v>187</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
@@ -4179,13 +4194,13 @@
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>296</v>
+        <v>189</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>297</v>
+        <v>188</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4211,13 +4226,13 @@
     </row>
     <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
@@ -4243,13 +4258,13 @@
     </row>
     <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
@@ -4275,13 +4290,13 @@
     </row>
     <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
@@ -4307,13 +4322,13 @@
     </row>
     <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>15</v>
@@ -4339,13 +4354,13 @@
     </row>
     <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -4371,13 +4386,13 @@
     </row>
     <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>15</v>
@@ -4403,13 +4418,13 @@
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -4435,13 +4450,13 @@
     </row>
     <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4467,13 +4482,13 @@
     </row>
     <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -4499,13 +4514,13 @@
     </row>
     <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>191</v>
+        <v>310</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>190</v>
+        <v>304</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -4531,13 +4546,13 @@
     </row>
     <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>184</v>
+        <v>305</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
@@ -4563,13 +4578,13 @@
     </row>
     <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -4595,13 +4610,13 @@
     </row>
     <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -4627,13 +4642,13 @@
     </row>
     <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>15</v>
@@ -4659,13 +4674,13 @@
     </row>
     <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
@@ -4691,13 +4706,13 @@
     </row>
     <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>15</v>
@@ -4723,13 +4738,13 @@
     </row>
     <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>15</v>
@@ -4755,13 +4770,13 @@
     </row>
     <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>15</v>
@@ -4787,13 +4802,13 @@
     </row>
     <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
@@ -4819,13 +4834,13 @@
     </row>
     <row r="107" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>15</v>
@@ -4851,13 +4866,13 @@
     </row>
     <row r="108" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>15</v>
@@ -4883,13 +4898,13 @@
     </row>
     <row r="109" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>15</v>
@@ -4915,13 +4930,13 @@
     </row>
     <row r="110" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>15</v>
@@ -4947,13 +4962,13 @@
     </row>
     <row r="111" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>15</v>
@@ -4979,13 +4994,13 @@
     </row>
     <row r="112" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>15</v>
@@ -5011,45 +5026,45 @@
     </row>
     <row r="113" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="B114" s="3" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>15</v>
@@ -5061,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>12</v>
@@ -5070,18 +5085,18 @@
         <v>2</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>15</v>
@@ -5093,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>12</v>
@@ -5102,18 +5117,18 @@
         <v>2</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>15</v>
@@ -5134,18 +5149,18 @@
         <v>2</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>15</v>
@@ -5166,18 +5181,18 @@
         <v>2</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>15</v>
@@ -5198,18 +5213,18 @@
         <v>2</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>15</v>
@@ -5230,18 +5245,18 @@
         <v>2</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>15</v>
@@ -5262,18 +5277,18 @@
         <v>2</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>15</v>
@@ -5294,18 +5309,18 @@
         <v>2</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>15</v>
@@ -5326,18 +5341,18 @@
         <v>2</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>15</v>
@@ -5358,18 +5373,18 @@
         <v>2</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>15</v>
@@ -5390,7 +5405,71 @@
         <v>2</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE351210-A226-4AED-BF00-A00FD27E0FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009E3689-327B-4DA3-B5A7-A70AD07E7BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="345">
   <si>
     <t>Design</t>
   </si>
@@ -557,12 +557,6 @@
     <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Antiriciclaggio</t>
   </si>
   <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Risorse per l\'Agenzia</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Risorse per l\'Agenzia</t>
-  </si>
-  <si>
     <t>Verifica aggancio Operatività</t>
   </si>
   <si>
@@ -1005,6 +999,75 @@
   </si>
   <si>
     <t>Matrix Web : Navigation_MieInfo_Verifica aggancio New Company Handbook</t>
+  </si>
+  <si>
+    <t>Verifica aggancio su tutte le sotto pagine di Prodotti</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Prodotti</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Prodotti e l'atterraggio di tutte le sue sotto pagine</t>
+  </si>
+  <si>
+    <t>Verifica aggancio su tutte le sotto pagine di Iniziative</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Iniziative e l'atterraggio di tutte le sue sotto pagine</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Iniziative</t>
+  </si>
+  <si>
+    <t>Verifica aggancio su tutte le sotto pagine di Sales Academy</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Sales Academy</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Sales Academy e l'atterraggio di tutte le sue sotto pagine</t>
+  </si>
+  <si>
+    <t>Verifica aggancio su tutte le sotto pagine di Antiriciclaggio</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Antiriciclaggio</t>
+  </si>
+  <si>
+    <t>Verifica aggancio su tutte le sotto pagine di Risorse per l'Agenzia</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Risorse per l'Agenzia e l'atterraggio di tutte le sue sotto pagine</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Antiriciclaggio e l'atterraggio di tutte le sue sotto pagine</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Risorse per l'Agenzia</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Risorse per l'Agente</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Risorse per l'Agente</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Risorse per l'Agente</t>
+  </si>
+  <si>
+    <t>Verifica aggancio su tutte le sotto pagine di Risorse per l'Agente</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Risorse per l'Agente e l'atterraggio di tutte le sue sotto pagine</t>
+  </si>
+  <si>
+    <t>Verifica aggancio su tutte le sotto pagine di Il Mondo Allianz</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Il Mondo Allianz e l'atterraggio di tutte le sue sotto pagine</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Il Mondo Allianz</t>
   </si>
 </sst>
 </file>
@@ -1420,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,7 +1988,7 @@
         <v>91</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>31</v>
@@ -1957,7 +2020,7 @@
         <v>92</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>33</v>
@@ -1989,7 +2052,7 @@
         <v>93</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>34</v>
@@ -2530,10 +2593,10 @@
     </row>
     <row r="35" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>31</v>
@@ -3112,7 +3175,7 @@
         <v>68</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>15</v>
@@ -3144,7 +3207,7 @@
         <v>69</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>15</v>
@@ -3176,7 +3239,7 @@
         <v>70</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>15</v>
@@ -3240,7 +3303,7 @@
         <v>72</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>15</v>
@@ -3272,7 +3335,7 @@
         <v>73</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>15</v>
@@ -3298,13 +3361,13 @@
     </row>
     <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>15</v>
@@ -3336,7 +3399,7 @@
         <v>74</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
@@ -3368,7 +3431,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>15</v>
@@ -3394,13 +3457,13 @@
     </row>
     <row r="62" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>15</v>
@@ -3432,7 +3495,7 @@
         <v>76</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>15</v>
@@ -3490,13 +3553,13 @@
     </row>
     <row r="65" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>15</v>
@@ -3618,10 +3681,10 @@
     </row>
     <row r="69" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>159</v>
@@ -3680,47 +3743,33 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>156</v>
+        <v>322</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>15</v>
@@ -3744,47 +3793,33 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>160</v>
+        <v>325</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -3810,13 +3845,13 @@
     </row>
     <row r="75" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>15</v>
@@ -3840,47 +3875,33 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>168</v>
+        <v>329</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>167</v>
+        <v>328</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>15</v>
@@ -3906,13 +3927,13 @@
     </row>
     <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>323</v>
+        <v>164</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>322</v>
+        <v>165</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
@@ -3938,13 +3959,13 @@
     </row>
     <row r="79" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>15</v>
@@ -3970,13 +3991,13 @@
     </row>
     <row r="80" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
@@ -4002,10 +4023,10 @@
     </row>
     <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>175</v>
+        <v>320</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>159</v>
@@ -4034,13 +4055,13 @@
     </row>
     <row r="82" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -4066,10 +4087,10 @@
     </row>
     <row r="83" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>159</v>
@@ -4096,47 +4117,33 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>180</v>
+        <v>332</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>181</v>
+        <v>331</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
@@ -4160,47 +4167,33 @@
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>185</v>
+        <v>336</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>184</v>
+        <v>333</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4226,13 +4219,13 @@
     </row>
     <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>293</v>
+        <v>159</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
@@ -4256,47 +4249,33 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>296</v>
+        <v>178</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>297</v>
+        <v>179</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>298</v>
+        <v>159</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
@@ -4320,47 +4299,33 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -4386,13 +4351,13 @@
     </row>
     <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>312</v>
+        <v>185</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>15</v>
@@ -4418,13 +4383,13 @@
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -4450,13 +4415,13 @@
     </row>
     <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4482,13 +4447,13 @@
     </row>
     <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -4514,13 +4479,13 @@
     </row>
     <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -4546,13 +4511,13 @@
     </row>
     <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
@@ -4578,13 +4543,13 @@
     </row>
     <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>203</v>
+        <v>310</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -4610,13 +4575,13 @@
     </row>
     <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>184</v>
+        <v>298</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -4642,13 +4607,13 @@
     </row>
     <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>195</v>
+        <v>299</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>205</v>
+        <v>310</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>15</v>
@@ -4674,13 +4639,13 @@
     </row>
     <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>197</v>
+        <v>306</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
@@ -4706,13 +4671,13 @@
     </row>
     <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>196</v>
+        <v>307</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>193</v>
+        <v>301</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>15</v>
@@ -4738,13 +4703,13 @@
     </row>
     <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>207</v>
+        <v>310</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>15</v>
@@ -4770,13 +4735,13 @@
     </row>
     <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>201</v>
+        <v>309</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>15</v>
@@ -4802,13 +4767,13 @@
     </row>
     <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
@@ -4834,13 +4799,13 @@
     </row>
     <row r="107" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>15</v>
@@ -4866,13 +4831,13 @@
     </row>
     <row r="108" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>15</v>
@@ -4898,13 +4863,13 @@
     </row>
     <row r="109" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>15</v>
@@ -4930,13 +4895,13 @@
     </row>
     <row r="110" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>15</v>
@@ -4962,13 +4927,13 @@
     </row>
     <row r="111" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>15</v>
@@ -4994,13 +4959,13 @@
     </row>
     <row r="112" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>285</v>
+        <v>198</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>15</v>
@@ -5026,13 +4991,13 @@
     </row>
     <row r="113" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>15</v>
@@ -5058,13 +5023,13 @@
     </row>
     <row r="114" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>290</v>
+        <v>209</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>15</v>
@@ -5090,205 +5055,205 @@
     </row>
     <row r="115" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C119" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="B121" s="3" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>15</v>
@@ -5300,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>12</v>
@@ -5309,18 +5274,18 @@
         <v>2</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>15</v>
@@ -5332,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>12</v>
@@ -5341,18 +5306,18 @@
         <v>2</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>15</v>
@@ -5373,18 +5338,18 @@
         <v>2</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>15</v>
@@ -5405,18 +5370,18 @@
         <v>2</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>15</v>
@@ -5437,18 +5402,18 @@
         <v>2</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>317</v>
+        <v>237</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>15</v>
@@ -5469,7 +5434,231 @@
         <v>2</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009E3689-327B-4DA3-B5A7-A70AD07E7BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E91A066-FA8F-49BB-A328-90624F3DC389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="376">
   <si>
     <t>Design</t>
   </si>
@@ -752,33 +752,15 @@
     <t>Matrix Web : Navigation_Numbers_Verifica aggancio Ricavi di Agenzia</t>
   </si>
   <si>
-    <t>Verifica su Linee di Business aggancio New Business</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business aggancio New Business</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business aggancio Incassi</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business aggancio Incassi</t>
-  </si>
-  <si>
     <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina New business</t>
   </si>
   <si>
     <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina RICAVI DI AGENZIA</t>
   </si>
   <si>
-    <t>Verifica su Linee di Business aggancio Portafoglio</t>
-  </si>
-  <si>
     <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina Incassi</t>
   </si>
   <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business aggancio Portafoglio</t>
-  </si>
-  <si>
     <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina Portafoglio</t>
   </si>
   <si>
@@ -926,60 +908,12 @@
     <t>Click icona incident dai top Menu, click sul link Elenco telefonico e verifica atterraggio</t>
   </si>
   <si>
-    <t>Verifica atterraggio da Utility - Cruscotto resilience</t>
-  </si>
-  <si>
-    <t>Verifica atterraggio da Utility - Quattroruote - Calcolo valore veicolo</t>
-  </si>
-  <si>
-    <t>Verifica atterraggio da Utility - Interrogazioni centralizzate</t>
-  </si>
-  <si>
-    <t>Verifica atterraggio da Utility - Banche Dati ANIA</t>
-  </si>
-  <si>
-    <t>Verifica atterraggio da Utility - Gestione Magazzino OBU</t>
-  </si>
-  <si>
-    <t>Verifica atterraggio da Utility - Cruscotto Installazione Dispositivo Satellitare</t>
-  </si>
-  <si>
-    <t>Verifica atterraggio da Utility - Monitor Scoring AZ Bonus Drive</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utility - Quattroruote - Calcolo valore veicolo</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utility - Interrogazioni centralizzate</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utility - Banche Dati ANIA</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utility - Gestione Magazzino OBU</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utility - Cruscotto Installazione Dispositivo Satellitare</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utility - Monitor Scoring AZ Bonus Drive</t>
-  </si>
-  <si>
     <t>Click icona SwitchBurger dai top Menu, click sul link Utilità e verifica atterraggio della pagina</t>
   </si>
   <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utility - Cruscotto resilience</t>
-  </si>
-  <si>
-    <t>Verifica presenza links da Utility</t>
-  </si>
-  <si>
     <t>Click icona SwitchBurger dai top Menu, click sul link Utilità e verifica la presenza dei link</t>
   </si>
   <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica presenza links da Utility</t>
-  </si>
-  <si>
     <t>Verifica su Incentivi aggancio Primo indice dal Panel "GRUPPO INCENTIVATO 178 DAN"</t>
   </si>
   <si>
@@ -1068,6 +1002,165 @@
   </si>
   <si>
     <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Il Mondo Allianz</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica presenza links da Utilità</t>
+  </si>
+  <si>
+    <t>Verifica presenza links da Utilità</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Cruscotto resilience</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utilità - Cruscotto resilience</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Quattroruote - Calcolo valore veicolo</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utilità - Quattroruote - Calcolo valore veicolo</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Interrogazioni centralizzate</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utilità - Interrogazioni centralizzate</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Gestione Magazzino OBU</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utilità - Gestione Magazzino OBU</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Cruscotto Installazione Dispositivo Satellitare</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utilità - Cruscotto Installazione Dispositivo Satellitare</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Monitor Scoring AZ Bonus Drive</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utilità - Monitor Scoring AZ Bonus Drive</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab DANNI l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab DANNI l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab DANNI l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab DANNI l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab DANNI l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab DANNI l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab MOTOR l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MOTOR l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Retention</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Retention</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina  New business</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina Retention</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Retention</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Retention</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MIDCO l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MIDCO l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MIDCO l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab ALTRO l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab ALTRO l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab MIDCO l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab MIDCO l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab MIDCO l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab ALTRO l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab ALTRO l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab ALTRO l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab ALTRO l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica dati scritti corretti</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers e verifica dai tab DANNI e VITA, MIDCO e ALTRO  che i seguenti link siano presenti: "New business", "Incassi", "Portafoglio", mentre dai tab MOTOR e RAMI VARI RETAIL oltre ai link descritti verifica anche la presenza di "Retention"</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica dati scritti corretti nella pagina Linee di Business</t>
   </si>
 </sst>
 </file>
@@ -1483,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,7 +2081,7 @@
         <v>91</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>31</v>
@@ -2020,7 +2113,7 @@
         <v>92</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>33</v>
@@ -2052,7 +2145,7 @@
         <v>93</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>34</v>
@@ -2593,10 +2686,10 @@
     </row>
     <row r="35" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>31</v>
@@ -3175,7 +3268,7 @@
         <v>68</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>15</v>
@@ -3207,7 +3300,7 @@
         <v>69</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>15</v>
@@ -3239,7 +3332,7 @@
         <v>70</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>15</v>
@@ -3303,7 +3396,7 @@
         <v>72</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>15</v>
@@ -3335,7 +3428,7 @@
         <v>73</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>15</v>
@@ -3361,13 +3454,13 @@
     </row>
     <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>15</v>
@@ -3399,7 +3492,7 @@
         <v>74</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
@@ -3431,7 +3524,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>15</v>
@@ -3457,13 +3550,13 @@
     </row>
     <row r="62" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>15</v>
@@ -3495,7 +3588,7 @@
         <v>76</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>15</v>
@@ -3553,13 +3646,13 @@
     </row>
     <row r="65" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>15</v>
@@ -3681,10 +3774,10 @@
     </row>
     <row r="69" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>159</v>
@@ -3743,23 +3836,37 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+        <v>302</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="72" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
@@ -3793,23 +3900,37 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
+        <v>304</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
@@ -3875,23 +3996,37 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
+        <v>308</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -4023,10 +4158,10 @@
     </row>
     <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>159</v>
@@ -4117,23 +4252,37 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+        <v>313</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
@@ -4167,23 +4316,37 @@
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+        <v>312</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
@@ -4219,10 +4382,10 @@
     </row>
     <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>159</v>
@@ -4249,23 +4412,37 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+        <v>319</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
@@ -4299,23 +4476,37 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+        <v>321</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
@@ -4389,7 +4580,7 @@
         <v>186</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -4415,13 +4606,13 @@
     </row>
     <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4447,13 +4638,13 @@
     </row>
     <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -4479,13 +4670,13 @@
     </row>
     <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -4511,13 +4702,13 @@
     </row>
     <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
@@ -4543,13 +4734,13 @@
     </row>
     <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -4575,13 +4766,13 @@
     </row>
     <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -4607,13 +4798,13 @@
     </row>
     <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>15</v>
@@ -4639,13 +4830,13 @@
     </row>
     <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
@@ -4671,13 +4862,13 @@
     </row>
     <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>15</v>
@@ -4703,13 +4894,13 @@
     </row>
     <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>15</v>
@@ -4735,13 +4926,13 @@
     </row>
     <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>310</v>
+        <v>201</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>15</v>
@@ -4767,13 +4958,13 @@
     </row>
     <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
@@ -4799,13 +4990,13 @@
     </row>
     <row r="107" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>15</v>
@@ -4831,13 +5022,13 @@
     </row>
     <row r="108" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>15</v>
@@ -4863,13 +5054,13 @@
     </row>
     <row r="109" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>15</v>
@@ -4895,13 +5086,13 @@
     </row>
     <row r="110" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>15</v>
@@ -4927,13 +5118,13 @@
     </row>
     <row r="111" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>15</v>
@@ -4959,13 +5150,13 @@
     </row>
     <row r="112" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>15</v>
@@ -4991,13 +5182,13 @@
     </row>
     <row r="113" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>15</v>
@@ -5023,13 +5214,13 @@
     </row>
     <row r="114" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>15</v>
@@ -5055,13 +5246,13 @@
     </row>
     <row r="115" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>15</v>
@@ -5087,13 +5278,13 @@
     </row>
     <row r="116" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>15</v>
@@ -5119,13 +5310,13 @@
     </row>
     <row r="117" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>15</v>
@@ -5151,13 +5342,13 @@
     </row>
     <row r="118" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>15</v>
@@ -5183,13 +5374,13 @@
     </row>
     <row r="119" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>15</v>
@@ -5215,13 +5406,13 @@
     </row>
     <row r="120" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>15</v>
@@ -5247,13 +5438,13 @@
     </row>
     <row r="121" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>15</v>
@@ -5277,15 +5468,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>15</v>
@@ -5297,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>12</v>
@@ -5306,40 +5497,26 @@
         <v>2</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>228</v>
+        <v>375</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>229</v>
+        <v>373</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>256</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
     </row>
     <row r="124" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
@@ -5370,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -5402,7 +5579,7 @@
         <v>2</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -5434,7 +5611,7 @@
         <v>2</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -5445,7 +5622,7 @@
         <v>237</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>15</v>
@@ -5466,18 +5643,18 @@
         <v>2</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>240</v>
+        <v>338</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>15</v>
@@ -5498,18 +5675,18 @@
         <v>2</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>15</v>
@@ -5530,18 +5707,18 @@
         <v>2</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>247</v>
+        <v>341</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>245</v>
+        <v>342</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>15</v>
@@ -5562,103 +5739,355 @@
         <v>2</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+    </row>
+    <row r="132" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+    </row>
+    <row r="133" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+    </row>
+    <row r="134" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+    </row>
+    <row r="135" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+    </row>
+    <row r="136" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+    </row>
+    <row r="137" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+    </row>
+    <row r="138" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+    </row>
+    <row r="139" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+    </row>
+    <row r="140" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+    </row>
+    <row r="141" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+    </row>
+    <row r="142" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+    </row>
+    <row r="143" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+    </row>
+    <row r="144" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+    </row>
+    <row r="145" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J145" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B131" s="3" t="s">
+    </row>
+    <row r="146" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G131" s="3" t="s">
+      <c r="B147" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>256</v>
+      <c r="H147" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E91A066-FA8F-49BB-A328-90624F3DC389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C91B389-33B4-4B0F-8E8D-4D16DC778426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="376">
   <si>
     <t>Design</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Verifica aggancio Emetti Polizza - Gestione Richieste per PA</t>
   </si>
   <si>
-    <t>Verifica aggancio Estrai dettaglio</t>
-  </si>
-  <si>
     <t>Verifica aggancio Appuntamento</t>
   </si>
   <si>
@@ -416,751 +413,754 @@
     <t>MatrixWeb: Navigation_Sales_Verifica aggancio Emetti Polizza - Gestione Richieste per PA</t>
   </si>
   <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Appuntamento</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica aggancio News image Primo comandamento</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Preventivi e quotazioni - Card Danni</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Preventivi e quotazioni Danni - button: Vedi Tutti</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Preventivi e quotazioni - Card Vita</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Proposte Danni - Card Danni</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Proposte Danni - button: Vedi Tutte</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Proposte Vita - button: Vedi Tutte</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_News_Verifica aggancio News</t>
+  </si>
+  <si>
+    <t>Allianz Projects\Digital Interaction\Allianz Matrix Web\Clients</t>
+  </si>
+  <si>
+    <t>Anagrafe</t>
+  </si>
+  <si>
+    <t>Allianz Projects\Digital Interaction\Allianz Matrix Web\Switch page</t>
+  </si>
+  <si>
+    <t>Sinistri</t>
+  </si>
+  <si>
+    <t>Allianz Projects\Digital Interaction\Allianz Matrix Web\Sales</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Analisi dei bisogni</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Clients_Verifica aggancio Analisi dei bisogni</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica presenza links Menu</t>
+  </si>
+  <si>
+    <t>Verifica presenza links Menu</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica tutti i link presenti</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Primo Piano</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Primo Piano</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info e verifica atterraggio della pagina</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info e verifica tutti i link presenti</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Raccolte</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Raccolte</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Prodotti</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Prodotti</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Iniziative</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Iniziative</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Eventi e Sponsorizzazioni</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Eventi e Sponsorizzazioni</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica atterraggio della pagina e la presenza dei sottomenu</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Sales Academy</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Sales Academy</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Momento della Verità</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Momento della Verità</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Le release</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Le release</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica atterraggio della pagina e la presenza dei panel</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Manuali Informatici</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Manuali Informatici</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Circolari</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Circolari</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Company Handbook</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Company Handbook</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Antiriciclaggio</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Operatività</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Operatività</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Risorse per l'Agenzia</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Risorse per l'Agenzia</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Il Mondo Allianz</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Il Mondo Allianz</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu Principali</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu Principali</t>
+  </si>
+  <si>
+    <t>Top Menu incident - Verifica presenza dei link</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Top Menu incident - Verifica presenza dei link</t>
+  </si>
+  <si>
+    <t>Click dei top Menu link: calendario, incident, notifiche, utente e lo switch button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click link incident, verifica presenza dei link </t>
+  </si>
+  <si>
+    <t>Top Menu notifiche - Verifica presenza dei link</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Top Menu notifiche - Verifica presenza dei link</t>
+  </si>
+  <si>
+    <t>Top Menu Clients</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Top Menu Clients</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Top Menu Sales</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu Sales</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_VerificaTop Menu Numbers</t>
+  </si>
+  <si>
+    <t>Verifica Menu Numbers</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu Sales</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_VerificaTop Menu Backoffice</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu News</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu News</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu Le mie info</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu Le mie info</t>
+  </si>
+  <si>
+    <t>Verifica presenza della buca di ricerca</t>
+  </si>
+  <si>
+    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Clients</t>
+  </si>
+  <si>
+    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Sales</t>
+  </si>
+  <si>
+    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Sales </t>
+  </si>
+  <si>
+    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina News</t>
+  </si>
+  <si>
+    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Le mie info</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Button Clients</t>
+  </si>
+  <si>
+    <t>Verifica Button Clients</t>
+  </si>
+  <si>
+    <t>Click su button Clients e verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Button Sales</t>
+  </si>
+  <si>
+    <t>Verifica Button Sales</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Button Numbers</t>
+  </si>
+  <si>
+    <t>Verifica Button Numbers</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Button Backoffice</t>
+  </si>
+  <si>
+    <t>Verifica Button Backoffice</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Button News</t>
+  </si>
+  <si>
+    <t>Verifica Button News</t>
+  </si>
+  <si>
+    <t>Click sul button Sales e verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Click sul button Numbers e verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Click sul button Backoffice e verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Click sul button News e verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica link: Vedi tutte le news</t>
+  </si>
+  <si>
+    <t>Verifica link: Vedi tutte le news</t>
+  </si>
+  <si>
+    <t>Click sul link "Vai al centro notifiche" e verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Click sul link "Vedi tutte" e verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Verifica buca di ricerca</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica buca di ricerca</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica aggancio Numbers</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Numbers</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers e verifica aggancio della pagina</t>
+  </si>
+  <si>
+    <t>Verifica Filtro</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica Filtro</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers e verifica cliccando l'icona di filtro l'apertura del popup</t>
+  </si>
+  <si>
+    <t>Verifica PDF</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica PDF</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers e verifica cliccando l'icona ddel pdf l'apertura del pdf</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Ricavi di Agenzia</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica aggancio Ricavi di Agenzia</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina New business</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina RICAVI DI AGENZIA</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina Incassi</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Prodotti aggancio Primo indice prodotto</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Prodotti aggancio Primo indice prodotto</t>
+  </si>
+  <si>
+    <t>Verifica su Indicatori Operativi aggancio Primo indice digitale</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Indicatori Operativi aggancio Primo indice digitale</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab prodotti, verifica l'atterraggio alla pagina del primo indice prodotto</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab Indicatori Operativi, verifica l'atterraggio alla pagina del primo indice digitale</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica aggancio su Incentivi</t>
+  </si>
+  <si>
+    <t>Allianz Projects\Digital Interaction\Allianz Matrix Web\Numbers</t>
+  </si>
+  <si>
+    <t>Verifica Menu Backoffice</t>
+  </si>
+  <si>
+    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Backoffice</t>
+  </si>
+  <si>
+    <t>Verifica apertura disambiguazione: Monitoraggio Customer Digital Footprint</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_BackOffice_Verifica apertura disambiguazione: Monitoraggio Customer Digital Footprint</t>
+  </si>
+  <si>
+    <t>Click link notifiche, click sulla rotellina e la verifica presenza dei link</t>
+  </si>
+  <si>
+    <t>Verifica links Sinistri</t>
+  </si>
+  <si>
+    <t>Verifica links Contabilità</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Preventivi e quotazioni Vita - button: Vedi Tutti</t>
+  </si>
+  <si>
+    <t>Si accede a Sales, apri il pannello "Preventivi e quotazioni" e verifichi dal tab Danni il button "Vedi tutti" l'aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Preventivi e quotazioni Vita - button: Vedi Tutti</t>
+  </si>
+  <si>
+    <t>Si accede a Sales, clicca il pannello "Proposte Danni" e verifica dal tab Vita il button "Vedi tutti" l'aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Si accede a Sales, clicca il pannello "Preventivi e quotazioni" e verifica dal tab Vita il button "Vedi tutti" l'aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Contenuti Salvati</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Contenuti Salvati</t>
+  </si>
+  <si>
+    <t>Si accede a Sales e verifica aggancio della pagina News</t>
+  </si>
+  <si>
+    <t>Si accede a Sales e verifica aggancio della pagina Appuntamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si accede a Sales, clicca il pannello "Preventivi e quotazioni" e verifica dal tab Vita  l'atterraggio della prima Vita </t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Proposte Vita - Card Vita</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Proposte Vita - Card Vita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si accede a Sales, clicca il pannello "Proposte" e verifica dal tab Vita  l'atterraggio della prima Card </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si accede a Sales, clicca il pannello "Proposte" e verifica dal tab Danni  l'atterraggio della prima Card </t>
+  </si>
+  <si>
+    <t>Si accede a Sales, clicca il pannello "Proposte" e verifica dal tab Danni il button "Vedi tutti" l'aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio VPS Rami Vari("News")</t>
+  </si>
+  <si>
+    <t>Verifica testi e link delle notifiche</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica testi e link delle notifiche</t>
+  </si>
+  <si>
+    <t>Verifica  link "Vai al Centro notifiche" notifiche</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica  link "Vai al Centro notifiche" notifiche</t>
+  </si>
+  <si>
+    <t>Verifica notifiche siano visibili, che i titoli corrispondano e  controlla i testi dal menu a tendina di ciascuna notifica  corrispondano</t>
+  </si>
+  <si>
+    <t>Verifica Click Pannello "Notifiche in evidenza"</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Click Pannello "Notifiche in evidenza"</t>
+  </si>
+  <si>
+    <t>click sul pannello "Notifiche in evidenza" e verifica la presenza delle notifiche</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu incident - Verifica atterraggio SRM Online</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu incident - Verifica atterraggio SRM Online</t>
+  </si>
+  <si>
+    <t>Click icona incident dai top Menu, click sul link SRM Online e verifica atterraggio</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu incident - Verifica atterraggio SisCo</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu incident - Verifica atterraggio SisCo</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu incident - Verifica atterraggio Elenco telefonico</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu incident - Verifica atterraggio Elenco telefonico</t>
+  </si>
+  <si>
+    <t>Click icona incident dai top Menu, click sul link Elenco telefonico e verifica atterraggio</t>
+  </si>
+  <si>
+    <t>Click icona SwitchBurger dai top Menu, click sul link Utilità e verifica atterraggio della pagina</t>
+  </si>
+  <si>
+    <t>Click icona SwitchBurger dai top Menu, click sul link Utilità e verifica la presenza dei link</t>
+  </si>
+  <si>
+    <t>Verifica su Incentivi aggancio Primo indice dal Panel "GRUPPO INCENTIVATO 178 DAN"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si accede a Numbers, click sul tab Incentivi, click sul panel "GRUPPO INCENTIVATO 178 DAN" e verifica l'atterraggio alla pagina del primo indice </t>
+  </si>
+  <si>
+    <t>Verifica aggancio Le Mie Info</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio alla pagina "Le Mie Info"</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Le Mie Info</t>
+  </si>
+  <si>
+    <t>Verifica aggancio New Company Handbook</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio New Company Handbook</t>
+  </si>
+  <si>
+    <t>Verifica aggancio su tutte le sotto pagine di Prodotti</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Prodotti</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Prodotti e l'atterraggio di tutte le sue sotto pagine</t>
+  </si>
+  <si>
+    <t>Verifica aggancio su tutte le sotto pagine di Iniziative</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Iniziative e l'atterraggio di tutte le sue sotto pagine</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Iniziative</t>
+  </si>
+  <si>
+    <t>Verifica aggancio su tutte le sotto pagine di Sales Academy</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Sales Academy</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Sales Academy e l'atterraggio di tutte le sue sotto pagine</t>
+  </si>
+  <si>
+    <t>Verifica aggancio su tutte le sotto pagine di Antiriciclaggio</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Antiriciclaggio</t>
+  </si>
+  <si>
+    <t>Verifica aggancio su tutte le sotto pagine di Risorse per l'Agenzia</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Risorse per l'Agenzia e l'atterraggio di tutte le sue sotto pagine</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Antiriciclaggio e l'atterraggio di tutte le sue sotto pagine</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Risorse per l'Agenzia</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Risorse per l'Agente</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Risorse per l'Agente</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Risorse per l'Agente</t>
+  </si>
+  <si>
+    <t>Verifica aggancio su tutte le sotto pagine di Risorse per l'Agente</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Risorse per l'Agente e l'atterraggio di tutte le sue sotto pagine</t>
+  </si>
+  <si>
+    <t>Verifica aggancio su tutte le sotto pagine di Il Mondo Allianz</t>
+  </si>
+  <si>
+    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Il Mondo Allianz e l'atterraggio di tutte le sue sotto pagine</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Il Mondo Allianz</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica presenza links da Utilità</t>
+  </si>
+  <si>
+    <t>Verifica presenza links da Utilità</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Cruscotto resilience</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utilità - Cruscotto resilience</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Quattroruote - Calcolo valore veicolo</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utilità - Quattroruote - Calcolo valore veicolo</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Interrogazioni centralizzate</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utilità - Interrogazioni centralizzate</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Gestione Magazzino OBU</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utilità - Gestione Magazzino OBU</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Cruscotto Installazione Dispositivo Satellitare</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utilità - Cruscotto Installazione Dispositivo Satellitare</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Monitor Scoring AZ Bonus Drive</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utilità - Monitor Scoring AZ Bonus Drive</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab DANNI l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab DANNI l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab DANNI l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab DANNI l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab DANNI l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab DANNI l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab MOTOR l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MOTOR l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Retention</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Retention</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina  New business</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina Retention</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Retention</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Retention</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MIDCO l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MIDCO l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MIDCO l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab ALTRO l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab ALTRO l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab MIDCO l'aggancio a New business</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab MIDCO l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab MIDCO l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab ALTRO l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab ALTRO l'aggancio a Incassi</t>
+  </si>
+  <si>
+    <t>Verifica su Linee di Business - dal Tab ALTRO l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab ALTRO l'aggancio a Portafoglio</t>
+  </si>
+  <si>
+    <t>Verifica dati scritti corretti</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers e verifica dai tab DANNI e VITA, MIDCO e ALTRO  che i seguenti link siano presenti: "New business", "Incassi", "Portafoglio", mentre dai tab MOTOR e RAMI VARI RETAIL oltre ai link descritti verifica anche la presenza di "Retention"</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica dati scritti corretti nella pagina Linee di Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica aggancio Estrai dettaglio </t>
+  </si>
+  <si>
     <t>MatrixWeb: Navigation_Sales_Verifica aggancio Estrai dettaglio</t>
   </si>
   <si>
-    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Appuntamento</t>
-  </si>
-  <si>
-    <t>MatrixWeb: Navigation_Sales_Verifica aggancio News image Primo comandamento</t>
-  </si>
-  <si>
-    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Preventivi e quotazioni - Card Danni</t>
-  </si>
-  <si>
-    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Preventivi e quotazioni Danni - button: Vedi Tutti</t>
-  </si>
-  <si>
-    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Preventivi e quotazioni - Card Vita</t>
-  </si>
-  <si>
-    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Proposte Danni - Card Danni</t>
-  </si>
-  <si>
-    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Proposte Danni - button: Vedi Tutte</t>
-  </si>
-  <si>
-    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Proposte Vita - button: Vedi Tutte</t>
-  </si>
-  <si>
-    <t>MatrixWeb: Navigation_News_Verifica aggancio News</t>
-  </si>
-  <si>
-    <t>Allianz Projects\Digital Interaction\Allianz Matrix Web\Clients</t>
-  </si>
-  <si>
-    <t>Anagrafe</t>
-  </si>
-  <si>
-    <t>Allianz Projects\Digital Interaction\Allianz Matrix Web\Switch page</t>
-  </si>
-  <si>
-    <t>Sinistri</t>
-  </si>
-  <si>
-    <t>Allianz Projects\Digital Interaction\Allianz Matrix Web\Sales</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Analisi dei bisogni</t>
-  </si>
-  <si>
-    <t>MatrixWeb: Navigation_Clients_Verifica aggancio Analisi dei bisogni</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica presenza links Menu</t>
-  </si>
-  <si>
-    <t>Verifica presenza links Menu</t>
-  </si>
-  <si>
-    <t>Si accede a Le mie Info, verifica tutti i link presenti</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Primo Piano</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Primo Piano</t>
-  </si>
-  <si>
-    <t>Si accede a Le mie Info e verifica atterraggio della pagina</t>
-  </si>
-  <si>
-    <t>Si accede a Le mie Info e verifica tutti i link presenti</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Raccolte</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Raccolte</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Prodotti</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Prodotti</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Iniziative</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Iniziative</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Eventi e Sponsorizzazioni</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Eventi e Sponsorizzazioni</t>
-  </si>
-  <si>
-    <t>Si accede a Le mie Info, verifica atterraggio della pagina e la presenza dei sottomenu</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Sales Academy</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Sales Academy</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Momento della Verità</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Momento della Verità</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Le release</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Le release</t>
-  </si>
-  <si>
-    <t>Si accede a Le mie Info, verifica atterraggio della pagina e la presenza dei panel</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Manuali Informatici</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Manuali Informatici</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Circolari</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Circolari</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Company Handbook</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Company Handbook</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Antiriciclaggio</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Operatività</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Operatività</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Risorse per l'Agenzia</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Risorse per l'Agenzia</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Il Mondo Allianz</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Il Mondo Allianz</t>
-  </si>
-  <si>
-    <t>Verifica Top Menu Principali</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu Principali</t>
-  </si>
-  <si>
-    <t>Top Menu incident - Verifica presenza dei link</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Top Menu incident - Verifica presenza dei link</t>
-  </si>
-  <si>
-    <t>Click dei top Menu link: calendario, incident, notifiche, utente e lo switch button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click link incident, verifica presenza dei link </t>
-  </si>
-  <si>
-    <t>Top Menu notifiche - Verifica presenza dei link</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Top Menu notifiche - Verifica presenza dei link</t>
-  </si>
-  <si>
-    <t>Top Menu Clients</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Top Menu Clients</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Top Menu Sales</t>
-  </si>
-  <si>
-    <t>Verifica Top Menu Sales</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_VerificaTop Menu Numbers</t>
-  </si>
-  <si>
-    <t>Verifica Menu Numbers</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu Sales</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_VerificaTop Menu Backoffice</t>
-  </si>
-  <si>
-    <t>Verifica Top Menu News</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu News</t>
-  </si>
-  <si>
-    <t>Verifica Top Menu Le mie info</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu Le mie info</t>
-  </si>
-  <si>
-    <t>Verifica presenza della buca di ricerca</t>
-  </si>
-  <si>
-    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Clients</t>
-  </si>
-  <si>
-    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Sales</t>
-  </si>
-  <si>
-    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Sales </t>
-  </si>
-  <si>
-    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina News</t>
-  </si>
-  <si>
-    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Le mie info</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica Button Clients</t>
-  </si>
-  <si>
-    <t>Verifica Button Clients</t>
-  </si>
-  <si>
-    <t>Click su button Clients e verifica atterraggio alla pagina</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica Button Sales</t>
-  </si>
-  <si>
-    <t>Verifica Button Sales</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica Button Numbers</t>
-  </si>
-  <si>
-    <t>Verifica Button Numbers</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica Button Backoffice</t>
-  </si>
-  <si>
-    <t>Verifica Button Backoffice</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica Button News</t>
-  </si>
-  <si>
-    <t>Verifica Button News</t>
-  </si>
-  <si>
-    <t>Click sul button Sales e verifica atterraggio alla pagina</t>
-  </si>
-  <si>
-    <t>Click sul button Numbers e verifica atterraggio alla pagina</t>
-  </si>
-  <si>
-    <t>Click sul button Backoffice e verifica atterraggio alla pagina</t>
-  </si>
-  <si>
-    <t>Click sul button News e verifica atterraggio alla pagina</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica link: Vedi tutte le news</t>
-  </si>
-  <si>
-    <t>Verifica link: Vedi tutte le news</t>
-  </si>
-  <si>
-    <t>Click sul link "Vai al centro notifiche" e verifica atterraggio alla pagina</t>
-  </si>
-  <si>
-    <t>Click sul link "Vedi tutte" e verifica atterraggio alla pagina</t>
-  </si>
-  <si>
-    <t>Verifica buca di ricerca</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica buca di ricerca</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica aggancio Numbers</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Numbers</t>
-  </si>
-  <si>
-    <t>Si accede a Numbers e verifica aggancio della pagina</t>
-  </si>
-  <si>
-    <t>Verifica Filtro</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica Filtro</t>
-  </si>
-  <si>
-    <t>Si accede a Numbers e verifica cliccando l'icona di filtro l'apertura del popup</t>
-  </si>
-  <si>
-    <t>Verifica PDF</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica PDF</t>
-  </si>
-  <si>
-    <t>Si accede a Numbers e verifica cliccando l'icona ddel pdf l'apertura del pdf</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Ricavi di Agenzia</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica aggancio Ricavi di Agenzia</t>
-  </si>
-  <si>
-    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina New business</t>
-  </si>
-  <si>
-    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina RICAVI DI AGENZIA</t>
-  </si>
-  <si>
-    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina Incassi</t>
-  </si>
-  <si>
-    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina Portafoglio</t>
-  </si>
-  <si>
-    <t>Verifica su Prodotti aggancio Primo indice prodotto</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Prodotti aggancio Primo indice prodotto</t>
-  </si>
-  <si>
-    <t>Verifica su Indicatori Operativi aggancio Primo indice digitale</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Indicatori Operativi aggancio Primo indice digitale</t>
-  </si>
-  <si>
-    <t>Si accede a Numbers, click sul tab prodotti, verifica l'atterraggio alla pagina del primo indice prodotto</t>
-  </si>
-  <si>
-    <t>Si accede a Numbers, click sul tab Indicatori Operativi, verifica l'atterraggio alla pagina del primo indice digitale</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica aggancio su Incentivi</t>
-  </si>
-  <si>
-    <t>Allianz Projects\Digital Interaction\Allianz Matrix Web\Numbers</t>
-  </si>
-  <si>
-    <t>Verifica Menu Backoffice</t>
-  </si>
-  <si>
-    <t>Si accede alla Top link Burger(switchpage) Verifica atteraggio alla pagina Backoffice</t>
-  </si>
-  <si>
-    <t>Verifica apertura disambiguazione: Monitoraggio Customer Digital Footprint</t>
-  </si>
-  <si>
-    <t>MatrixWeb: Navigation_BackOffice_Verifica apertura disambiguazione: Monitoraggio Customer Digital Footprint</t>
-  </si>
-  <si>
-    <t>Click link notifiche, click sulla rotellina e la verifica presenza dei link</t>
-  </si>
-  <si>
-    <t>Verifica links Sinistri</t>
-  </si>
-  <si>
-    <t>Verifica links Contabilità</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Preventivi e quotazioni Vita - button: Vedi Tutti</t>
-  </si>
-  <si>
-    <t>Si accede a Sales, apri il pannello "Preventivi e quotazioni" e verifichi dal tab Danni il button "Vedi tutti" l'aggancio alla pagina</t>
-  </si>
-  <si>
-    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Preventivi e quotazioni Vita - button: Vedi Tutti</t>
-  </si>
-  <si>
-    <t>Si accede a Sales, clicca il pannello "Proposte Danni" e verifica dal tab Vita il button "Vedi tutti" l'aggancio alla pagina</t>
-  </si>
-  <si>
-    <t>Si accede a Sales, clicca il pannello "Preventivi e quotazioni" e verifica dal tab Vita il button "Vedi tutti" l'aggancio alla pagina</t>
-  </si>
-  <si>
-    <t>Si accede a Sales, clicca il pannello "Attività in scadenza", dopodiché cliccando su una delle attività in scadenza e infine su "Estrai dettaglio", verifica l'aggancio della pagina</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Contenuti Salvati</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Contenuti Salvati</t>
-  </si>
-  <si>
-    <t>Si accede a Sales e verifica aggancio della pagina News</t>
-  </si>
-  <si>
-    <t>Si accede a Sales e verifica aggancio della pagina Appuntamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si accede a Sales, clicca il pannello "Preventivi e quotazioni" e verifica dal tab Vita  l'atterraggio della prima Vita </t>
-  </si>
-  <si>
-    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Proposte Vita - Card Vita</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Proposte Vita - Card Vita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si accede a Sales, clicca il pannello "Proposte" e verifica dal tab Vita  l'atterraggio della prima Card </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si accede a Sales, clicca il pannello "Proposte" e verifica dal tab Danni  l'atterraggio della prima Card </t>
-  </si>
-  <si>
-    <t>Si accede a Sales, clicca il pannello "Proposte" e verifica dal tab Danni il button "Vedi tutti" l'aggancio alla pagina</t>
-  </si>
-  <si>
-    <t>Verifica atterraggio VPS Rami Vari("News")</t>
-  </si>
-  <si>
-    <t>Verifica testi e link delle notifiche</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica testi e link delle notifiche</t>
-  </si>
-  <si>
-    <t>Verifica  link "Vai al Centro notifiche" notifiche</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica  link "Vai al Centro notifiche" notifiche</t>
-  </si>
-  <si>
-    <t>Verifica notifiche siano visibili, che i titoli corrispondano e  controlla i testi dal menu a tendina di ciascuna notifica  corrispondano</t>
-  </si>
-  <si>
-    <t>Verifica Click Pannello "Notifiche in evidenza"</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica Click Pannello "Notifiche in evidenza"</t>
-  </si>
-  <si>
-    <t>click sul pannello "Notifiche in evidenza" e verifica la presenza delle notifiche</t>
-  </si>
-  <si>
-    <t>Verifica Top Menu incident - Verifica atterraggio SRM Online</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu incident - Verifica atterraggio SRM Online</t>
-  </si>
-  <si>
-    <t>Click icona incident dai top Menu, click sul link SRM Online e verifica atterraggio</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu incident - Verifica atterraggio SisCo</t>
-  </si>
-  <si>
-    <t>Verifica Top Menu incident - Verifica atterraggio SisCo</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu incident - Verifica atterraggio Elenco telefonico</t>
-  </si>
-  <si>
-    <t>Verifica Top Menu incident - Verifica atterraggio Elenco telefonico</t>
-  </si>
-  <si>
-    <t>Click icona incident dai top Menu, click sul link Elenco telefonico e verifica atterraggio</t>
-  </si>
-  <si>
-    <t>Click icona SwitchBurger dai top Menu, click sul link Utilità e verifica atterraggio della pagina</t>
-  </si>
-  <si>
-    <t>Click icona SwitchBurger dai top Menu, click sul link Utilità e verifica la presenza dei link</t>
-  </si>
-  <si>
-    <t>Verifica su Incentivi aggancio Primo indice dal Panel "GRUPPO INCENTIVATO 178 DAN"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si accede a Numbers, click sul tab Incentivi, click sul panel "GRUPPO INCENTIVATO 178 DAN" e verifica l'atterraggio alla pagina del primo indice </t>
-  </si>
-  <si>
-    <t>Verifica aggancio Le Mie Info</t>
-  </si>
-  <si>
-    <t>Verifica atterraggio alla pagina "Le Mie Info"</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Le Mie Info</t>
-  </si>
-  <si>
-    <t>Verifica aggancio New Company Handbook</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio New Company Handbook</t>
-  </si>
-  <si>
-    <t>Verifica aggancio su tutte le sotto pagine di Prodotti</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Prodotti</t>
-  </si>
-  <si>
-    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Prodotti e l'atterraggio di tutte le sue sotto pagine</t>
-  </si>
-  <si>
-    <t>Verifica aggancio su tutte le sotto pagine di Iniziative</t>
-  </si>
-  <si>
-    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Iniziative e l'atterraggio di tutte le sue sotto pagine</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Iniziative</t>
-  </si>
-  <si>
-    <t>Verifica aggancio su tutte le sotto pagine di Sales Academy</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Sales Academy</t>
-  </si>
-  <si>
-    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Sales Academy e l'atterraggio di tutte le sue sotto pagine</t>
-  </si>
-  <si>
-    <t>Verifica aggancio su tutte le sotto pagine di Antiriciclaggio</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Antiriciclaggio</t>
-  </si>
-  <si>
-    <t>Verifica aggancio su tutte le sotto pagine di Risorse per l'Agenzia</t>
-  </si>
-  <si>
-    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Risorse per l'Agenzia e l'atterraggio di tutte le sue sotto pagine</t>
-  </si>
-  <si>
-    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Antiriciclaggio e l'atterraggio di tutte le sue sotto pagine</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Risorse per l'Agenzia</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Risorse per l'Agente</t>
-  </si>
-  <si>
-    <t>Verifica aggancio Risorse per l'Agente</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Risorse per l'Agente</t>
-  </si>
-  <si>
-    <t>Verifica aggancio su tutte le sotto pagine di Risorse per l'Agente</t>
-  </si>
-  <si>
-    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Risorse per l'Agente e l'atterraggio di tutte le sue sotto pagine</t>
-  </si>
-  <si>
-    <t>Verifica aggancio su tutte le sotto pagine di Il Mondo Allianz</t>
-  </si>
-  <si>
-    <t>Si accede a Le mie Info, verifica l'atterraggio della pagina Il Mondo Allianz e l'atterraggio di tutte le sue sotto pagine</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_MieInfo_Verifica aggancio su tutte le sotto pagine di Il Mondo Allianz</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica presenza links da Utilità</t>
-  </si>
-  <si>
-    <t>Verifica presenza links da Utilità</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Cruscotto resilience</t>
-  </si>
-  <si>
-    <t>Verifica atterraggio da Utilità - Cruscotto resilience</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Quattroruote - Calcolo valore veicolo</t>
-  </si>
-  <si>
-    <t>Verifica atterraggio da Utilità - Quattroruote - Calcolo valore veicolo</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Interrogazioni centralizzate</t>
-  </si>
-  <si>
-    <t>Verifica atterraggio da Utilità - Interrogazioni centralizzate</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Gestione Magazzino OBU</t>
-  </si>
-  <si>
-    <t>Verifica atterraggio da Utilità - Gestione Magazzino OBU</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Cruscotto Installazione Dispositivo Satellitare</t>
-  </si>
-  <si>
-    <t>Verifica atterraggio da Utilità - Cruscotto Installazione Dispositivo Satellitare</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Monitor Scoring AZ Bonus Drive</t>
-  </si>
-  <si>
-    <t>Verifica atterraggio da Utilità - Monitor Scoring AZ Bonus Drive</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab DANNI l'aggancio a New business</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab DANNI l'aggancio a New business</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab DANNI l'aggancio a Incassi</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab DANNI l'aggancio a Incassi</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab DANNI l'aggancio a Portafoglio</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab DANNI l'aggancio a Portafoglio</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab MOTOR l'aggancio a New business</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MOTOR l'aggancio a New business</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Portafoglio</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Incassi</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Incassi</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Portafoglio</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Retention</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MOTOR l'aggancio a Retention</t>
-  </si>
-  <si>
-    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina  New business</t>
-  </si>
-  <si>
-    <t>Si accede a Numbers, click sul tab Linee di Business, verifica atterraggio pagina Retention</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a New business</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Incassi</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Portafoglio</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a New business</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Incassi</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Portafoglio</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Retention</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab RAMI VARI RETAIL l'aggancio a Retention</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MIDCO l'aggancio a New business</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MIDCO l'aggancio a Incassi</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab MIDCO l'aggancio a Portafoglio</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab ALTRO l'aggancio a New business</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab ALTRO l'aggancio a New business</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab MIDCO l'aggancio a New business</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab MIDCO l'aggancio a Incassi</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab MIDCO l'aggancio a Portafoglio</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab ALTRO l'aggancio a Incassi</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab ALTRO l'aggancio a Incassi</t>
-  </si>
-  <si>
-    <t>Verifica su Linee di Business - dal Tab ALTRO l'aggancio a Portafoglio</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab ALTRO l'aggancio a Portafoglio</t>
-  </si>
-  <si>
-    <t>Verifica dati scritti corretti</t>
-  </si>
-  <si>
-    <t>Si accede a Numbers e verifica dai tab DANNI e VITA, MIDCO e ALTRO  che i seguenti link siano presenti: "New business", "Incassi", "Portafoglio", mentre dai tab MOTOR e RAMI VARI RETAIL oltre ai link descritti verifica anche la presenza di "Retention"</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica dati scritti corretti nella pagina Linee di Business</t>
+    <t>Si accede a Sales, clicca sul pannello "Attività in scadenza": verifica che, dopo aver cliccato su una delle attività in scadenza e infine su "Estrai dettaglio", l'aggancio della pagina vada a buon fine</t>
   </si>
 </sst>
 </file>
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="2" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -1648,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>12</v>
@@ -1657,12 +1657,12 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -1689,15 +1689,15 @@
         <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>12</v>
@@ -1721,12 +1721,12 @@
         <v>2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>12</v>
@@ -1753,12 +1753,12 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>21</v>
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>12</v>
@@ -1785,12 +1785,12 @@
         <v>2</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>23</v>
@@ -1808,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>12</v>
@@ -1817,12 +1817,12 @@
         <v>2</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>12</v>
@@ -1849,12 +1849,12 @@
         <v>2</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>25</v>
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>12</v>
@@ -1881,12 +1881,12 @@
         <v>2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
@@ -1904,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>12</v>
@@ -1913,12 +1913,12 @@
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -1936,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>12</v>
@@ -1945,12 +1945,12 @@
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>28</v>
@@ -1968,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>12</v>
@@ -1977,12 +1977,12 @@
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>29</v>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>12</v>
@@ -2009,12 +2009,12 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -2041,12 +2041,12 @@
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -2073,15 +2073,15 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>31</v>
@@ -2105,15 +2105,15 @@
         <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>33</v>
@@ -2137,15 +2137,15 @@
         <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>34</v>
@@ -2169,12 +2169,12 @@
         <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>35</v>
@@ -2201,12 +2201,12 @@
         <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>36</v>
@@ -2233,12 +2233,12 @@
         <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>37</v>
@@ -2265,12 +2265,12 @@
         <v>2</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>38</v>
@@ -2297,12 +2297,12 @@
         <v>2</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>39</v>
@@ -2329,12 +2329,12 @@
         <v>2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>40</v>
@@ -2361,12 +2361,12 @@
         <v>2</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>41</v>
@@ -2393,12 +2393,12 @@
         <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>42</v>
@@ -2425,12 +2425,12 @@
         <v>2</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>43</v>
@@ -2457,12 +2457,12 @@
         <v>2</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>44</v>
@@ -2489,12 +2489,12 @@
         <v>2</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>45</v>
@@ -2521,12 +2521,12 @@
         <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>46</v>
@@ -2553,12 +2553,12 @@
         <v>2</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>47</v>
@@ -2585,12 +2585,12 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>48</v>
@@ -2617,12 +2617,12 @@
         <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>49</v>
@@ -2649,12 +2649,12 @@
         <v>2</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>50</v>
@@ -2681,15 +2681,15 @@
         <v>2</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>31</v>
@@ -2713,12 +2713,12 @@
         <v>2</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>51</v>
@@ -2736,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>12</v>
@@ -2745,12 +2745,12 @@
         <v>2</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>18</v>
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>12</v>
@@ -2777,12 +2777,12 @@
         <v>2</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>53</v>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>12</v>
@@ -2809,12 +2809,12 @@
         <v>2</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>54</v>
@@ -2832,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>12</v>
@@ -2841,12 +2841,12 @@
         <v>2</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>55</v>
@@ -2864,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>12</v>
@@ -2873,12 +2873,12 @@
         <v>2</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>56</v>
@@ -2896,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>12</v>
@@ -2905,12 +2905,12 @@
         <v>2</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>57</v>
@@ -2928,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>12</v>
@@ -2937,12 +2937,12 @@
         <v>2</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>58</v>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>12</v>
@@ -2969,12 +2969,12 @@
         <v>2</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>59</v>
@@ -2992,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>12</v>
@@ -3001,12 +3001,12 @@
         <v>2</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>60</v>
@@ -3024,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>12</v>
@@ -3033,12 +3033,12 @@
         <v>2</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>61</v>
@@ -3056,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>12</v>
@@ -3065,12 +3065,12 @@
         <v>2</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>62</v>
@@ -3088,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>12</v>
@@ -3097,12 +3097,12 @@
         <v>2</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>63</v>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>12</v>
@@ -3129,12 +3129,12 @@
         <v>2</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>64</v>
@@ -3152,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>12</v>
@@ -3161,12 +3161,12 @@
         <v>2</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>65</v>
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>12</v>
@@ -3193,12 +3193,12 @@
         <v>2</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>66</v>
@@ -3216,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>12</v>
@@ -3225,12 +3225,12 @@
         <v>2</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>67</v>
@@ -3248,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>12</v>
@@ -3257,18 +3257,18 @@
         <v>2</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>127</v>
+        <v>374</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>68</v>
+        <v>373</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>263</v>
+        <v>375</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>15</v>
@@ -3280,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>12</v>
@@ -3289,18 +3289,18 @@
         <v>2</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>15</v>
@@ -3312,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>12</v>
@@ -3321,18 +3321,18 @@
         <v>2</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>15</v>
@@ -3344,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>12</v>
@@ -3353,15 +3353,15 @@
         <v>2</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>52</v>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>12</v>
@@ -3385,18 +3385,18 @@
         <v>2</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>15</v>
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>12</v>
@@ -3417,18 +3417,18 @@
         <v>2</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>15</v>
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>12</v>
@@ -3449,19 +3449,19 @@
         <v>2</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="D59" s="3" t="s">
         <v>15</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>12</v>
@@ -3481,18 +3481,18 @@
         <v>2</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
@@ -3504,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>12</v>
@@ -3513,18 +3513,18 @@
         <v>2</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>15</v>
@@ -3536,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>12</v>
@@ -3545,18 +3545,18 @@
         <v>2</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>15</v>
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>12</v>
@@ -3577,18 +3577,18 @@
         <v>2</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>15</v>
@@ -3600,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>12</v>
@@ -3609,19 +3609,19 @@
         <v>2</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D64" s="3" t="s">
         <v>15</v>
       </c>
@@ -3641,18 +3641,18 @@
         <v>2</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>15</v>
@@ -3673,19 +3673,19 @@
         <v>2</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="D66" s="3" t="s">
         <v>15</v>
       </c>
@@ -3705,19 +3705,19 @@
         <v>2</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="D67" s="3" t="s">
         <v>15</v>
       </c>
@@ -3737,18 +3737,18 @@
         <v>2</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>15</v>
@@ -3769,18 +3769,18 @@
         <v>2</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>15</v>
@@ -3801,18 +3801,18 @@
         <v>2</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>15</v>
@@ -3833,18 +3833,18 @@
         <v>2</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>15</v>
@@ -3865,18 +3865,18 @@
         <v>2</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>15</v>
@@ -3897,18 +3897,18 @@
         <v>2</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>15</v>
@@ -3929,18 +3929,18 @@
         <v>2</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -3961,18 +3961,18 @@
         <v>2</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>15</v>
@@ -3993,18 +3993,18 @@
         <v>2</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>15</v>
@@ -4025,18 +4025,18 @@
         <v>2</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>15</v>
@@ -4057,19 +4057,19 @@
         <v>2</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
       </c>
@@ -4089,18 +4089,18 @@
         <v>2</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>15</v>
@@ -4121,18 +4121,18 @@
         <v>2</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
@@ -4153,18 +4153,18 @@
         <v>2</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>15</v>
@@ -4185,18 +4185,18 @@
         <v>2</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -4217,18 +4217,18 @@
         <v>2</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>15</v>
@@ -4249,19 +4249,19 @@
         <v>2</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="D84" s="3" t="s">
         <v>15</v>
       </c>
@@ -4281,18 +4281,18 @@
         <v>2</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
@@ -4313,18 +4313,18 @@
         <v>2</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
@@ -4345,18 +4345,18 @@
         <v>2</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4377,18 +4377,18 @@
         <v>2</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
@@ -4409,18 +4409,18 @@
         <v>2</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
@@ -4441,18 +4441,18 @@
         <v>2</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
@@ -4473,18 +4473,18 @@
         <v>2</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>15</v>
@@ -4505,18 +4505,18 @@
         <v>2</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -4537,19 +4537,19 @@
         <v>2</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="D93" s="3" t="s">
         <v>15</v>
       </c>
@@ -4569,18 +4569,18 @@
         <v>2</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -4601,18 +4601,18 @@
         <v>2</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4633,18 +4633,18 @@
         <v>2</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -4665,18 +4665,18 @@
         <v>2</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -4697,18 +4697,18 @@
         <v>2</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
@@ -4729,18 +4729,18 @@
         <v>2</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -4761,18 +4761,18 @@
         <v>2</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -4793,18 +4793,18 @@
         <v>2</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>15</v>
@@ -4825,18 +4825,18 @@
         <v>2</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
@@ -4857,18 +4857,18 @@
         <v>2</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>15</v>
@@ -4889,18 +4889,18 @@
         <v>2</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>15</v>
@@ -4921,18 +4921,18 @@
         <v>2</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>15</v>
@@ -4953,18 +4953,18 @@
         <v>2</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
@@ -4985,18 +4985,18 @@
         <v>2</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>15</v>
@@ -5017,18 +5017,18 @@
         <v>2</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>15</v>
@@ -5049,18 +5049,18 @@
         <v>2</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>15</v>
@@ -5081,18 +5081,18 @@
         <v>2</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>15</v>
@@ -5113,18 +5113,18 @@
         <v>2</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>15</v>
@@ -5145,18 +5145,18 @@
         <v>2</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>15</v>
@@ -5177,19 +5177,19 @@
         <v>2</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="D113" s="3" t="s">
         <v>15</v>
       </c>
@@ -5209,18 +5209,18 @@
         <v>2</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>15</v>
@@ -5241,18 +5241,18 @@
         <v>2</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>15</v>
@@ -5273,18 +5273,18 @@
         <v>2</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>15</v>
@@ -5305,18 +5305,18 @@
         <v>2</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>15</v>
@@ -5337,18 +5337,18 @@
         <v>2</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>15</v>
@@ -5369,19 +5369,19 @@
         <v>2</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="D119" s="3" t="s">
         <v>15</v>
       </c>
@@ -5401,18 +5401,18 @@
         <v>2</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>15</v>
@@ -5433,19 +5433,19 @@
         <v>2</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="D121" s="3" t="s">
         <v>15</v>
       </c>
@@ -5465,19 +5465,19 @@
         <v>2</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="D122" s="3" t="s">
         <v>15</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>12</v>
@@ -5497,18 +5497,18 @@
         <v>2</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -5520,14 +5520,14 @@
     </row>
     <row r="124" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="D124" s="3" t="s">
         <v>15</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>12</v>
@@ -5547,19 +5547,19 @@
         <v>2</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="D125" s="3" t="s">
         <v>15</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>12</v>
@@ -5579,18 +5579,18 @@
         <v>2</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>15</v>
@@ -5602,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>12</v>
@@ -5611,19 +5611,19 @@
         <v>2</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="D127" s="3" t="s">
         <v>15</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>12</v>
@@ -5643,18 +5643,18 @@
         <v>2</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>15</v>
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>12</v>
@@ -5675,18 +5675,18 @@
         <v>2</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>15</v>
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>12</v>
@@ -5707,302 +5707,498 @@
         <v>2</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B131" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="C133" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-    </row>
-    <row r="132" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-    </row>
-    <row r="133" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-    </row>
-    <row r="134" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B134" s="3" t="s">
+      <c r="C136" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-    </row>
-    <row r="135" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C135" s="3" t="s">
+      <c r="D138" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-    </row>
-    <row r="136" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
-    </row>
-    <row r="137" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-    </row>
-    <row r="138" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="D140" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
-    </row>
-    <row r="139" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+      <c r="B141" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="C142" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-    </row>
-    <row r="140" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
-    </row>
-    <row r="141" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B141" s="3" t="s">
+      <c r="D143" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
-    </row>
-    <row r="142" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-    </row>
-    <row r="143" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
-    </row>
-    <row r="144" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>371</v>
-      </c>
       <c r="C144" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
+        <v>240</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="145" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>15</v>
@@ -6014,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>12</v>
@@ -6023,50 +6219,50 @@
         <v>2</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C146" s="3" t="s">
+      <c r="D146" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J146" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>15</v>
@@ -6078,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>12</v>
@@ -6087,7 +6283,7 @@
         <v>2</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C91B389-33B4-4B0F-8E8D-4D16DC778426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444E2A6C-2F89-484E-ADFB-D49CF3DEA27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="376">
   <si>
     <t>Design</t>
   </si>
@@ -1145,15 +1145,9 @@
     <t>Matrix Web : Navigation_Numbers_Verifica su Linee di Business - dal Tab ALTRO l'aggancio a Portafoglio</t>
   </si>
   <si>
-    <t>Verifica dati scritti corretti</t>
-  </si>
-  <si>
     <t>Si accede a Numbers e verifica dai tab DANNI e VITA, MIDCO e ALTRO  che i seguenti link siano presenti: "New business", "Incassi", "Portafoglio", mentre dai tab MOTOR e RAMI VARI RETAIL oltre ai link descritti verifica anche la presenza di "Retention"</t>
   </si>
   <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica dati scritti corretti nella pagina Linee di Business</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verifica aggancio Estrai dettaglio </t>
   </si>
   <si>
@@ -1161,6 +1155,12 @@
   </si>
   <si>
     <t>Si accede a Sales, clicca sul pannello "Attività in scadenza": verifica che, dopo aver cliccato su una delle attività in scadenza e infine su "Estrai dettaglio", l'aggancio della pagina vada a buon fine</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica dati scritti siano corretti nella pagina Linee di Business</t>
+  </si>
+  <si>
+    <t>Verifica dati scritti siano corretti nella pagina Linee di Business</t>
   </si>
 </sst>
 </file>
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N123" sqref="N123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3262,13 +3262,13 @@
     </row>
     <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>15</v>
@@ -5500,23 +5500,37 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
+      <c r="D123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="124" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444E2A6C-2F89-484E-ADFB-D49CF3DEA27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53422CAF-10BD-4F24-A748-BDB12B18E9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="382">
   <si>
     <t>Design</t>
   </si>
@@ -1161,6 +1161,24 @@
   </si>
   <si>
     <t>Verifica dati scritti siano corretti nella pagina Linee di Business</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu User - Verifica apertura icona User</t>
+  </si>
+  <si>
+    <t>Verifica Top Menu notifiche - Verifica presenza dei link</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu User - Verifica apertura icona User</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Top Menu notifiche - Verifica presenza dei link</t>
+  </si>
+  <si>
+    <t>Click icona User dai top Menu, verifica i dati corretti del popup</t>
+  </si>
+  <si>
+    <t>Click icona Notifiche dai top Menu,  Click sull'ingranaggio(icona) e verifica la presenza di tutti i link</t>
   </si>
 </sst>
 </file>
@@ -1576,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N123" sqref="N123"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4700,79 +4718,51 @@
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>320</v>
+        <v>378</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>321</v>
+        <v>376</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>137</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -4798,10 +4788,10 @@
     </row>
     <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>288</v>
@@ -4830,10 +4820,10 @@
     </row>
     <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>288</v>
@@ -4862,10 +4852,10 @@
     </row>
     <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>288</v>
@@ -4894,10 +4884,10 @@
     </row>
     <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>288</v>
@@ -4926,13 +4916,13 @@
     </row>
     <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>186</v>
+        <v>331</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>15</v>
@@ -4958,13 +4948,13 @@
     </row>
     <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>180</v>
+        <v>333</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
@@ -4990,13 +4980,13 @@
     </row>
     <row r="107" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>15</v>
@@ -5022,13 +5012,13 @@
     </row>
     <row r="108" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>15</v>
@@ -5054,13 +5044,13 @@
     </row>
     <row r="109" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>15</v>
@@ -5086,13 +5076,13 @@
     </row>
     <row r="110" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>15</v>
@@ -5118,13 +5108,13 @@
     </row>
     <row r="111" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>15</v>
@@ -5150,13 +5140,13 @@
     </row>
     <row r="112" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>15</v>
@@ -5182,13 +5172,13 @@
     </row>
     <row r="113" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>15</v>
@@ -5214,13 +5204,13 @@
     </row>
     <row r="114" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>15</v>
@@ -5246,13 +5236,13 @@
     </row>
     <row r="115" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>15</v>
@@ -5278,13 +5268,13 @@
     </row>
     <row r="116" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>15</v>
@@ -5310,13 +5300,13 @@
     </row>
     <row r="117" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>15</v>
@@ -5342,13 +5332,13 @@
     </row>
     <row r="118" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>15</v>
@@ -5374,13 +5364,13 @@
     </row>
     <row r="119" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>15</v>
@@ -5406,13 +5396,13 @@
     </row>
     <row r="120" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>15</v>
@@ -5438,78 +5428,78 @@
     </row>
     <row r="121" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="D123" s="3" t="s">
         <v>15</v>
       </c>
@@ -5520,7 +5510,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>12</v>
@@ -5529,18 +5519,18 @@
         <v>2</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>15</v>
@@ -5566,13 +5556,13 @@
     </row>
     <row r="125" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>233</v>
+        <v>374</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>232</v>
+        <v>375</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>234</v>
+        <v>370</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>15</v>
@@ -5598,13 +5588,13 @@
     </row>
     <row r="126" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>15</v>
@@ -5630,13 +5620,13 @@
     </row>
     <row r="127" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>15</v>
@@ -5662,13 +5652,13 @@
     </row>
     <row r="128" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>15</v>
@@ -5694,13 +5684,13 @@
     </row>
     <row r="129" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>15</v>
@@ -5726,13 +5716,13 @@
     </row>
     <row r="130" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>15</v>
@@ -5758,13 +5748,13 @@
     </row>
     <row r="131" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>348</v>
+        <v>239</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>15</v>
@@ -5790,13 +5780,13 @@
     </row>
     <row r="132" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>15</v>
@@ -5822,13 +5812,13 @@
     </row>
     <row r="133" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>240</v>
+        <v>348</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>15</v>
@@ -5854,13 +5844,13 @@
     </row>
     <row r="134" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>349</v>
+        <v>239</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>15</v>
@@ -5886,13 +5876,13 @@
     </row>
     <row r="135" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>15</v>
@@ -5918,13 +5908,13 @@
     </row>
     <row r="136" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>239</v>
+        <v>349</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>15</v>
@@ -5950,13 +5940,13 @@
     </row>
     <row r="137" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>15</v>
@@ -5982,13 +5972,13 @@
     </row>
     <row r="138" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>349</v>
+        <v>239</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>15</v>
@@ -6014,13 +6004,13 @@
     </row>
     <row r="139" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>15</v>
@@ -6046,13 +6036,13 @@
     </row>
     <row r="140" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>239</v>
+        <v>349</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>15</v>
@@ -6078,13 +6068,13 @@
     </row>
     <row r="141" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>15</v>
@@ -6110,13 +6100,13 @@
     </row>
     <row r="142" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>15</v>
@@ -6142,13 +6132,13 @@
     </row>
     <row r="143" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>15</v>
@@ -6174,13 +6164,13 @@
     </row>
     <row r="144" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>15</v>
@@ -6206,13 +6196,13 @@
     </row>
     <row r="145" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>242</v>
+        <v>367</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>241</v>
+        <v>366</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>15</v>
@@ -6238,13 +6228,13 @@
     </row>
     <row r="146" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>244</v>
+        <v>369</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>243</v>
+        <v>368</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>15</v>
@@ -6270,13 +6260,13 @@
     </row>
     <row r="147" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>15</v>
@@ -6297,6 +6287,70 @@
         <v>2</v>
       </c>
       <c r="J147" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J149" s="3" t="s">
         <v>248</v>
       </c>
     </row>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53422CAF-10BD-4F24-A748-BDB12B18E9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAA8F08-1BBE-4346-BF5C-3E336EB5ADA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="382">
   <si>
     <t>Design</t>
   </si>
@@ -1596,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4718,7 +4718,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>378</v>
       </c>
@@ -4728,15 +4728,29 @@
       <c r="C98" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-    </row>
-    <row r="99" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>379</v>
       </c>
@@ -4746,13 +4760,27 @@
       <c r="C99" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="D99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAA8F08-1BBE-4346-BF5C-3E336EB5ADA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A54FEF-5CDF-4B5D-9164-098FA7A7E834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="383">
   <si>
     <t>Design</t>
   </si>
@@ -1179,6 +1179,9 @@
   </si>
   <si>
     <t>Click icona Notifiche dai top Menu,  Click sull'ingranaggio(icona) e verifica la presenza di tutti i link</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_BackOffice_Verifica atterraggio VPS Rami Vari("News")</t>
   </si>
 </sst>
 </file>
@@ -1594,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J149"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,7 +2099,7 @@
     </row>
     <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>382</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>271</v>
@@ -4718,7 +4721,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>378</v>
       </c>
@@ -4750,7 +4753,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>379</v>
       </c>
@@ -5686,7 +5689,7 @@
         <v>235</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>15</v>
@@ -5712,13 +5715,13 @@
     </row>
     <row r="129" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>236</v>
+        <v>335</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>235</v>
+        <v>334</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>15</v>
@@ -5744,13 +5747,13 @@
     </row>
     <row r="130" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>15</v>
@@ -5776,13 +5779,13 @@
     </row>
     <row r="131" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>15</v>
@@ -5808,13 +5811,13 @@
     </row>
     <row r="132" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>240</v>
+        <v>348</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>15</v>
@@ -5840,13 +5843,13 @@
     </row>
     <row r="133" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>348</v>
+        <v>239</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>15</v>
@@ -5872,13 +5875,13 @@
     </row>
     <row r="134" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>15</v>
@@ -5904,13 +5907,13 @@
     </row>
     <row r="135" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>240</v>
+        <v>349</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>15</v>
@@ -5936,13 +5939,13 @@
     </row>
     <row r="136" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>349</v>
+        <v>237</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>15</v>
@@ -5968,13 +5971,13 @@
     </row>
     <row r="137" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>15</v>
@@ -6000,13 +6003,13 @@
     </row>
     <row r="138" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>15</v>
@@ -6032,13 +6035,13 @@
     </row>
     <row r="139" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>240</v>
+        <v>349</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>15</v>
@@ -6064,13 +6067,13 @@
     </row>
     <row r="140" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>349</v>
+        <v>237</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>15</v>
@@ -6096,13 +6099,13 @@
     </row>
     <row r="141" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>15</v>
@@ -6128,13 +6131,13 @@
     </row>
     <row r="142" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>15</v>
@@ -6160,13 +6163,13 @@
     </row>
     <row r="143" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>15</v>
@@ -6192,13 +6195,13 @@
     </row>
     <row r="144" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>15</v>
@@ -6224,13 +6227,13 @@
     </row>
     <row r="145" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>15</v>
@@ -6256,13 +6259,13 @@
     </row>
     <row r="146" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>369</v>
+        <v>242</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>368</v>
+        <v>241</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>15</v>
@@ -6288,13 +6291,13 @@
     </row>
     <row r="147" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>15</v>
@@ -6320,13 +6323,13 @@
     </row>
     <row r="148" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>15</v>
@@ -6347,38 +6350,6 @@
         <v>2</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J149" s="3" t="s">
         <v>248</v>
       </c>
     </row>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A54FEF-5CDF-4B5D-9164-098FA7A7E834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CBCE1D-528C-4E1D-9930-D4CE90C9D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="386">
   <si>
     <t>Design</t>
   </si>
@@ -1182,6 +1182,15 @@
   </si>
   <si>
     <t>MatrixWeb: Navigation_BackOffice_Verifica atterraggio VPS Rami Vari("News")</t>
+  </si>
+  <si>
+    <t>Verifica la presenza dei link su "Emetti Polizza"</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica la presenza dei link su "Emetti Polizza"</t>
+  </si>
+  <si>
+    <t>Si accede a Sales, click su Emetti Polizza e verifica la presenza dei link</t>
   </si>
 </sst>
 </file>
@@ -1597,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2931,13 +2940,13 @@
     </row>
     <row r="42" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>115</v>
+        <v>384</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>57</v>
+        <v>383</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>52</v>
+        <v>385</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>15</v>
@@ -2963,10 +2972,10 @@
     </row>
     <row r="43" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>52</v>
@@ -2995,10 +3004,10 @@
     </row>
     <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>52</v>
@@ -3027,10 +3036,10 @@
     </row>
     <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>52</v>
@@ -3059,10 +3068,10 @@
     </row>
     <row r="46" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>52</v>
@@ -3091,10 +3100,10 @@
     </row>
     <row r="47" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>52</v>
@@ -3123,10 +3132,10 @@
     </row>
     <row r="48" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>52</v>
@@ -3155,10 +3164,10 @@
     </row>
     <row r="49" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>52</v>
@@ -3187,10 +3196,10 @@
     </row>
     <row r="50" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>52</v>
@@ -3219,10 +3228,10 @@
     </row>
     <row r="51" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>52</v>
@@ -3251,10 +3260,10 @@
     </row>
     <row r="52" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>52</v>
@@ -3283,13 +3292,13 @@
     </row>
     <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>372</v>
+        <v>125</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>371</v>
+        <v>67</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>373</v>
+        <v>52</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>15</v>
@@ -3315,13 +3324,13 @@
     </row>
     <row r="54" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>126</v>
+        <v>372</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>68</v>
+        <v>371</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>264</v>
+        <v>373</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>15</v>
@@ -3347,13 +3356,13 @@
     </row>
     <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>15</v>
@@ -3379,13 +3388,13 @@
     </row>
     <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>15</v>
@@ -3411,13 +3420,13 @@
     </row>
     <row r="57" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>257</v>
+        <v>52</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>15</v>
@@ -3443,13 +3452,13 @@
     </row>
     <row r="58" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>15</v>
@@ -3475,13 +3484,13 @@
     </row>
     <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>15</v>
@@ -3507,13 +3516,13 @@
     </row>
     <row r="60" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
@@ -3539,13 +3548,13 @@
     </row>
     <row r="61" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>15</v>
@@ -3571,13 +3580,13 @@
     </row>
     <row r="62" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>266</v>
+        <v>132</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>15</v>
@@ -3603,13 +3612,13 @@
     </row>
     <row r="63" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>133</v>
+        <v>266</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>15</v>
@@ -3633,15 +3642,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>15</v>
@@ -3653,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>12</v>
@@ -3662,18 +3671,18 @@
         <v>2</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>15</v>
@@ -3699,13 +3708,13 @@
     </row>
     <row r="66" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>142</v>
+        <v>294</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>143</v>
+        <v>292</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>144</v>
+        <v>293</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>15</v>
@@ -3731,13 +3740,13 @@
     </row>
     <row r="67" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>15</v>
@@ -3763,13 +3772,13 @@
     </row>
     <row r="68" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>15</v>
@@ -3795,10 +3804,10 @@
     </row>
     <row r="69" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>262</v>
+        <v>149</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>157</v>
@@ -3827,10 +3836,10 @@
     </row>
     <row r="70" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>157</v>
@@ -3859,13 +3868,13 @@
     </row>
     <row r="71" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>298</v>
+        <v>152</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>297</v>
+        <v>151</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>299</v>
+        <v>157</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>15</v>
@@ -3891,13 +3900,13 @@
     </row>
     <row r="72" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>153</v>
+        <v>298</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>154</v>
+        <v>297</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>157</v>
+        <v>299</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>15</v>
@@ -3923,13 +3932,13 @@
     </row>
     <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>302</v>
+        <v>153</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>300</v>
+        <v>154</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>301</v>
+        <v>157</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>15</v>
@@ -3955,13 +3964,13 @@
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>147</v>
+        <v>301</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -3987,13 +3996,13 @@
     </row>
     <row r="75" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>15</v>
@@ -4019,13 +4028,13 @@
     </row>
     <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>304</v>
+        <v>159</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>303</v>
+        <v>158</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>305</v>
+        <v>157</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>15</v>
@@ -4051,13 +4060,13 @@
     </row>
     <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>161</v>
+        <v>303</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>157</v>
+        <v>305</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>15</v>
@@ -4083,13 +4092,13 @@
     </row>
     <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
@@ -4115,10 +4124,10 @@
     </row>
     <row r="79" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>164</v>
@@ -4147,13 +4156,13 @@
     </row>
     <row r="80" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
@@ -4179,13 +4188,13 @@
     </row>
     <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>295</v>
+        <v>168</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>15</v>
@@ -4211,13 +4220,13 @@
     </row>
     <row r="82" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>170</v>
+        <v>296</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -4243,13 +4252,13 @@
     </row>
     <row r="83" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>15</v>
@@ -4275,13 +4284,13 @@
     </row>
     <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>307</v>
+        <v>171</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>306</v>
+        <v>24</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>310</v>
+        <v>157</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>15</v>
@@ -4307,13 +4316,13 @@
     </row>
     <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>174</v>
+        <v>307</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>157</v>
+        <v>310</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
@@ -4339,13 +4348,13 @@
     </row>
     <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>311</v>
+        <v>174</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>308</v>
+        <v>175</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>309</v>
+        <v>157</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
@@ -4371,13 +4380,13 @@
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>173</v>
+        <v>311</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>172</v>
+        <v>308</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4403,13 +4412,13 @@
     </row>
     <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>313</v>
+        <v>172</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
@@ -4435,13 +4444,13 @@
     </row>
     <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>316</v>
+        <v>157</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
@@ -4467,13 +4476,13 @@
     </row>
     <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>176</v>
+        <v>314</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>177</v>
+        <v>315</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>157</v>
+        <v>316</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
@@ -4499,13 +4508,13 @@
     </row>
     <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>319</v>
+        <v>176</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>317</v>
+        <v>177</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>318</v>
+        <v>157</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>15</v>
@@ -4531,13 +4540,13 @@
     </row>
     <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>178</v>
+        <v>317</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>182</v>
+        <v>318</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -4563,13 +4572,13 @@
     </row>
     <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>15</v>
@@ -4595,13 +4604,13 @@
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -4627,13 +4636,13 @@
     </row>
     <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>280</v>
+        <v>184</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4659,10 +4668,10 @@
     </row>
     <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>282</v>
@@ -4691,13 +4700,13 @@
     </row>
     <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -4723,13 +4732,13 @@
     </row>
     <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>378</v>
+        <v>285</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>376</v>
+        <v>286</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>380</v>
+        <v>287</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
@@ -4755,13 +4764,13 @@
     </row>
     <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -4787,13 +4796,13 @@
     </row>
     <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>320</v>
+        <v>379</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>289</v>
+        <v>381</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -4819,13 +4828,13 @@
     </row>
     <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>15</v>
@@ -4851,10 +4860,10 @@
     </row>
     <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>288</v>
@@ -4883,10 +4892,10 @@
     </row>
     <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>288</v>
@@ -4915,10 +4924,10 @@
     </row>
     <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>288</v>
@@ -4947,10 +4956,10 @@
     </row>
     <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>288</v>
@@ -4979,10 +4988,10 @@
     </row>
     <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>288</v>
@@ -5011,13 +5020,13 @@
     </row>
     <row r="107" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>187</v>
+        <v>332</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>186</v>
+        <v>333</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>15</v>
@@ -5043,13 +5052,13 @@
     </row>
     <row r="108" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>15</v>
@@ -5075,13 +5084,13 @@
     </row>
     <row r="109" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>15</v>
@@ -5107,13 +5116,13 @@
     </row>
     <row r="110" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>15</v>
@@ -5139,13 +5148,13 @@
     </row>
     <row r="111" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>15</v>
@@ -5171,13 +5180,13 @@
     </row>
     <row r="112" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>15</v>
@@ -5203,13 +5212,13 @@
     </row>
     <row r="113" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>15</v>
@@ -5235,13 +5244,13 @@
     </row>
     <row r="114" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>15</v>
@@ -5267,13 +5276,13 @@
     </row>
     <row r="115" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>15</v>
@@ -5299,13 +5308,13 @@
     </row>
     <row r="116" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>15</v>
@@ -5331,13 +5340,13 @@
     </row>
     <row r="117" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>15</v>
@@ -5363,13 +5372,13 @@
     </row>
     <row r="118" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>15</v>
@@ -5395,13 +5404,13 @@
     </row>
     <row r="119" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>15</v>
@@ -5427,13 +5436,13 @@
     </row>
     <row r="120" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>15</v>
@@ -5459,13 +5468,13 @@
     </row>
     <row r="121" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>15</v>
@@ -5491,13 +5500,13 @@
     </row>
     <row r="122" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>15</v>
@@ -5523,46 +5532,46 @@
     </row>
     <row r="123" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="D124" s="3" t="s">
         <v>15</v>
       </c>
@@ -5573,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>12</v>
@@ -5582,18 +5591,18 @@
         <v>2</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>374</v>
+        <v>226</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>375</v>
+        <v>227</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>370</v>
+        <v>228</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>15</v>
@@ -5619,13 +5628,13 @@
     </row>
     <row r="126" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>230</v>
+        <v>374</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>229</v>
+        <v>375</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>231</v>
+        <v>370</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>15</v>
@@ -5651,13 +5660,13 @@
     </row>
     <row r="127" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>15</v>
@@ -5683,13 +5692,13 @@
     </row>
     <row r="128" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>15</v>
@@ -5715,13 +5724,13 @@
     </row>
     <row r="129" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>15</v>
@@ -5747,13 +5756,13 @@
     </row>
     <row r="130" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>15</v>
@@ -5779,13 +5788,13 @@
     </row>
     <row r="131" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>15</v>
@@ -5811,13 +5820,13 @@
     </row>
     <row r="132" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>348</v>
+        <v>240</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>15</v>
@@ -5843,13 +5852,13 @@
     </row>
     <row r="133" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>15</v>
@@ -5875,13 +5884,13 @@
     </row>
     <row r="134" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>15</v>
@@ -5907,13 +5916,13 @@
     </row>
     <row r="135" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>349</v>
+        <v>240</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>15</v>
@@ -5939,13 +5948,13 @@
     </row>
     <row r="136" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>237</v>
+        <v>349</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>15</v>
@@ -5971,13 +5980,13 @@
     </row>
     <row r="137" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>15</v>
@@ -6003,13 +6012,13 @@
     </row>
     <row r="138" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>15</v>
@@ -6035,13 +6044,13 @@
     </row>
     <row r="139" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>349</v>
+        <v>240</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>15</v>
@@ -6067,13 +6076,13 @@
     </row>
     <row r="140" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>237</v>
+        <v>349</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>15</v>
@@ -6099,13 +6108,13 @@
     </row>
     <row r="141" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>15</v>
@@ -6131,13 +6140,13 @@
     </row>
     <row r="142" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>15</v>
@@ -6163,13 +6172,13 @@
     </row>
     <row r="143" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>15</v>
@@ -6195,13 +6204,13 @@
     </row>
     <row r="144" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>15</v>
@@ -6227,13 +6236,13 @@
     </row>
     <row r="145" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>15</v>
@@ -6259,13 +6268,13 @@
     </row>
     <row r="146" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>242</v>
+        <v>369</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>241</v>
+        <v>368</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>15</v>
@@ -6291,13 +6300,13 @@
     </row>
     <row r="147" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>15</v>
@@ -6323,13 +6332,13 @@
     </row>
     <row r="148" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>15</v>
@@ -6350,6 +6359,38 @@
         <v>2</v>
       </c>
       <c r="J148" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J149" s="3" t="s">
         <v>248</v>
       </c>
     </row>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CBCE1D-528C-4E1D-9930-D4CE90C9D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5D9452-0F8F-405C-8C85-12195D419093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="390">
   <si>
     <t>Design</t>
   </si>
@@ -236,9 +236,6 @@
     <t>Verifica aggancio Emetti Polizza - Trattative Auto Corporate</t>
   </si>
   <si>
-    <t>Verifica aggancio Emetti Polizza - Gestione Richieste per PA</t>
-  </si>
-  <si>
     <t>Verifica aggancio Appuntamento</t>
   </si>
   <si>
@@ -410,9 +407,6 @@
     <t>MatrixWeb: Navigation_Sales_Verifica aggancio Emetti Polizza - Trattative Auto Corporate</t>
   </si>
   <si>
-    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Emetti Polizza - Gestione Richieste per PA</t>
-  </si>
-  <si>
     <t>MatrixWeb: Navigation_Sales_Verifica aggancio Appuntamento</t>
   </si>
   <si>
@@ -1148,12 +1142,6 @@
     <t>Si accede a Numbers e verifica dai tab DANNI e VITA, MIDCO e ALTRO  che i seguenti link siano presenti: "New business", "Incassi", "Portafoglio", mentre dai tab MOTOR e RAMI VARI RETAIL oltre ai link descritti verifica anche la presenza di "Retention"</t>
   </si>
   <si>
-    <t xml:space="preserve">Verifica aggancio Estrai dettaglio </t>
-  </si>
-  <si>
-    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Estrai dettaglio</t>
-  </si>
-  <si>
     <t>Si accede a Sales, clicca sul pannello "Attività in scadenza": verifica che, dopo aver cliccato su una delle attività in scadenza e infine su "Estrai dettaglio", l'aggancio della pagina vada a buon fine</t>
   </si>
   <si>
@@ -1191,6 +1179,30 @@
   </si>
   <si>
     <t>Si accede a Sales, click su Emetti Polizza e verifica la presenza dei link</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Attività in scadenza - Estrai dettaglio</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Attività in scadenza -&gt; Estrai dettaglio</t>
+  </si>
+  <si>
+    <t>Verifica tab "Pezzi"</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica tab "Pezzi"</t>
+  </si>
+  <si>
+    <t>Verifica tab "Premi"</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica tab "Premi"</t>
+  </si>
+  <si>
+    <t>Si accede a Sales e verifica dal Quietanzamento che cliccando il tab Pezzi mostri solo i "pz"</t>
+  </si>
+  <si>
+    <t>Si accede a Sales e verifica dal Quietanzamento che cliccando il tab Pezzi mostrai solo "€"</t>
   </si>
 </sst>
 </file>
@@ -1606,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J149"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,7 +1672,7 @@
     </row>
     <row r="2" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -1678,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>12</v>
@@ -1687,12 +1699,12 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -1710,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -1719,15 +1731,15 @@
         <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
@@ -1742,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>12</v>
@@ -1751,12 +1763,12 @@
         <v>2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
@@ -1774,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>12</v>
@@ -1783,12 +1795,12 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>21</v>
@@ -1806,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>12</v>
@@ -1815,12 +1827,12 @@
         <v>2</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>23</v>
@@ -1838,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>12</v>
@@ -1847,12 +1859,12 @@
         <v>2</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -1870,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>12</v>
@@ -1879,12 +1891,12 @@
         <v>2</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>25</v>
@@ -1902,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>12</v>
@@ -1911,12 +1923,12 @@
         <v>2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
@@ -1934,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>12</v>
@@ -1943,12 +1955,12 @@
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -1966,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>12</v>
@@ -1975,12 +1987,12 @@
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>28</v>
@@ -1998,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>12</v>
@@ -2007,12 +2019,12 @@
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>29</v>
@@ -2030,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>12</v>
@@ -2039,12 +2051,12 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -2071,12 +2083,12 @@
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -2103,15 +2115,15 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>31</v>
@@ -2135,15 +2147,15 @@
         <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>33</v>
@@ -2167,15 +2179,15 @@
         <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>34</v>
@@ -2199,12 +2211,12 @@
         <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>35</v>
@@ -2231,12 +2243,12 @@
         <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>36</v>
@@ -2263,12 +2275,12 @@
         <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>37</v>
@@ -2295,12 +2307,12 @@
         <v>2</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>38</v>
@@ -2327,12 +2339,12 @@
         <v>2</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>39</v>
@@ -2359,12 +2371,12 @@
         <v>2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>40</v>
@@ -2391,12 +2403,12 @@
         <v>2</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>41</v>
@@ -2423,12 +2435,12 @@
         <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>42</v>
@@ -2455,12 +2467,12 @@
         <v>2</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>43</v>
@@ -2487,12 +2499,12 @@
         <v>2</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>44</v>
@@ -2519,12 +2531,12 @@
         <v>2</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>45</v>
@@ -2551,12 +2563,12 @@
         <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>46</v>
@@ -2583,12 +2595,12 @@
         <v>2</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>47</v>
@@ -2615,12 +2627,12 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>48</v>
@@ -2647,12 +2659,12 @@
         <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>49</v>
@@ -2679,12 +2691,12 @@
         <v>2</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>50</v>
@@ -2711,15 +2723,15 @@
         <v>2</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>31</v>
@@ -2743,12 +2755,12 @@
         <v>2</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>51</v>
@@ -2766,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>12</v>
@@ -2775,12 +2787,12 @@
         <v>2</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>18</v>
@@ -2798,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>12</v>
@@ -2807,12 +2819,12 @@
         <v>2</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>53</v>
@@ -2830,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>12</v>
@@ -2839,12 +2851,12 @@
         <v>2</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>54</v>
@@ -2862,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>12</v>
@@ -2871,12 +2883,12 @@
         <v>2</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>55</v>
@@ -2894,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>12</v>
@@ -2903,12 +2915,12 @@
         <v>2</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>56</v>
@@ -2926,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>12</v>
@@ -2935,18 +2947,18 @@
         <v>2</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>15</v>
@@ -2958,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>12</v>
@@ -2967,12 +2979,12 @@
         <v>2</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>57</v>
@@ -2990,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>12</v>
@@ -2999,12 +3011,12 @@
         <v>2</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>58</v>
@@ -3022,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>12</v>
@@ -3031,12 +3043,12 @@
         <v>2</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>59</v>
@@ -3054,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>12</v>
@@ -3063,12 +3075,12 @@
         <v>2</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>60</v>
@@ -3086,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>12</v>
@@ -3095,12 +3107,12 @@
         <v>2</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>61</v>
@@ -3118,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>12</v>
@@ -3127,12 +3139,12 @@
         <v>2</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>62</v>
@@ -3150,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>12</v>
@@ -3159,12 +3171,12 @@
         <v>2</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>63</v>
@@ -3182,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>12</v>
@@ -3191,12 +3203,12 @@
         <v>2</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>64</v>
@@ -3214,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>12</v>
@@ -3223,12 +3235,12 @@
         <v>2</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>65</v>
@@ -3246,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>12</v>
@@ -3255,12 +3267,12 @@
         <v>2</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>66</v>
@@ -3278,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>12</v>
@@ -3287,18 +3299,18 @@
         <v>2</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>125</v>
+        <v>385</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>67</v>
+        <v>384</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>52</v>
+        <v>388</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>15</v>
@@ -3310,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>12</v>
@@ -3319,18 +3331,18 @@
         <v>2</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>15</v>
@@ -3342,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>12</v>
@@ -3351,18 +3363,18 @@
         <v>2</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>126</v>
+        <v>382</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>68</v>
+        <v>383</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>15</v>
@@ -3374,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>12</v>
@@ -3383,18 +3395,18 @@
         <v>2</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>15</v>
@@ -3406,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>12</v>
@@ -3415,18 +3427,18 @@
         <v>2</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>52</v>
+        <v>261</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>15</v>
@@ -3438,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>12</v>
@@ -3447,18 +3459,18 @@
         <v>2</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>257</v>
+        <v>52</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>15</v>
@@ -3470,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>12</v>
@@ -3479,18 +3491,18 @@
         <v>2</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>15</v>
@@ -3502,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>12</v>
@@ -3511,18 +3523,18 @@
         <v>2</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
@@ -3534,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>12</v>
@@ -3543,18 +3555,18 @@
         <v>2</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>15</v>
@@ -3566,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>12</v>
@@ -3575,18 +3587,18 @@
         <v>2</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>15</v>
@@ -3598,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>12</v>
@@ -3607,15 +3619,15 @@
         <v>2</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>268</v>
@@ -3630,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>12</v>
@@ -3639,18 +3651,18 @@
         <v>2</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>133</v>
+        <v>264</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>15</v>
@@ -3662,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>12</v>
@@ -3671,18 +3683,18 @@
         <v>2</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>15</v>
@@ -3694,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>12</v>
@@ -3708,13 +3720,13 @@
     </row>
     <row r="66" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>294</v>
+        <v>132</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>15</v>
@@ -3735,18 +3747,18 @@
         <v>2</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>143</v>
+        <v>290</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>144</v>
+        <v>291</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>15</v>
@@ -3767,18 +3779,18 @@
         <v>2</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>15</v>
@@ -3799,18 +3811,18 @@
         <v>2</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>15</v>
@@ -3831,18 +3843,18 @@
         <v>2</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>262</v>
+        <v>147</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>261</v>
+        <v>148</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>15</v>
@@ -3863,18 +3875,18 @@
         <v>2</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>15</v>
@@ -3895,18 +3907,18 @@
         <v>2</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>298</v>
+        <v>150</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>297</v>
+        <v>149</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>15</v>
@@ -3927,18 +3939,18 @@
         <v>2</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>153</v>
+        <v>296</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>157</v>
+        <v>297</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>15</v>
@@ -3959,18 +3971,18 @@
         <v>2</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -3991,18 +4003,18 @@
         <v>2</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>156</v>
+        <v>298</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>15</v>
@@ -4023,18 +4035,18 @@
         <v>2</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>15</v>
@@ -4055,18 +4067,18 @@
         <v>2</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>304</v>
+        <v>157</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>303</v>
+        <v>156</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>15</v>
@@ -4087,18 +4099,18 @@
         <v>2</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>160</v>
+        <v>302</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>157</v>
+        <v>303</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
@@ -4119,18 +4131,18 @@
         <v>2</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>15</v>
@@ -4151,18 +4163,18 @@
         <v>2</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
@@ -4183,18 +4195,18 @@
         <v>2</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>15</v>
@@ -4215,18 +4227,18 @@
         <v>2</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>295</v>
+        <v>166</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -4247,18 +4259,18 @@
         <v>2</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>169</v>
+        <v>293</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>15</v>
@@ -4279,18 +4291,18 @@
         <v>2</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>15</v>
@@ -4311,18 +4323,18 @@
         <v>2</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>306</v>
+        <v>24</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>310</v>
+        <v>155</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
@@ -4343,18 +4355,18 @@
         <v>2</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>175</v>
+        <v>304</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>157</v>
+        <v>308</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
@@ -4375,18 +4387,18 @@
         <v>2</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>309</v>
+        <v>155</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4407,18 +4419,18 @@
         <v>2</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>173</v>
+        <v>309</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>172</v>
+        <v>306</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
@@ -4439,18 +4451,18 @@
         <v>2</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>312</v>
+        <v>171</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>313</v>
+        <v>170</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
@@ -4471,18 +4483,18 @@
         <v>2</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>316</v>
+        <v>155</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
@@ -4503,18 +4515,18 @@
         <v>2</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>176</v>
+        <v>312</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>15</v>
@@ -4535,18 +4547,18 @@
         <v>2</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>319</v>
+        <v>174</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>317</v>
+        <v>175</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>318</v>
+        <v>155</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -4567,18 +4579,18 @@
         <v>2</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>182</v>
+        <v>316</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>15</v>
@@ -4599,19 +4611,19 @@
         <v>2</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
       </c>
@@ -4631,18 +4643,18 @@
         <v>2</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4663,18 +4675,18 @@
         <v>2</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>281</v>
+        <v>183</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -4695,18 +4707,18 @@
         <v>2</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -4727,18 +4739,18 @@
         <v>2</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
@@ -4759,18 +4771,18 @@
         <v>2</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>378</v>
+        <v>283</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>376</v>
+        <v>284</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>380</v>
+        <v>285</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -4791,18 +4803,18 @@
         <v>2</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -4823,18 +4835,18 @@
         <v>2</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>289</v>
+        <v>377</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>15</v>
@@ -4855,18 +4867,18 @@
         <v>2</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
@@ -4887,18 +4899,18 @@
         <v>2</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>15</v>
@@ -4919,18 +4931,18 @@
         <v>2</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>15</v>
@@ -4951,18 +4963,18 @@
         <v>2</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>15</v>
@@ -4983,18 +4995,18 @@
         <v>2</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
@@ -5015,18 +5027,18 @@
         <v>2</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>15</v>
@@ -5047,18 +5059,18 @@
         <v>2</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>186</v>
+        <v>331</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>15</v>
@@ -5079,18 +5091,18 @@
         <v>2</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>15</v>
@@ -5111,18 +5123,18 @@
         <v>2</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>15</v>
@@ -5143,18 +5155,18 @@
         <v>2</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>15</v>
@@ -5175,18 +5187,18 @@
         <v>2</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>15</v>
@@ -5207,18 +5219,18 @@
         <v>2</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>15</v>
@@ -5239,18 +5251,18 @@
         <v>2</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>15</v>
@@ -5271,18 +5283,18 @@
         <v>2</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>15</v>
@@ -5303,18 +5315,18 @@
         <v>2</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>15</v>
@@ -5335,18 +5347,18 @@
         <v>2</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>15</v>
@@ -5367,18 +5379,18 @@
         <v>2</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>15</v>
@@ -5399,18 +5411,18 @@
         <v>2</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>15</v>
@@ -5431,18 +5443,18 @@
         <v>2</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>15</v>
@@ -5463,18 +5475,18 @@
         <v>2</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>15</v>
@@ -5495,19 +5507,19 @@
         <v>2</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="D122" s="3" t="s">
         <v>15</v>
       </c>
@@ -5527,18 +5539,18 @@
         <v>2</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>15</v>
@@ -5559,18 +5571,18 @@
         <v>2</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>15</v>
@@ -5591,18 +5603,18 @@
         <v>2</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>15</v>
@@ -5614,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>12</v>
@@ -5623,18 +5635,18 @@
         <v>2</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>248</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>374</v>
+        <v>224</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>370</v>
+        <v>226</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>15</v>
@@ -5646,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>12</v>
@@ -5655,18 +5667,18 @@
         <v>2</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>229</v>
+        <v>371</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>231</v>
+        <v>368</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>15</v>
@@ -5678,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>12</v>
@@ -5687,18 +5699,18 @@
         <v>2</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>15</v>
@@ -5710,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>12</v>
@@ -5719,18 +5731,18 @@
         <v>2</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>15</v>
@@ -5742,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>12</v>
@@ -5751,18 +5763,18 @@
         <v>2</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>335</v>
+        <v>234</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>334</v>
+        <v>233</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>15</v>
@@ -5774,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>12</v>
@@ -5783,18 +5795,18 @@
         <v>2</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>15</v>
@@ -5806,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>12</v>
@@ -5815,18 +5827,18 @@
         <v>2</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>15</v>
@@ -5838,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>12</v>
@@ -5847,18 +5859,18 @@
         <v>2</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>348</v>
+        <v>238</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>15</v>
@@ -5870,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>12</v>
@@ -5879,18 +5891,18 @@
         <v>2</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>239</v>
+        <v>346</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>15</v>
@@ -5902,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>12</v>
@@ -5911,18 +5923,18 @@
         <v>2</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>15</v>
@@ -5934,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>12</v>
@@ -5943,18 +5955,18 @@
         <v>2</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>349</v>
+        <v>238</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>15</v>
@@ -5966,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>12</v>
@@ -5975,18 +5987,18 @@
         <v>2</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>15</v>
@@ -5998,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H137" s="3" t="s">
         <v>12</v>
@@ -6007,18 +6019,18 @@
         <v>2</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>15</v>
@@ -6030,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>12</v>
@@ -6039,18 +6051,18 @@
         <v>2</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>15</v>
@@ -6062,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>12</v>
@@ -6071,18 +6083,18 @@
         <v>2</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>349</v>
+        <v>238</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>15</v>
@@ -6094,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>12</v>
@@ -6103,18 +6115,18 @@
         <v>2</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>15</v>
@@ -6126,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>12</v>
@@ -6135,18 +6147,18 @@
         <v>2</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>15</v>
@@ -6158,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>12</v>
@@ -6167,18 +6179,18 @@
         <v>2</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>15</v>
@@ -6190,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>12</v>
@@ -6199,18 +6211,18 @@
         <v>2</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>15</v>
@@ -6222,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>12</v>
@@ -6231,18 +6243,18 @@
         <v>2</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>15</v>
@@ -6254,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>12</v>
@@ -6263,18 +6275,18 @@
         <v>2</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>15</v>
@@ -6286,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>12</v>
@@ -6295,18 +6307,18 @@
         <v>2</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>242</v>
+        <v>367</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>241</v>
+        <v>366</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>15</v>
@@ -6318,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>12</v>
@@ -6327,50 +6339,50 @@
         <v>2</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J148" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>15</v>
@@ -6382,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>12</v>
@@ -6391,7 +6403,39 @@
         <v>2</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5D9452-0F8F-405C-8C85-12195D419093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1246FDA6-7D41-4768-A413-68A9A7FAA850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="393">
   <si>
     <t>Design</t>
   </si>
@@ -1203,6 +1203,15 @@
   </si>
   <si>
     <t>Si accede a Sales e verifica dal Quietanzamento che cliccando il tab Pezzi mostrai solo "€"</t>
+  </si>
+  <si>
+    <t>Verifica che il contenuto di "Visione globale cliente" sia presente</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Clients_Verifica che il contenuto di "Visione globale cliente" sia presente</t>
+  </si>
+  <si>
+    <t>Si accede a Clients e verifica dalla Visione Globale Cliente se il contenuto sia presente(visibile): titoli e link</t>
   </si>
 </sst>
 </file>
@@ -1618,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,13 +1937,13 @@
     </row>
     <row r="10" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>84</v>
+        <v>391</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>390</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>392</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>15</v>
@@ -1960,10 +1969,10 @@
     </row>
     <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
@@ -1992,10 +2001,10 @@
     </row>
     <row r="12" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>22</v>
@@ -2024,10 +2033,10 @@
     </row>
     <row r="13" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
@@ -2054,15 +2063,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>15</v>
@@ -2074,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>12</v>
@@ -2083,15 +2092,15 @@
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>31</v>
@@ -2120,10 +2129,10 @@
     </row>
     <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>378</v>
+        <v>89</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>269</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>31</v>
@@ -2152,13 +2161,13 @@
     </row>
     <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>90</v>
+        <v>378</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>15</v>
@@ -2184,13 +2193,13 @@
     </row>
     <row r="18" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
@@ -2216,13 +2225,13 @@
     </row>
     <row r="19" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>15</v>
@@ -2248,10 +2257,10 @@
     </row>
     <row r="20" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>31</v>
@@ -2280,10 +2289,10 @@
     </row>
     <row r="21" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>31</v>
@@ -2312,10 +2321,10 @@
     </row>
     <row r="22" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>31</v>
@@ -2344,10 +2353,10 @@
     </row>
     <row r="23" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>31</v>
@@ -2376,10 +2385,10 @@
     </row>
     <row r="24" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>31</v>
@@ -2408,10 +2417,10 @@
     </row>
     <row r="25" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>31</v>
@@ -2440,10 +2449,10 @@
     </row>
     <row r="26" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>31</v>
@@ -2472,10 +2481,10 @@
     </row>
     <row r="27" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>31</v>
@@ -2504,10 +2513,10 @@
     </row>
     <row r="28" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>31</v>
@@ -2536,10 +2545,10 @@
     </row>
     <row r="29" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>31</v>
@@ -2568,10 +2577,10 @@
     </row>
     <row r="30" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>31</v>
@@ -2600,10 +2609,10 @@
     </row>
     <row r="31" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>31</v>
@@ -2632,10 +2641,10 @@
     </row>
     <row r="32" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>31</v>
@@ -2664,10 +2673,10 @@
     </row>
     <row r="33" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>31</v>
@@ -2696,10 +2705,10 @@
     </row>
     <row r="34" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>31</v>
@@ -2728,10 +2737,10 @@
     </row>
     <row r="35" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>249</v>
+        <v>50</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>31</v>
@@ -2758,15 +2767,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>15</v>
@@ -2778,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>12</v>
@@ -2787,18 +2796,18 @@
         <v>2</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>15</v>
@@ -2824,13 +2833,13 @@
     </row>
     <row r="38" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>15</v>
@@ -2856,10 +2865,10 @@
     </row>
     <row r="39" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>52</v>
@@ -2888,10 +2897,10 @@
     </row>
     <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>52</v>
@@ -2920,10 +2929,10 @@
     </row>
     <row r="41" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>52</v>
@@ -2952,13 +2961,13 @@
     </row>
     <row r="42" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>380</v>
+        <v>113</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>15</v>
@@ -2984,13 +2993,13 @@
     </row>
     <row r="43" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>57</v>
+        <v>379</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>15</v>
@@ -3016,10 +3025,10 @@
     </row>
     <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>52</v>
@@ -3048,10 +3057,10 @@
     </row>
     <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>52</v>
@@ -3080,10 +3089,10 @@
     </row>
     <row r="46" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>52</v>
@@ -3112,10 +3121,10 @@
     </row>
     <row r="47" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>52</v>
@@ -3144,10 +3153,10 @@
     </row>
     <row r="48" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>52</v>
@@ -3176,10 +3185,10 @@
     </row>
     <row r="49" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>52</v>
@@ -3208,10 +3217,10 @@
     </row>
     <row r="50" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>52</v>
@@ -3240,10 +3249,10 @@
     </row>
     <row r="51" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>52</v>
@@ -3272,10 +3281,10 @@
     </row>
     <row r="52" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>52</v>
@@ -3304,13 +3313,13 @@
     </row>
     <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>385</v>
+        <v>123</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>384</v>
+        <v>66</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>388</v>
+        <v>52</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>15</v>
@@ -3336,13 +3345,13 @@
     </row>
     <row r="54" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>15</v>
@@ -3368,13 +3377,13 @@
     </row>
     <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>15</v>
@@ -3400,13 +3409,13 @@
     </row>
     <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>124</v>
+        <v>382</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>67</v>
+        <v>383</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>15</v>
@@ -3432,13 +3441,13 @@
     </row>
     <row r="57" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>15</v>
@@ -3464,13 +3473,13 @@
     </row>
     <row r="58" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>52</v>
+        <v>261</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>15</v>
@@ -3496,13 +3505,13 @@
     </row>
     <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>255</v>
+        <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>15</v>
@@ -3528,13 +3537,13 @@
     </row>
     <row r="60" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
@@ -3560,13 +3569,13 @@
     </row>
     <row r="61" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>254</v>
+        <v>71</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>15</v>
@@ -3592,13 +3601,13 @@
     </row>
     <row r="62" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>15</v>
@@ -3624,13 +3633,13 @@
     </row>
     <row r="63" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>15</v>
@@ -3656,13 +3665,13 @@
     </row>
     <row r="64" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>264</v>
+        <v>130</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>15</v>
@@ -3688,13 +3697,13 @@
     </row>
     <row r="65" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>15</v>
@@ -3718,15 +3727,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>15</v>
@@ -3738,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>12</v>
@@ -3747,18 +3756,18 @@
         <v>2</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>292</v>
+        <v>132</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>15</v>
@@ -3784,13 +3793,13 @@
     </row>
     <row r="68" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>141</v>
+        <v>290</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>142</v>
+        <v>291</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>15</v>
@@ -3816,13 +3825,13 @@
     </row>
     <row r="69" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>15</v>
@@ -3848,13 +3857,13 @@
     </row>
     <row r="70" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>15</v>
@@ -3880,10 +3889,10 @@
     </row>
     <row r="71" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>260</v>
+        <v>147</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>155</v>
@@ -3912,10 +3921,10 @@
     </row>
     <row r="72" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>155</v>
@@ -3944,13 +3953,13 @@
     </row>
     <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>296</v>
+        <v>150</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>295</v>
+        <v>149</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>297</v>
+        <v>155</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>15</v>
@@ -3976,13 +3985,13 @@
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>151</v>
+        <v>296</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>152</v>
+        <v>295</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -4008,13 +4017,13 @@
     </row>
     <row r="75" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>298</v>
+        <v>152</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>15</v>
@@ -4040,13 +4049,13 @@
     </row>
     <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>145</v>
+        <v>299</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>15</v>
@@ -4072,13 +4081,13 @@
     </row>
     <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>15</v>
@@ -4104,13 +4113,13 @@
     </row>
     <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>302</v>
+        <v>157</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>301</v>
+        <v>156</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>303</v>
+        <v>155</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
@@ -4136,13 +4145,13 @@
     </row>
     <row r="79" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>158</v>
+        <v>302</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>155</v>
+        <v>303</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>15</v>
@@ -4168,13 +4177,13 @@
     </row>
     <row r="80" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
@@ -4200,10 +4209,10 @@
     </row>
     <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>162</v>
@@ -4232,13 +4241,13 @@
     </row>
     <row r="82" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -4264,13 +4273,13 @@
     </row>
     <row r="83" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>294</v>
+        <v>165</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>293</v>
+        <v>166</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>15</v>
@@ -4296,13 +4305,13 @@
     </row>
     <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>168</v>
+        <v>294</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>15</v>
@@ -4328,13 +4337,13 @@
     </row>
     <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
@@ -4360,13 +4369,13 @@
     </row>
     <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>304</v>
+        <v>24</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
@@ -4392,13 +4401,13 @@
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>172</v>
+        <v>305</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>155</v>
+        <v>308</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4424,13 +4433,13 @@
     </row>
     <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>309</v>
+        <v>172</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>306</v>
+        <v>173</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
@@ -4456,13 +4465,13 @@
     </row>
     <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>171</v>
+        <v>309</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>170</v>
+        <v>306</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>162</v>
+        <v>307</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
@@ -4488,13 +4497,13 @@
     </row>
     <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>310</v>
+        <v>171</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>311</v>
+        <v>170</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
@@ -4520,13 +4529,13 @@
     </row>
     <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>314</v>
+        <v>155</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>15</v>
@@ -4552,13 +4561,13 @@
     </row>
     <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>174</v>
+        <v>312</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>175</v>
+        <v>313</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>155</v>
+        <v>314</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -4584,13 +4593,13 @@
     </row>
     <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>317</v>
+        <v>174</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>315</v>
+        <v>175</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>316</v>
+        <v>155</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>15</v>
@@ -4616,13 +4625,13 @@
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>177</v>
+        <v>317</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>176</v>
+        <v>315</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -4648,13 +4657,13 @@
     </row>
     <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4680,13 +4689,13 @@
     </row>
     <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -4712,13 +4721,13 @@
     </row>
     <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>279</v>
+        <v>183</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>278</v>
+        <v>182</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -4744,10 +4753,10 @@
     </row>
     <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>280</v>
@@ -4776,13 +4785,13 @@
     </row>
     <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -4808,13 +4817,13 @@
     </row>
     <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>374</v>
+        <v>283</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>376</v>
+        <v>285</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -4840,13 +4849,13 @@
     </row>
     <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>15</v>
@@ -4872,13 +4881,13 @@
     </row>
     <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>318</v>
+        <v>375</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>287</v>
+        <v>377</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
@@ -4904,13 +4913,13 @@
     </row>
     <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>15</v>
@@ -4936,10 +4945,10 @@
     </row>
     <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>286</v>
@@ -4968,10 +4977,10 @@
     </row>
     <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>286</v>
@@ -5000,10 +5009,10 @@
     </row>
     <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>286</v>
@@ -5032,10 +5041,10 @@
     </row>
     <row r="107" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>286</v>
@@ -5064,10 +5073,10 @@
     </row>
     <row r="108" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>286</v>
@@ -5096,13 +5105,13 @@
     </row>
     <row r="109" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>185</v>
+        <v>330</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>184</v>
+        <v>331</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>15</v>
@@ -5128,13 +5137,13 @@
     </row>
     <row r="110" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>15</v>
@@ -5160,13 +5169,13 @@
     </row>
     <row r="111" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>15</v>
@@ -5192,13 +5201,13 @@
     </row>
     <row r="112" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>15</v>
@@ -5224,13 +5233,13 @@
     </row>
     <row r="113" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>15</v>
@@ -5256,13 +5265,13 @@
     </row>
     <row r="114" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>15</v>
@@ -5288,13 +5297,13 @@
     </row>
     <row r="115" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>15</v>
@@ -5320,13 +5329,13 @@
     </row>
     <row r="116" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>15</v>
@@ -5352,13 +5361,13 @@
     </row>
     <row r="117" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>15</v>
@@ -5384,13 +5393,13 @@
     </row>
     <row r="118" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>15</v>
@@ -5416,13 +5425,13 @@
     </row>
     <row r="119" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>15</v>
@@ -5448,13 +5457,13 @@
     </row>
     <row r="120" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>15</v>
@@ -5480,13 +5489,13 @@
     </row>
     <row r="121" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>15</v>
@@ -5512,13 +5521,13 @@
     </row>
     <row r="122" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>15</v>
@@ -5544,13 +5553,13 @@
     </row>
     <row r="123" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>15</v>
@@ -5576,13 +5585,13 @@
     </row>
     <row r="124" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>15</v>
@@ -5608,46 +5617,46 @@
     </row>
     <row r="125" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="D126" s="3" t="s">
         <v>15</v>
       </c>
@@ -5658,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>12</v>
@@ -5667,18 +5676,18 @@
         <v>2</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>370</v>
+        <v>224</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>371</v>
+        <v>225</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>368</v>
+        <v>226</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>15</v>
@@ -5704,13 +5713,13 @@
     </row>
     <row r="128" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>227</v>
+        <v>371</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>229</v>
+        <v>368</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>15</v>
@@ -5736,13 +5745,13 @@
     </row>
     <row r="129" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>15</v>
@@ -5768,13 +5777,13 @@
     </row>
     <row r="130" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>15</v>
@@ -5800,13 +5809,13 @@
     </row>
     <row r="131" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>332</v>
+        <v>233</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>15</v>
@@ -5832,13 +5841,13 @@
     </row>
     <row r="132" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>15</v>
@@ -5864,13 +5873,13 @@
     </row>
     <row r="133" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>15</v>
@@ -5896,13 +5905,13 @@
     </row>
     <row r="134" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>346</v>
+        <v>238</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>15</v>
@@ -5928,13 +5937,13 @@
     </row>
     <row r="135" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>237</v>
+        <v>346</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>15</v>
@@ -5960,13 +5969,13 @@
     </row>
     <row r="136" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>15</v>
@@ -5992,13 +6001,13 @@
     </row>
     <row r="137" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>347</v>
+        <v>238</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>15</v>
@@ -6024,13 +6033,13 @@
     </row>
     <row r="138" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>235</v>
+        <v>347</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>15</v>
@@ -6056,13 +6065,13 @@
     </row>
     <row r="139" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>15</v>
@@ -6088,13 +6097,13 @@
     </row>
     <row r="140" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>15</v>
@@ -6120,13 +6129,13 @@
     </row>
     <row r="141" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>347</v>
+        <v>238</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>15</v>
@@ -6152,13 +6161,13 @@
     </row>
     <row r="142" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>235</v>
+        <v>347</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>15</v>
@@ -6184,13 +6193,13 @@
     </row>
     <row r="143" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>15</v>
@@ -6216,13 +6225,13 @@
     </row>
     <row r="144" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>15</v>
@@ -6248,13 +6257,13 @@
     </row>
     <row r="145" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>15</v>
@@ -6280,13 +6289,13 @@
     </row>
     <row r="146" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>15</v>
@@ -6312,13 +6321,13 @@
     </row>
     <row r="147" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>15</v>
@@ -6344,13 +6353,13 @@
     </row>
     <row r="148" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>240</v>
+        <v>367</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>239</v>
+        <v>366</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>15</v>
@@ -6376,13 +6385,13 @@
     </row>
     <row r="149" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>15</v>
@@ -6408,13 +6417,13 @@
     </row>
     <row r="150" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>15</v>
@@ -6435,6 +6444,38 @@
         <v>2</v>
       </c>
       <c r="J150" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J151" s="3" t="s">
         <v>246</v>
       </c>
     </row>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1246FDA6-7D41-4768-A413-68A9A7FAA850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0606BBB-6AEB-4BC6-9C84-F0AC71DC8BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="407">
   <si>
     <t>Design</t>
   </si>
@@ -1212,6 +1212,48 @@
   </si>
   <si>
     <t>Si accede a Clients e verifica dalla Visione Globale Cliente se il contenuto sia presente(visibile): titoli e link</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica "Quietanamento" - lob di interesse: Motor</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica "Quietanamento" - lob di interesse: Rami Vari</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica "Quietanamento" - lob di interesse: Vita</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica "Quietanamento" - lob di interesse: Tutte</t>
+  </si>
+  <si>
+    <t>Si accede a Sales, dopo aver cliccato il lob di interesse Motor, cliccare su Estrai e verifica aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Si accede a Sales, dopo aver cliccato il lob di interesse Rami Vari, cliccare su Estrai e verifica aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Si accede a Sales, dopo aver cliccato il lob di interesse Vita, cliccare su Estrai e verifica aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Si accede a Sales, dopo aver cliccato il lob di interesse Tutte, cliccare su Estrai e verifica aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Click sul lob di interesse Vita -&gt; Click Estrai -&gt; Verifica aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Click sul lob di interesse Tutte -&gt; Click Estrai -&gt; Verifica aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Click sul lob di interesse Motor -&gt; Click Estrai -&gt; Verifica aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Click sul lob di interesse Rami Vari -&gt; Click Estrai -&gt; Verifica aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Nuovo Sfera</t>
+  </si>
+  <si>
+    <t>Verifica aggancio Nuovo Sfera</t>
   </si>
 </sst>
 </file>
@@ -1627,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,10 +2907,10 @@
     </row>
     <row r="39" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>110</v>
+        <v>405</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>53</v>
+        <v>406</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>52</v>
@@ -2897,10 +2939,10 @@
     </row>
     <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>52</v>
@@ -2929,10 +2971,10 @@
     </row>
     <row r="41" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>52</v>
@@ -2961,10 +3003,10 @@
     </row>
     <row r="42" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>52</v>
@@ -2993,13 +3035,13 @@
     </row>
     <row r="43" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>380</v>
+        <v>113</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>15</v>
@@ -3025,13 +3067,13 @@
     </row>
     <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>379</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>15</v>
@@ -3057,10 +3099,10 @@
     </row>
     <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>52</v>
@@ -3089,10 +3131,10 @@
     </row>
     <row r="46" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>52</v>
@@ -3121,10 +3163,10 @@
     </row>
     <row r="47" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>52</v>
@@ -3153,10 +3195,10 @@
     </row>
     <row r="48" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>52</v>
@@ -3185,10 +3227,10 @@
     </row>
     <row r="49" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>52</v>
@@ -3217,10 +3259,10 @@
     </row>
     <row r="50" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>52</v>
@@ -3249,10 +3291,10 @@
     </row>
     <row r="51" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>52</v>
@@ -3281,10 +3323,10 @@
     </row>
     <row r="52" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>52</v>
@@ -3313,10 +3355,10 @@
     </row>
     <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>52</v>
@@ -3345,13 +3387,13 @@
     </row>
     <row r="54" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>385</v>
+        <v>123</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>384</v>
+        <v>66</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>388</v>
+        <v>52</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>15</v>
@@ -3377,13 +3419,13 @@
     </row>
     <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>15</v>
@@ -3409,13 +3451,13 @@
     </row>
     <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>15</v>
@@ -3441,13 +3483,13 @@
     </row>
     <row r="57" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>124</v>
+        <v>382</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>67</v>
+        <v>383</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>15</v>
@@ -3473,13 +3515,13 @@
     </row>
     <row r="58" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>125</v>
+        <v>393</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>68</v>
+        <v>403</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>261</v>
+        <v>397</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>15</v>
@@ -3503,15 +3545,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>126</v>
+        <v>394</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>69</v>
+        <v>404</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>52</v>
+        <v>398</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>15</v>
@@ -3537,13 +3579,13 @@
     </row>
     <row r="60" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>127</v>
+        <v>395</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>70</v>
+        <v>401</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>255</v>
+        <v>399</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
@@ -3569,13 +3611,13 @@
     </row>
     <row r="61" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>71</v>
+        <v>402</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>263</v>
+        <v>400</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>15</v>
@@ -3601,13 +3643,13 @@
     </row>
     <row r="62" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>254</v>
+        <v>67</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>15</v>
@@ -3633,13 +3675,13 @@
     </row>
     <row r="63" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>15</v>
@@ -3665,13 +3707,13 @@
     </row>
     <row r="64" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>268</v>
+        <v>52</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>15</v>
@@ -3697,13 +3739,13 @@
     </row>
     <row r="65" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>264</v>
+        <v>127</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>265</v>
+        <v>70</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>15</v>
@@ -3729,13 +3771,13 @@
     </row>
     <row r="66" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>15</v>
@@ -3759,15 +3801,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>15</v>
@@ -3779,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>12</v>
@@ -3788,18 +3830,18 @@
         <v>2</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>15</v>
@@ -3811,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>12</v>
@@ -3820,18 +3862,18 @@
         <v>2</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>142</v>
+        <v>268</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>15</v>
@@ -3843,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>12</v>
@@ -3852,18 +3894,18 @@
         <v>2</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>15</v>
@@ -3875,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>12</v>
@@ -3884,18 +3926,18 @@
         <v>2</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>15</v>
@@ -3907,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>12</v>
@@ -3916,18 +3958,18 @@
         <v>2</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>260</v>
+        <v>132</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>15</v>
@@ -3953,13 +3995,13 @@
     </row>
     <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>150</v>
+        <v>292</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>149</v>
+        <v>290</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>15</v>
@@ -3985,13 +4027,13 @@
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>296</v>
+        <v>140</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>295</v>
+        <v>141</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>297</v>
+        <v>142</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -4017,13 +4059,13 @@
     </row>
     <row r="75" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>15</v>
@@ -4049,13 +4091,13 @@
     </row>
     <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>300</v>
+        <v>147</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>298</v>
+        <v>148</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>15</v>
@@ -4081,13 +4123,13 @@
     </row>
     <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>15</v>
@@ -4113,10 +4155,10 @@
     </row>
     <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>155</v>
@@ -4145,13 +4187,13 @@
     </row>
     <row r="79" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>15</v>
@@ -4177,10 +4219,10 @@
     </row>
     <row r="80" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>155</v>
@@ -4209,13 +4251,13 @@
     </row>
     <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>161</v>
+        <v>298</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>15</v>
@@ -4241,13 +4283,13 @@
     </row>
     <row r="82" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -4273,13 +4315,13 @@
     </row>
     <row r="83" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>15</v>
@@ -4305,13 +4347,13 @@
     </row>
     <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>155</v>
+        <v>303</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>15</v>
@@ -4337,13 +4379,13 @@
     </row>
     <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
@@ -4369,13 +4411,13 @@
     </row>
     <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
@@ -4401,13 +4443,13 @@
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>305</v>
+        <v>164</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>304</v>
+        <v>163</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>308</v>
+        <v>162</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4433,13 +4475,13 @@
     </row>
     <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
@@ -4465,13 +4507,13 @@
     </row>
     <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
@@ -4497,13 +4539,13 @@
     </row>
     <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
@@ -4529,10 +4571,10 @@
     </row>
     <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>310</v>
+        <v>169</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>311</v>
+        <v>24</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>155</v>
@@ -4561,13 +4603,13 @@
     </row>
     <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -4593,10 +4635,10 @@
     </row>
     <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>155</v>
@@ -4625,13 +4667,13 @@
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -4657,13 +4699,13 @@
     </row>
     <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4689,13 +4731,13 @@
     </row>
     <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -4721,13 +4763,13 @@
     </row>
     <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>183</v>
+        <v>312</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>182</v>
+        <v>313</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -4753,13 +4795,13 @@
     </row>
     <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
@@ -4785,13 +4827,13 @@
     </row>
     <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -4817,13 +4859,13 @@
     </row>
     <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>284</v>
+        <v>176</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>285</v>
+        <v>180</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -4849,13 +4891,13 @@
     </row>
     <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>374</v>
+        <v>179</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>372</v>
+        <v>178</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>376</v>
+        <v>181</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>15</v>
@@ -4881,13 +4923,13 @@
     </row>
     <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>375</v>
+        <v>183</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>373</v>
+        <v>182</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>377</v>
+        <v>251</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
@@ -4913,13 +4955,13 @@
     </row>
     <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>15</v>
@@ -4945,13 +4987,13 @@
     </row>
     <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>15</v>
@@ -4977,13 +5019,13 @@
     </row>
     <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>15</v>
@@ -5009,13 +5051,13 @@
     </row>
     <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>286</v>
+        <v>376</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
@@ -5041,13 +5083,13 @@
     </row>
     <row r="107" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>286</v>
+        <v>377</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>15</v>
@@ -5073,13 +5115,13 @@
     </row>
     <row r="108" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>15</v>
@@ -5105,10 +5147,10 @@
     </row>
     <row r="109" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>286</v>
@@ -5137,13 +5179,13 @@
     </row>
     <row r="110" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>185</v>
+        <v>322</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>184</v>
+        <v>323</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>15</v>
@@ -5169,13 +5211,13 @@
     </row>
     <row r="111" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>186</v>
+        <v>324</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>178</v>
+        <v>325</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>15</v>
@@ -5201,13 +5243,13 @@
     </row>
     <row r="112" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>188</v>
+        <v>326</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>189</v>
+        <v>327</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>15</v>
@@ -5233,13 +5275,13 @@
     </row>
     <row r="113" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>191</v>
+        <v>328</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>15</v>
@@ -5265,13 +5307,13 @@
     </row>
     <row r="114" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>15</v>
@@ -5297,13 +5339,13 @@
     </row>
     <row r="115" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>15</v>
@@ -5329,13 +5371,13 @@
     </row>
     <row r="116" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>15</v>
@@ -5361,13 +5403,13 @@
     </row>
     <row r="117" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>15</v>
@@ -5393,13 +5435,13 @@
     </row>
     <row r="118" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>15</v>
@@ -5425,13 +5467,13 @@
     </row>
     <row r="119" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>15</v>
@@ -5457,13 +5499,13 @@
     </row>
     <row r="120" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>15</v>
@@ -5489,13 +5531,13 @@
     </row>
     <row r="121" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>15</v>
@@ -5521,13 +5563,13 @@
     </row>
     <row r="122" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>15</v>
@@ -5553,13 +5595,13 @@
     </row>
     <row r="123" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>15</v>
@@ -5585,13 +5627,13 @@
     </row>
     <row r="124" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>15</v>
@@ -5617,13 +5659,13 @@
     </row>
     <row r="125" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>15</v>
@@ -5649,174 +5691,174 @@
     </row>
     <row r="126" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="D131" s="3" t="s">
         <v>15</v>
       </c>
@@ -5827,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>12</v>
@@ -5836,18 +5878,18 @@
         <v>2</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>333</v>
+        <v>224</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>332</v>
+        <v>225</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>15</v>
@@ -5873,13 +5915,13 @@
     </row>
     <row r="133" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>237</v>
+        <v>368</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>15</v>
@@ -5905,13 +5947,13 @@
     </row>
     <row r="134" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>336</v>
+        <v>228</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>337</v>
+        <v>227</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>15</v>
@@ -5937,13 +5979,13 @@
     </row>
     <row r="135" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>338</v>
+        <v>230</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>346</v>
+        <v>232</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>15</v>
@@ -5969,13 +6011,13 @@
     </row>
     <row r="136" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>342</v>
+        <v>234</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>15</v>
@@ -6001,13 +6043,13 @@
     </row>
     <row r="137" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>15</v>
@@ -6033,13 +6075,13 @@
     </row>
     <row r="138" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>15</v>
@@ -6065,13 +6107,13 @@
     </row>
     <row r="139" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>15</v>
@@ -6097,13 +6139,13 @@
     </row>
     <row r="140" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>237</v>
+        <v>346</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>15</v>
@@ -6129,13 +6171,13 @@
     </row>
     <row r="141" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>15</v>
@@ -6161,13 +6203,13 @@
     </row>
     <row r="142" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>347</v>
+        <v>238</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>15</v>
@@ -6193,13 +6235,13 @@
     </row>
     <row r="143" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>235</v>
+        <v>347</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>15</v>
@@ -6225,13 +6267,13 @@
     </row>
     <row r="144" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>15</v>
@@ -6257,13 +6299,13 @@
     </row>
     <row r="145" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>15</v>
@@ -6289,13 +6331,13 @@
     </row>
     <row r="146" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>15</v>
@@ -6321,13 +6363,13 @@
     </row>
     <row r="147" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>15</v>
@@ -6353,13 +6395,13 @@
     </row>
     <row r="148" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>15</v>
@@ -6385,13 +6427,13 @@
     </row>
     <row r="149" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>240</v>
+        <v>357</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>239</v>
+        <v>362</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>15</v>
@@ -6417,13 +6459,13 @@
     </row>
     <row r="150" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>242</v>
+        <v>358</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>241</v>
+        <v>363</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>15</v>
@@ -6449,13 +6491,13 @@
     </row>
     <row r="151" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>245</v>
+        <v>360</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>15</v>
@@ -6476,6 +6518,166 @@
         <v>2</v>
       </c>
       <c r="J151" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J156" s="3" t="s">
         <v>246</v>
       </c>
     </row>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0606BBB-6AEB-4BC6-9C84-F0AC71DC8BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785618AC-1EE6-4B5F-A08E-1911C4427CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="417">
   <si>
     <t>Design</t>
   </si>
@@ -758,9 +758,6 @@
     <t>Matrix Web : Navigation_Numbers_Verifica su Prodotti aggancio Primo indice prodotto</t>
   </si>
   <si>
-    <t>Verifica su Indicatori Operativi aggancio Primo indice digitale</t>
-  </si>
-  <si>
     <t>Matrix Web : Navigation_Numbers_Verifica su Indicatori Operativi aggancio Primo indice digitale</t>
   </si>
   <si>
@@ -770,9 +767,6 @@
     <t>Si accede a Numbers, click sul tab Indicatori Operativi, verifica l'atterraggio alla pagina del primo indice digitale</t>
   </si>
   <si>
-    <t>Matrix Web : Navigation_Numbers_Verifica aggancio su Incentivi</t>
-  </si>
-  <si>
     <t>Allianz Projects\Digital Interaction\Allianz Matrix Web\Numbers</t>
   </si>
   <si>
@@ -845,21 +839,12 @@
     <t>Verifica atterraggio VPS Rami Vari("News")</t>
   </si>
   <si>
-    <t>Verifica testi e link delle notifiche</t>
-  </si>
-  <si>
-    <t>Matrix Web : Navigation_HomePage_Verifica testi e link delle notifiche</t>
-  </si>
-  <si>
     <t>Verifica  link "Vai al Centro notifiche" notifiche</t>
   </si>
   <si>
     <t>Matrix Web : Navigation_HomePage_Verifica  link "Vai al Centro notifiche" notifiche</t>
   </si>
   <si>
-    <t>Verifica notifiche siano visibili, che i titoli corrispondano e  controlla i testi dal menu a tendina di ciascuna notifica  corrispondano</t>
-  </si>
-  <si>
     <t>Verifica Click Pannello "Notifiche in evidenza"</t>
   </si>
   <si>
@@ -899,9 +884,6 @@
     <t>Click icona SwitchBurger dai top Menu, click sul link Utilità e verifica la presenza dei link</t>
   </si>
   <si>
-    <t>Verifica su Incentivi aggancio Primo indice dal Panel "GRUPPO INCENTIVATO 178 DAN"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Si accede a Numbers, click sul tab Incentivi, click sul panel "GRUPPO INCENTIVATO 178 DAN" e verifica l'atterraggio alla pagina del primo indice </t>
   </si>
   <si>
@@ -1254,13 +1236,61 @@
   </si>
   <si>
     <t>Verifica aggancio Nuovo Sfera</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_BackOffice_Verifica apertura disambiguazione: Quadratura unificata</t>
+  </si>
+  <si>
+    <t>Verifica apertura disambiguazione: Quadratura unificata</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica Button Le mie info</t>
+  </si>
+  <si>
+    <t>Verifica Button Le mie info</t>
+  </si>
+  <si>
+    <t>Click sul button Le mie info e verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Banche Dati ANIA</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utilità - Banche Dati ANIA</t>
+  </si>
+  <si>
+    <t>Verifica su Indicatori Operativi l'aggancio del primo indice digitale dal pannello Gruppo Incentivato 178 DAN</t>
+  </si>
+  <si>
+    <t>Verifica su Indicatori Operativi l'aggancio del primo indice digitale dal pannello Gruppo Incentivato 178</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Incentivi aggancio Primo indice dal Panel "GRUPPO INCENTIVATO 178"</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Incentivi aggancio Primo indice dal Panel "GRUPPO INCENTIVATO 178 DAN"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si accede a Numbers, click sul tab Incentivi, click sul panel "GRUPPO INCENTIVATO 178" e verifica l'atterraggio alla pagina del primo indice </t>
+  </si>
+  <si>
+    <t>Verifica su Indircatori Operativi aggancio Primo indice prodotto</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica TAB: "Campagne"</t>
+  </si>
+  <si>
+    <t>Verifica TAB: "Campagne"</t>
+  </si>
+  <si>
+    <t>Si accede a Sales, click Tab "Campagne"  e verifica aggancio alla pagina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,6 +1316,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1669,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J156"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,13 +2015,13 @@
     </row>
     <row r="10" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>15</v>
@@ -2203,10 +2239,10 @@
     </row>
     <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>31</v>
@@ -2238,7 +2274,7 @@
         <v>90</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>33</v>
@@ -2270,7 +2306,7 @@
         <v>91</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>34</v>
@@ -2619,10 +2655,10 @@
     </row>
     <row r="30" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>102</v>
+        <v>401</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>31</v>
@@ -2651,10 +2687,10 @@
     </row>
     <row r="31" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>31</v>
@@ -2683,10 +2719,10 @@
     </row>
     <row r="32" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>31</v>
@@ -2715,10 +2751,10 @@
     </row>
     <row r="33" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>31</v>
@@ -2747,10 +2783,10 @@
     </row>
     <row r="34" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>31</v>
@@ -2779,10 +2815,10 @@
     </row>
     <row r="35" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>31</v>
@@ -2811,10 +2847,10 @@
     </row>
     <row r="36" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>249</v>
+        <v>50</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>31</v>
@@ -2841,15 +2877,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>51</v>
+        <v>247</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>15</v>
@@ -2861,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>12</v>
@@ -2870,18 +2906,18 @@
         <v>2</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>15</v>
@@ -2907,13 +2943,13 @@
     </row>
     <row r="39" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>405</v>
+        <v>109</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>406</v>
+        <v>18</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>15</v>
@@ -2939,10 +2975,10 @@
     </row>
     <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>110</v>
+        <v>399</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>400</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>52</v>
@@ -2971,10 +3007,10 @@
     </row>
     <row r="41" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>52</v>
@@ -3003,10 +3039,10 @@
     </row>
     <row r="42" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>52</v>
@@ -3035,10 +3071,10 @@
     </row>
     <row r="43" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>52</v>
@@ -3067,13 +3103,13 @@
     </row>
     <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>380</v>
+        <v>113</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>15</v>
@@ -3099,13 +3135,13 @@
     </row>
     <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>114</v>
+        <v>374</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>57</v>
+        <v>373</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>52</v>
+        <v>375</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>15</v>
@@ -3131,10 +3167,10 @@
     </row>
     <row r="46" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>52</v>
@@ -3163,10 +3199,10 @@
     </row>
     <row r="47" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>52</v>
@@ -3195,10 +3231,10 @@
     </row>
     <row r="48" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>52</v>
@@ -3227,10 +3263,10 @@
     </row>
     <row r="49" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>52</v>
@@ -3259,10 +3295,10 @@
     </row>
     <row r="50" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>52</v>
@@ -3291,10 +3327,10 @@
     </row>
     <row r="51" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>52</v>
@@ -3323,10 +3359,10 @@
     </row>
     <row r="52" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>52</v>
@@ -3355,10 +3391,10 @@
     </row>
     <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>52</v>
@@ -3387,10 +3423,10 @@
     </row>
     <row r="54" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>52</v>
@@ -3419,13 +3455,13 @@
     </row>
     <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>385</v>
+        <v>123</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>384</v>
+        <v>66</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>388</v>
+        <v>52</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>15</v>
@@ -3451,13 +3487,13 @@
     </row>
     <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>15</v>
@@ -3483,13 +3519,13 @@
     </row>
     <row r="57" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>15</v>
@@ -3515,13 +3551,13 @@
     </row>
     <row r="58" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>15</v>
@@ -3545,15 +3581,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>15</v>
@@ -3579,13 +3615,13 @@
     </row>
     <row r="60" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
@@ -3611,13 +3647,13 @@
     </row>
     <row r="61" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>15</v>
@@ -3641,15 +3677,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>124</v>
+        <v>390</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>67</v>
+        <v>396</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>262</v>
+        <v>394</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>15</v>
@@ -3673,15 +3709,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>125</v>
+        <v>414</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>68</v>
+        <v>415</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>261</v>
+        <v>416</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>15</v>
@@ -3707,13 +3743,13 @@
     </row>
     <row r="64" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>15</v>
@@ -3739,13 +3775,13 @@
     </row>
     <row r="65" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>15</v>
@@ -3771,13 +3807,13 @@
     </row>
     <row r="66" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>263</v>
+        <v>52</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>15</v>
@@ -3803,13 +3839,13 @@
     </row>
     <row r="67" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>254</v>
+        <v>70</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>15</v>
@@ -3835,13 +3871,13 @@
     </row>
     <row r="68" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>15</v>
@@ -3867,13 +3903,13 @@
     </row>
     <row r="69" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>15</v>
@@ -3899,13 +3935,13 @@
     </row>
     <row r="70" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>15</v>
@@ -3931,13 +3967,13 @@
     </row>
     <row r="71" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>15</v>
@@ -3961,15 +3997,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>15</v>
@@ -3981,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>12</v>
@@ -3990,18 +4026,18 @@
         <v>2</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>292</v>
+        <v>131</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>15</v>
@@ -4013,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>12</v>
@@ -4022,18 +4058,18 @@
         <v>2</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -4059,13 +4095,13 @@
     </row>
     <row r="75" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>144</v>
+        <v>286</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>146</v>
+        <v>285</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>15</v>
@@ -4091,13 +4127,13 @@
     </row>
     <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>15</v>
@@ -4123,13 +4159,13 @@
     </row>
     <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>15</v>
@@ -4155,10 +4191,10 @@
     </row>
     <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>155</v>
@@ -4187,13 +4223,13 @@
     </row>
     <row r="79" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>297</v>
+        <v>155</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>15</v>
@@ -4219,10 +4255,10 @@
     </row>
     <row r="80" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>155</v>
@@ -4251,13 +4287,13 @@
     </row>
     <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>15</v>
@@ -4283,13 +4319,13 @@
     </row>
     <row r="82" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -4315,13 +4351,13 @@
     </row>
     <row r="83" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>15</v>
@@ -4347,13 +4383,13 @@
     </row>
     <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>302</v>
+        <v>153</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>301</v>
+        <v>154</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>303</v>
+        <v>145</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>15</v>
@@ -4379,10 +4415,10 @@
     </row>
     <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>155</v>
@@ -4411,13 +4447,13 @@
     </row>
     <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>161</v>
+        <v>295</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>162</v>
+        <v>297</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
@@ -4443,13 +4479,13 @@
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4475,13 +4511,13 @@
     </row>
     <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
@@ -4507,13 +4543,13 @@
     </row>
     <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>294</v>
+        <v>164</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
@@ -4539,10 +4575,10 @@
     </row>
     <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>145</v>
@@ -4571,10 +4607,10 @@
     </row>
     <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>24</v>
+        <v>287</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>155</v>
@@ -4603,13 +4639,13 @@
     </row>
     <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>305</v>
+        <v>168</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>304</v>
+        <v>167</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>308</v>
+        <v>145</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -4635,10 +4671,10 @@
     </row>
     <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>155</v>
@@ -4667,13 +4703,13 @@
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -4699,13 +4735,13 @@
     </row>
     <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -4731,13 +4767,13 @@
     </row>
     <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>155</v>
+        <v>301</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -4763,13 +4799,13 @@
     </row>
     <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>312</v>
+        <v>171</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>313</v>
+        <v>170</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>314</v>
+        <v>162</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -4795,10 +4831,10 @@
     </row>
     <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>155</v>
@@ -4827,13 +4863,13 @@
     </row>
     <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -4859,13 +4895,13 @@
     </row>
     <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -4891,13 +4927,13 @@
     </row>
     <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>179</v>
+        <v>311</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>181</v>
+        <v>310</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>15</v>
@@ -4923,13 +4959,13 @@
     </row>
     <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
@@ -4955,13 +4991,13 @@
     </row>
     <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>278</v>
+        <v>178</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>15</v>
@@ -4987,13 +5023,13 @@
     </row>
     <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>281</v>
+        <v>183</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>15</v>
@@ -5019,13 +5055,13 @@
     </row>
     <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>15</v>
@@ -5051,13 +5087,13 @@
     </row>
     <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>374</v>
+        <v>276</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>372</v>
+        <v>277</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>376</v>
+        <v>275</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
@@ -5083,13 +5119,13 @@
     </row>
     <row r="107" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>375</v>
+        <v>278</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>377</v>
+        <v>280</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>15</v>
@@ -5115,13 +5151,13 @@
     </row>
     <row r="108" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>15</v>
@@ -5147,13 +5183,13 @@
     </row>
     <row r="109" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>286</v>
+        <v>371</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>15</v>
@@ -5179,13 +5215,13 @@
     </row>
     <row r="110" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>15</v>
@@ -5211,13 +5247,13 @@
     </row>
     <row r="111" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>15</v>
@@ -5243,13 +5279,13 @@
     </row>
     <row r="112" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>15</v>
@@ -5275,13 +5311,13 @@
     </row>
     <row r="113" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>15</v>
@@ -5307,13 +5343,13 @@
     </row>
     <row r="114" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>330</v>
+        <v>406</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>331</v>
+        <v>407</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>15</v>
@@ -5339,13 +5375,13 @@
     </row>
     <row r="115" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>184</v>
+        <v>321</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>15</v>
@@ -5371,13 +5407,13 @@
     </row>
     <row r="116" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>186</v>
+        <v>322</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>178</v>
+        <v>323</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>15</v>
@@ -5403,13 +5439,13 @@
     </row>
     <row r="117" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>189</v>
+        <v>325</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>15</v>
@@ -5435,13 +5471,13 @@
     </row>
     <row r="118" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>15</v>
@@ -5467,13 +5503,13 @@
     </row>
     <row r="119" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>15</v>
@@ -5499,13 +5535,13 @@
     </row>
     <row r="120" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>15</v>
@@ -5531,13 +5567,13 @@
     </row>
     <row r="121" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>15</v>
@@ -5563,13 +5599,13 @@
     </row>
     <row r="122" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>15</v>
@@ -5595,13 +5631,13 @@
     </row>
     <row r="123" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>15</v>
@@ -5627,13 +5663,13 @@
     </row>
     <row r="124" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>15</v>
@@ -5659,13 +5695,13 @@
     </row>
     <row r="125" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>15</v>
@@ -5691,13 +5727,13 @@
     </row>
     <row r="126" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>15</v>
@@ -5723,13 +5759,13 @@
     </row>
     <row r="127" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>15</v>
@@ -5755,13 +5791,13 @@
     </row>
     <row r="128" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>15</v>
@@ -5787,13 +5823,13 @@
     </row>
     <row r="129" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>15</v>
@@ -5819,13 +5855,13 @@
     </row>
     <row r="130" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>15</v>
@@ -5851,109 +5887,109 @@
     </row>
     <row r="131" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="C134" s="3" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>15</v>
@@ -5965,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>12</v>
@@ -5974,18 +6010,18 @@
         <v>2</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>15</v>
@@ -6006,18 +6042,18 @@
         <v>2</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>234</v>
+        <v>364</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>236</v>
+        <v>362</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>15</v>
@@ -6038,18 +6074,18 @@
         <v>2</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>333</v>
+        <v>228</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>332</v>
+        <v>227</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>15</v>
@@ -6070,18 +6106,18 @@
         <v>2</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>335</v>
+        <v>231</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>334</v>
+        <v>230</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>15</v>
@@ -6102,18 +6138,18 @@
         <v>2</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>336</v>
+        <v>234</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>337</v>
+        <v>233</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>15</v>
@@ -6134,18 +6170,18 @@
         <v>2</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>15</v>
@@ -6166,15 +6202,15 @@
         <v>2</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>237</v>
@@ -6198,15 +6234,15 @@
         <v>2</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>238</v>
@@ -6230,18 +6266,18 @@
         <v>2</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>15</v>
@@ -6262,18 +6298,18 @@
         <v>2</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>15</v>
@@ -6294,18 +6330,18 @@
         <v>2</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>15</v>
@@ -6326,18 +6362,18 @@
         <v>2</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>238</v>
+        <v>341</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>15</v>
@@ -6358,18 +6394,18 @@
         <v>2</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>347</v>
+        <v>235</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>15</v>
@@ -6390,18 +6426,18 @@
         <v>2</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>15</v>
@@ -6422,18 +6458,18 @@
         <v>2</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>15</v>
@@ -6454,18 +6490,18 @@
         <v>2</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>238</v>
+        <v>341</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>15</v>
@@ -6486,15 +6522,15 @@
         <v>2</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>235</v>
@@ -6518,15 +6554,15 @@
         <v>2</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>237</v>
@@ -6550,15 +6586,15 @@
         <v>2</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>238</v>
@@ -6582,18 +6618,18 @@
         <v>2</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>240</v>
+        <v>354</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>239</v>
+        <v>353</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>15</v>
@@ -6614,18 +6650,18 @@
         <v>2</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>242</v>
+        <v>359</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>241</v>
+        <v>358</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>15</v>
@@ -6646,18 +6682,18 @@
         <v>2</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>245</v>
+        <v>361</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>288</v>
+        <v>360</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>15</v>
@@ -6678,10 +6714,144 @@
         <v>2</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785618AC-1EE6-4B5F-A08E-1911C4427CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9DD63A-D6E8-4AEE-99E3-8AD7F546197B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="484">
   <si>
     <t>Design</t>
   </si>
@@ -1284,6 +1284,216 @@
   </si>
   <si>
     <t>Si accede a Sales, click Tab "Campagne"  e verifica aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Si accede al profilo del cliente e verifica che i seguenti tab siano presenti:  
+- SINTESI CLIENTE,
+- DETTAGLIO ANAGRAFICA,
+- PORTAFOGLIO,
+- ARCHIVIO CLIENTE</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random</t>
+  </si>
+  <si>
+    <t>Verifica sia presente la siituazione cliente(Totale premi annui, Totale danni, Vita puro rischio, Polizze attive)</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica i tab</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Situazione cliente</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica FastQuote: Tab Utra - subTabs</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; FastQuote: Tab Utra - subTabs</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica FastQuote: Verifica FastQuote: Tab Auto</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; FastQuote: Tab Auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica aggancio al Tab Ultra
+Verifica presenza link(Preferiti, Salva, Condividi, Configura)
+Verifica presenza Tabs: Ultra, Auto, Albergo
+Verifica presenza subTab di Ultra(Casa e Patrimonio, Salute)
+Verifica che le icons sia di Casa e Patrimonio sia Salute siano presenti e funzionanti </t>
+  </si>
+  <si>
+    <t>Verifica aggancio al Tab auto e verifica la presenza del Tipo Veiclo, Targa, Agenzia e Il button Calcola</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica FastQuote: Tab Albergo</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; FastQuote: Tab Albergo</t>
+  </si>
+  <si>
+    <t>Verifica aggancio al Tab albergo e verifica la presenza dei seguenti elementi:
+Attività scolta, Apertura della struttura, Comune di ubicazione e i button Cerca e Calcola</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica le Cards Emissioni</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Emissioni</t>
+  </si>
+  <si>
+    <t>Verifica la presenza delle Cards: Auto, Rami Vari, Vita</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Auto: Emissione -&gt; Preventivo Motor</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Emissioni -&gt; Preventivo Motor</t>
+  </si>
+  <si>
+    <t>Verifica aggancio della pagina</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Auto: Emissione -&gt; Flotte e Convenzioni</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Auto: Prodotti particolari -&gt; Assunzione Guidata</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Auto: Prodotti particolari -&gt; Veicoli d'epoca durata 10 giorni</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Auto: Prodotti particolari -&gt; Kasko e ARD al Chilometro</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Auto: Prodotti particolari -&gt; Kasko e ARD a Giornata</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Auto: Prodotti particolari -&gt; Kasko e ARD a Veicolo</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Auto: Prodotti particolari -&gt; Polizza aperta(base)</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Auto: Prodotti particolari -&gt; Coassicurazione</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Auto: Passione Blu Motor -&gt;  Nuova polizza</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Auto: Passione Blu Motor -&gt;  Nuova polizza guidata</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Auto: Passione Blu Motor -&gt;  Nuova polizza Coassicurazione</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Rami Vari: Allianz Ultra Casa e Patrimonio</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Rami Vari: Allianz Ultra Casa e Patrimonio BMP</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Rami Vari: Allianz Ultra Salute</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Rami Vari: Allianz1 Business</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Rami Vari: FastQuote Universo Salute</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Rami Vari: FastQuote Infortuni Da Circolazione</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Rami Vari: FastQuote Impresa Sicura</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Rami Vari: FastQuote Albergo</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Rami Vari: Emissione -&gt; Polizza Nuova</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Vita: Accedi al servizio di consulenza</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Contratti in evidenza</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Emissioni -&gt; Flotte e Convenzioni</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Vita -&gt; Accedi al servizio di consulenza</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Emissioni -&gt; Polizza Nuova</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Rami Vari -&gt; FastQuote Albergo</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Rami Vari -&gt; FastQuote Impresa Sicura</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Rami Vari -&gt; FastQuote Infortuni Da Circolazione</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Rami Vari -&gt;  FastQuote Universo Salute</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Rami Vari -&gt; Allianz1 Business</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Rami Vari -&gt; Allianz Ultra Salute</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Rami Vari -&gt; Allianz Ultra Casa e Patrimonio BMP</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Rami Vari -&gt; Allianz Ultra Casa e Patrimonio</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Passione Blu -&gt; Nuova polizza Coassicurazione</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Passione Blu -&gt;  Nuova polizza guidata</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Passione Blu -&gt; Nuova polizza</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Prodotti particolari -&gt; Coassicurazione</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Prodotti particolari -&gt; Polizza aperta(base)</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Prodotti particolari -&gt; Preventivo Motor</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Prodotti particolari-&gt; Kasko e ARD a Giornata</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Prodotti particolari -&gt; Kasko e ARD al Chilometro</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Prodotti particolari -&gt; Veicoli d'epoca durata 10 giorni</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Prodotti particolari -&gt; Assunzione Guidata</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Primo Contratto in evidenza</t>
+  </si>
+  <si>
+    <t>Click sul Primo contratto in evidenza e verifica l'aggancio della pagina</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Tab Sintesi Cliente_Verifica Card Auto: Prodotti particolari -&gt; Libri matricola</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Prodotti particolari -&gt; Libri matricola</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1534,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1340,6 +1550,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,12 +1629,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1705,24 +1978,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="D181" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="85.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="94.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -1758,2306 +2031,2306 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="H7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="H8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="D9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="H9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="D10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="H10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="H11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="H12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="D13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="H13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="H14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="D15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="D16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="D18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="D20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="D21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="D22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="D23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="D24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="D25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="D26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="D28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="D29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="D30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="3" t="s">
+      <c r="D31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="D32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="D33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="D34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" s="3" t="s">
+      <c r="D35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="D36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="D37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="D38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="D39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J40" s="3" t="s">
+      <c r="D40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J41" s="3" t="s">
+      <c r="D41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="D42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J43" s="3" t="s">
+      <c r="D43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J44" s="3" t="s">
+      <c r="D44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="D45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J46" s="3" t="s">
+      <c r="D46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="D47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J48" s="3" t="s">
+      <c r="D48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="D49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J50" s="3" t="s">
+      <c r="D50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J51" s="3" t="s">
+      <c r="D51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J52" s="3" t="s">
+      <c r="D52" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J53" s="3" t="s">
+      <c r="D53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J54" s="3" t="s">
+      <c r="D54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J55" s="3" t="s">
+      <c r="D55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J56" s="3" t="s">
+      <c r="D56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J57" s="3" t="s">
+      <c r="D57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J57" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J58" s="3" t="s">
+      <c r="D58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J59" s="3" t="s">
+      <c r="D59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J59" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J60" s="3" t="s">
+      <c r="D60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J61" s="3" t="s">
+      <c r="D61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J62" s="3" t="s">
+      <c r="D62" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J62" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J63" s="3" t="s">
+      <c r="D63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J64" s="3" t="s">
+      <c r="D64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J64" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J65" s="3" t="s">
+      <c r="D65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J65" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J66" s="3" t="s">
+      <c r="D66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J66" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J67" s="3" t="s">
+      <c r="D67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J67" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J68" s="3" t="s">
+      <c r="D68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J68" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J69" s="3" t="s">
+      <c r="D69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J69" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J70" s="3" t="s">
+      <c r="D70" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J71" s="3" t="s">
+      <c r="D71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J71" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="D72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J72" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J73" s="3" t="s">
+      <c r="D73" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4477,7 +4750,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>158</v>
       </c>
@@ -4797,7 +5070,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>171</v>
       </c>
@@ -4958,1896 +5231,2851 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J102" s="3" t="s">
+      <c r="D102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J102" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J103" s="3" t="s">
+      <c r="D103" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J103" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J104" s="3" t="s">
+      <c r="D104" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J104" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J105" s="3" t="s">
+      <c r="D105" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J105" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J106" s="3" t="s">
+      <c r="D106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J106" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J107" s="3" t="s">
+      <c r="D107" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J107" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J108" s="3" t="s">
+      <c r="D108" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J108" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="D109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="D110" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="D111" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="D112" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="D113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+      <c r="D114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+      <c r="D115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="D116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J117" s="3" t="s">
+      <c r="D117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J117" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J118" s="3" t="s">
+      <c r="D118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J118" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J119" s="3" t="s">
+      <c r="D119" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J119" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J120" s="3" t="s">
+      <c r="D120" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J120" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J121" s="3" t="s">
+      <c r="D121" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J121" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J122" s="3" t="s">
+      <c r="D122" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J122" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J123" s="3" t="s">
+      <c r="D123" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J123" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J124" s="3" t="s">
+      <c r="D124" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J124" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J125" s="3" t="s">
+      <c r="D125" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J125" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J126" s="3" t="s">
+      <c r="D126" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J126" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J127" s="3" t="s">
+      <c r="D127" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J127" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J128" s="3" t="s">
+      <c r="D128" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J128" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J129" s="3" t="s">
+      <c r="D129" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J129" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J130" s="3" t="s">
+      <c r="D130" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J130" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J131" s="3" t="s">
+      <c r="D131" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J131" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J132" s="3" t="s">
+      <c r="D132" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J132" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J133" s="3" t="s">
+      <c r="D133" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J133" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J134" s="3" t="s">
+      <c r="D134" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J134" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J135" s="3" t="s">
+      <c r="D135" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J135" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J136" s="3" t="s">
+      <c r="D136" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J136" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J137" s="3" t="s">
+      <c r="D137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J137" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H138" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J138" s="3" t="s">
+      <c r="D138" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J138" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J139" s="3" t="s">
+      <c r="D139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J139" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J140" s="3" t="s">
+      <c r="D140" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J140" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J141" s="3" t="s">
+      <c r="D141" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J141" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J142" s="3" t="s">
+      <c r="D142" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J142" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J143" s="3" t="s">
+      <c r="D143" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J143" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J144" s="3" t="s">
+      <c r="D144" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J144" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J145" s="3" t="s">
+      <c r="D145" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J145" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J146" s="3" t="s">
+      <c r="D146" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J146" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H147" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J147" s="3" t="s">
+      <c r="D147" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J147" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J148" s="3" t="s">
+      <c r="D148" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J148" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J149" s="3" t="s">
+      <c r="D149" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J149" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H150" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J150" s="3" t="s">
+      <c r="D150" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J150" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H151" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J151" s="3" t="s">
+      <c r="D151" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J151" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H152" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I152" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J152" s="3" t="s">
+      <c r="D152" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J152" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H153" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J153" s="3" t="s">
+      <c r="D153" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J153" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J154" s="3" t="s">
+      <c r="D154" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J154" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H155" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J155" s="3" t="s">
+      <c r="D155" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J155" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J156" s="3" t="s">
+      <c r="D156" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J156" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H157" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J157" s="3" t="s">
+      <c r="D157" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J157" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+    <row r="158" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D158" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H158" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J158" s="3" t="s">
+      <c r="D158" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J158" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+    <row r="159" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H159" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J159" s="3" t="s">
+      <c r="D159" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J159" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+    <row r="160" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H160" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J160" s="3" t="s">
+      <c r="D160" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J160" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" t="s">
-        <v>243</v>
+    <row r="161" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H162" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I162" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H164" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I164" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J164" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H166" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I166" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J166" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I167" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J167" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H168" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I168" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J168" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I169" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H170" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I170" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J170" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I171" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I172" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J172" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I173" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J173" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H174" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I174" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J174" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J175" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G176" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H176" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I176" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J176" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I177" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J177" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G178" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H178" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I178" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J178" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I179" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J179" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H180" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I180" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J180" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H181" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I181" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J181" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H182" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I182" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J182" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I183" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J183" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H184" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I184" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J184" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H185" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J185" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A186" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G186" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H186" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I186" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J186" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H187" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I187" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J187" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G188" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H188" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I188" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J188" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H189" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I189" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J189" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H190" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I190" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J190" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9DD63A-D6E8-4AEE-99E3-8AD7F546197B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033BF6C3-FBBA-4917-8C73-1C3DA495AB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="514">
   <si>
     <t>Design</t>
   </si>
@@ -1494,6 +1494,113 @@
   </si>
   <si>
     <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Prodotti particolari -&gt; Libri matricola</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni da Scheda Cliente - Tab Portafoglio_Verifica Subtab Portafoglio</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Portafoglio</t>
+  </si>
+  <si>
+    <t>Si accede al profilo del cliente e verifica che i seguenti subTab siano presenti:  
+- Polizze attive
+- Proposte,
+- Preventivi,
+- Non in vigore,
+- Sinistri</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni da Scheda Cliente - Tab Portafoglio_Verifica subTab Polizze attive</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni da Scheda Cliente - Tab Portafoglio_Verifica subTab Proposte</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni da Scheda Cliente - Tab Portafoglio_Verifica subTab Preventivi</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni da Scheda Cliente - Tab Portafoglio_Verifica subTab Non in vigore</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni da Scheda Cliente - Tab Portafoglio_Verifica subTab Sinistri</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Portafoglio -&gt; Polizze attive</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Portafoglio -&gt; Proposte</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Portafoglio -&gt; Preventivi</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Portafoglio -&gt; Non in vigore</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Portafoglio -&gt; Sinistri</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Archivio Cliente</t>
+  </si>
+  <si>
+    <t>Si accede al profilo del cliente e verifica che i seguenti subTab siano presenti:  
+- Note,
+- Attività,
+- Comunicazioni,
+- Unico,
+- Documentazione,
+- Digital Me</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni da Scheda Cliente - Tab Archivio Cliente_Verifica Subtab Archivio Cliente</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni da Scheda Cliente - Tab Archivio Cliente_Verifica subTab Note</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni da Scheda Cliente - Tab Archivio Cliente_Verifica subTab Unico</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni da Scheda Cliente - Tab Archivio Cliente_Verifica subTab Comunicazioni</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Archivio Cliente -&gt; Note</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Archivio Cliente -&gt; Comunicazioni</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Archivio Cliente -&gt; Unico</t>
+  </si>
+  <si>
+    <t>Verifica aggancio della pagina Polizze attive, click prima polizza attiva e verifica aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Verifica aggancio della pagina Proposte, click prima proposta e verifica aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Verifica aggancio della pagina preventivi, click primo preventivo e verifica aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Verifica aggancio della pagina Non in vigore, click prima polizza non in vigore e verifica aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Verifica aggancio della pagina Sinistri, click primo Sinistro non in vigore e verifica aggancio alla pagina</t>
+  </si>
+  <si>
+    <t>Verifica aggancio  della pagina Note, click prima Nota e verifica:
+- l'apertura del popup,
+- il button modifica
+- i buttons Modifica Nota e Salva Modifica</t>
+  </si>
+  <si>
+    <t>Verifica aggancio  della pagina Comunicazioni, e verifica:
+- l'apertura del popup dall'icona a destra,
+- il button modifica
+- i buttons Modifica Nota e Salva Modifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica aggancio della pagina Unico verificando che gli aggiornamenti unico siano presenti </t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1641,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1589,6 +1696,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1629,7 +1748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1662,6 +1781,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1978,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D181" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J190"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="J200" sqref="A191:J200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,7 +2199,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>78</v>
       </c>
@@ -7138,7 +7275,7 @@
         <v>1</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H161" s="9" t="s">
         <v>12</v>
@@ -7170,7 +7307,7 @@
         <v>1</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H162" s="9" t="s">
         <v>12</v>
@@ -7202,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H163" s="9" t="s">
         <v>12</v>
@@ -7234,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H164" s="9" t="s">
         <v>12</v>
@@ -7266,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H165" s="9" t="s">
         <v>12</v>
@@ -7298,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H166" s="9" t="s">
         <v>12</v>
@@ -7330,7 +7467,7 @@
         <v>1</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H167" s="9" t="s">
         <v>12</v>
@@ -7362,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H168" s="9" t="s">
         <v>12</v>
@@ -7394,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H169" s="9" t="s">
         <v>12</v>
@@ -7426,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H170" s="9" t="s">
         <v>12</v>
@@ -7458,7 +7595,7 @@
         <v>1</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H171" s="9" t="s">
         <v>12</v>
@@ -7490,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H172" s="9" t="s">
         <v>12</v>
@@ -7522,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H173" s="9" t="s">
         <v>12</v>
@@ -7554,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H174" s="9" t="s">
         <v>12</v>
@@ -7586,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H175" s="9" t="s">
         <v>12</v>
@@ -7618,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H176" s="9" t="s">
         <v>12</v>
@@ -7650,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H177" s="9" t="s">
         <v>12</v>
@@ -7682,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H178" s="9" t="s">
         <v>12</v>
@@ -7714,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H179" s="9" t="s">
         <v>12</v>
@@ -7746,7 +7883,7 @@
         <v>1</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H180" s="9" t="s">
         <v>12</v>
@@ -7778,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H181" s="9" t="s">
         <v>12</v>
@@ -7810,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H182" s="9" t="s">
         <v>12</v>
@@ -7842,7 +7979,7 @@
         <v>1</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H183" s="9" t="s">
         <v>12</v>
@@ -7874,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H184" s="9" t="s">
         <v>12</v>
@@ -7906,7 +8043,7 @@
         <v>1</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H185" s="9" t="s">
         <v>12</v>
@@ -7938,7 +8075,7 @@
         <v>1</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H186" s="9" t="s">
         <v>12</v>
@@ -7970,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H187" s="9" t="s">
         <v>12</v>
@@ -8002,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H188" s="9" t="s">
         <v>12</v>
@@ -8034,7 +8171,7 @@
         <v>1</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H189" s="9" t="s">
         <v>12</v>
@@ -8066,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H190" s="9" t="s">
         <v>12</v>
@@ -8075,6 +8212,326 @@
         <v>2</v>
       </c>
       <c r="J190" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A191" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="C191" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="D191" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F191" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G191" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H191" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I191" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J191" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A192" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="D192" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F192" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G192" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H192" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I192" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J192" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A193" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F193" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G193" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H193" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I193" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J193" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A194" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="B194" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F194" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G194" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H194" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I194" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J194" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A195" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F195" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G195" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H195" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I195" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J195" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A196" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F196" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G196" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H196" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J196" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A197" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="D197" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F197" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G197" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H197" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I197" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J197" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A198" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="B198" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F198" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G198" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H198" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I198" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J198" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A199" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="B199" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F199" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G199" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H199" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I199" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J199" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A200" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="B200" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F200" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G200" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H200" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I200" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J200" s="18" t="s">
         <v>133</v>
       </c>
     </row>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033BF6C3-FBBA-4917-8C73-1C3DA495AB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78D6A62-74B3-4EA3-80A9-12FA57D81537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="511">
   <si>
     <t>Design</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Verifica aggancio Appuntamento</t>
   </si>
   <si>
-    <t>Verifica aggancio News image Primo comandamento</t>
-  </si>
-  <si>
     <t>Verifica aggancio Preventivi e quotazioni - Card Danni</t>
   </si>
   <si>
@@ -410,9 +407,6 @@
     <t>MatrixWeb: Navigation_Sales_Verifica aggancio Appuntamento</t>
   </si>
   <si>
-    <t>MatrixWeb: Navigation_Sales_Verifica aggancio News image Primo comandamento</t>
-  </si>
-  <si>
     <t>MatrixWeb: Navigation_Sales_Verifica aggancio Preventivi e quotazioni - Card Danni</t>
   </si>
   <si>
@@ -810,9 +804,6 @@
   </si>
   <si>
     <t>Matrix Web : Navigation_MieInfo_Verifica aggancio Contenuti Salvati</t>
-  </si>
-  <si>
-    <t>Si accede a Sales e verifica aggancio della pagina News</t>
   </si>
   <si>
     <t>Si accede a Sales e verifica aggancio della pagina Appuntamento</t>
@@ -2115,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J200"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="J200" sqref="A191:J200"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,7 +2160,7 @@
     </row>
     <row r="2" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>16</v>
@@ -2187,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>12</v>
@@ -2196,12 +2187,12 @@
         <v>2</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
@@ -2219,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>12</v>
@@ -2228,15 +2219,15 @@
         <v>2</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>22</v>
@@ -2251,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>12</v>
@@ -2260,12 +2251,12 @@
         <v>2</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>20</v>
@@ -2283,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>12</v>
@@ -2292,12 +2283,12 @@
         <v>2</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>21</v>
@@ -2315,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>12</v>
@@ -2324,12 +2315,12 @@
         <v>2</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>23</v>
@@ -2347,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>12</v>
@@ -2356,12 +2347,12 @@
         <v>2</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>24</v>
@@ -2379,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>12</v>
@@ -2388,12 +2379,12 @@
         <v>2</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>25</v>
@@ -2411,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>12</v>
@@ -2420,18 +2411,18 @@
         <v>2</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>15</v>
@@ -2443,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>12</v>
@@ -2452,12 +2443,12 @@
         <v>2</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>26</v>
@@ -2475,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>12</v>
@@ -2484,12 +2475,12 @@
         <v>2</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>27</v>
@@ -2507,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>12</v>
@@ -2516,12 +2507,12 @@
         <v>2</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>28</v>
@@ -2539,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>12</v>
@@ -2548,12 +2539,12 @@
         <v>2</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>29</v>
@@ -2571,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>12</v>
@@ -2580,12 +2571,12 @@
         <v>2</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>30</v>
@@ -2612,12 +2603,12 @@
         <v>2</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>32</v>
@@ -2644,15 +2635,15 @@
         <v>2</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>31</v>
@@ -2676,15 +2667,15 @@
         <v>2</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>33</v>
@@ -2708,15 +2699,15 @@
         <v>2</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>34</v>
@@ -2740,12 +2731,12 @@
         <v>2</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>35</v>
@@ -2772,12 +2763,12 @@
         <v>2</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>36</v>
@@ -2804,12 +2795,12 @@
         <v>2</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>37</v>
@@ -2836,12 +2827,12 @@
         <v>2</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>38</v>
@@ -2868,12 +2859,12 @@
         <v>2</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>39</v>
@@ -2900,12 +2891,12 @@
         <v>2</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>40</v>
@@ -2932,12 +2923,12 @@
         <v>2</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>41</v>
@@ -2964,12 +2955,12 @@
         <v>2</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>42</v>
@@ -2996,12 +2987,12 @@
         <v>2</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>43</v>
@@ -3028,12 +3019,12 @@
         <v>2</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>44</v>
@@ -3060,15 +3051,15 @@
         <v>2</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>31</v>
@@ -3092,12 +3083,12 @@
         <v>2</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>45</v>
@@ -3124,12 +3115,12 @@
         <v>2</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>46</v>
@@ -3156,12 +3147,12 @@
         <v>2</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>47</v>
@@ -3188,12 +3179,12 @@
         <v>2</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>48</v>
@@ -3220,12 +3211,12 @@
         <v>2</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>49</v>
@@ -3252,12 +3243,12 @@
         <v>2</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>50</v>
@@ -3284,15 +3275,15 @@
         <v>2</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>31</v>
@@ -3316,12 +3307,12 @@
         <v>2</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>51</v>
@@ -3339,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>12</v>
@@ -3348,12 +3339,12 @@
         <v>2</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>18</v>
@@ -3371,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>12</v>
@@ -3380,15 +3371,15 @@
         <v>2</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>52</v>
@@ -3403,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>12</v>
@@ -3412,12 +3403,12 @@
         <v>2</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>53</v>
@@ -3435,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>12</v>
@@ -3444,12 +3435,12 @@
         <v>2</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>54</v>
@@ -3467,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>12</v>
@@ -3476,12 +3467,12 @@
         <v>2</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>55</v>
@@ -3499,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>12</v>
@@ -3508,12 +3499,12 @@
         <v>2</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>56</v>
@@ -3531,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>12</v>
@@ -3540,18 +3531,18 @@
         <v>2</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>15</v>
@@ -3563,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>12</v>
@@ -3572,12 +3563,12 @@
         <v>2</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>57</v>
@@ -3595,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>12</v>
@@ -3604,12 +3595,12 @@
         <v>2</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>58</v>
@@ -3627,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>12</v>
@@ -3636,12 +3627,12 @@
         <v>2</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>59</v>
@@ -3659,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>12</v>
@@ -3668,12 +3659,12 @@
         <v>2</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>60</v>
@@ -3691,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>12</v>
@@ -3700,12 +3691,12 @@
         <v>2</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>61</v>
@@ -3723,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>12</v>
@@ -3732,12 +3723,12 @@
         <v>2</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>62</v>
@@ -3755,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>12</v>
@@ -3764,12 +3755,12 @@
         <v>2</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>63</v>
@@ -3787,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>12</v>
@@ -3796,12 +3787,12 @@
         <v>2</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>64</v>
@@ -3819,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>12</v>
@@ -3828,12 +3819,12 @@
         <v>2</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>65</v>
@@ -3851,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>12</v>
@@ -3860,12 +3851,12 @@
         <v>2</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>66</v>
@@ -3883,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>12</v>
@@ -3892,19 +3883,19 @@
         <v>2</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="D56" s="6" t="s">
         <v>15</v>
       </c>
@@ -3915,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>12</v>
@@ -3924,19 +3915,19 @@
         <v>2</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="D57" s="6" t="s">
         <v>15</v>
       </c>
@@ -3947,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>12</v>
@@ -3956,18 +3947,18 @@
         <v>2</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>15</v>
@@ -3979,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>12</v>
@@ -3988,18 +3979,18 @@
         <v>2</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>15</v>
@@ -4011,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>12</v>
@@ -4020,18 +4011,18 @@
         <v>2</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>15</v>
@@ -4043,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>12</v>
@@ -4052,18 +4043,18 @@
         <v>2</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>15</v>
@@ -4075,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>12</v>
@@ -4084,18 +4075,18 @@
         <v>2</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>15</v>
@@ -4107,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>12</v>
@@ -4116,18 +4107,18 @@
         <v>2</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>15</v>
@@ -4139,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>12</v>
@@ -4148,18 +4139,18 @@
         <v>2</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>15</v>
@@ -4171,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>12</v>
@@ -4180,18 +4171,18 @@
         <v>2</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>259</v>
+        <v>52</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>15</v>
@@ -4203,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>12</v>
@@ -4212,18 +4203,18 @@
         <v>2</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>52</v>
+        <v>251</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>15</v>
@@ -4235,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>12</v>
@@ -4244,18 +4235,18 @@
         <v>2</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>15</v>
@@ -4267,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>12</v>
@@ -4276,18 +4267,18 @@
         <v>2</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>128</v>
+        <v>252</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>15</v>
@@ -4299,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>12</v>
@@ -4308,18 +4299,18 @@
         <v>2</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>15</v>
@@ -4331,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>12</v>
@@ -4340,18 +4331,18 @@
         <v>2</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>15</v>
@@ -4363,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>12</v>
@@ -4372,18 +4363,18 @@
         <v>2</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>15</v>
@@ -4395,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>12</v>
@@ -4404,18 +4395,18 @@
         <v>2</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>15</v>
@@ -4427,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>12</v>
@@ -4436,50 +4427,50 @@
         <v>2</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B73" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>137</v>
+      <c r="C73" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>132</v>
+        <v>283</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -4500,18 +4491,18 @@
         <v>2</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>286</v>
+        <v>138</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>284</v>
+        <v>139</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>285</v>
+        <v>140</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>15</v>
@@ -4532,18 +4523,18 @@
         <v>2</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>15</v>
@@ -4564,18 +4555,18 @@
         <v>2</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>15</v>
@@ -4596,18 +4587,18 @@
         <v>2</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
@@ -4628,18 +4619,18 @@
         <v>2</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>257</v>
+        <v>147</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>15</v>
@@ -4660,18 +4651,18 @@
         <v>2</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>149</v>
+        <v>286</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
@@ -4692,18 +4683,18 @@
         <v>2</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>289</v>
+        <v>150</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>291</v>
+        <v>153</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>15</v>
@@ -4724,18 +4715,18 @@
         <v>2</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>151</v>
+        <v>291</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>152</v>
+        <v>289</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>155</v>
+        <v>290</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -4756,18 +4747,18 @@
         <v>2</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>294</v>
+        <v>151</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>292</v>
+        <v>152</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>293</v>
+        <v>143</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>15</v>
@@ -4788,18 +4779,18 @@
         <v>2</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>15</v>
@@ -4820,18 +4811,18 @@
         <v>2</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>157</v>
+        <v>293</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>155</v>
+        <v>294</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
@@ -4852,18 +4843,18 @@
         <v>2</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>295</v>
+        <v>157</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
@@ -4884,10 +4875,10 @@
         <v>2</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>158</v>
       </c>
@@ -4895,7 +4886,7 @@
         <v>159</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4916,18 +4907,18 @@
         <v>2</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
@@ -4948,18 +4939,18 @@
         <v>2</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="C89" s="3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
@@ -4980,18 +4971,18 @@
         <v>2</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
@@ -5012,18 +5003,18 @@
         <v>2</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>288</v>
+        <v>166</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>15</v>
@@ -5044,18 +5035,18 @@
         <v>2</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -5076,18 +5067,18 @@
         <v>2</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>169</v>
+        <v>296</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>24</v>
+        <v>295</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>155</v>
+        <v>299</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>15</v>
@@ -5108,18 +5099,18 @@
         <v>2</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>298</v>
+        <v>171</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>302</v>
+        <v>153</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -5140,18 +5131,18 @@
         <v>2</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>173</v>
+        <v>297</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>155</v>
+        <v>298</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -5172,18 +5163,18 @@
         <v>2</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>303</v>
+        <v>169</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>300</v>
+        <v>168</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>301</v>
+        <v>160</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -5204,18 +5195,18 @@
         <v>2</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>170</v>
+        <v>302</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -5236,18 +5227,18 @@
         <v>2</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
@@ -5268,18 +5259,18 @@
         <v>2</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>306</v>
+        <v>172</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>307</v>
+        <v>173</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -5300,18 +5291,18 @@
         <v>2</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>174</v>
+        <v>308</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -5332,39 +5323,39 @@
         <v>2</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="A101" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>135</v>
+      <c r="H101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -5375,7 +5366,7 @@
         <v>176</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>15</v>
@@ -5396,18 +5387,18 @@
         <v>2</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>15</v>
@@ -5428,18 +5419,18 @@
         <v>2</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>15</v>
@@ -5460,18 +5451,18 @@
         <v>2</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>273</v>
-      </c>
       <c r="C105" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>15</v>
@@ -5492,18 +5483,18 @@
         <v>2</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="C106" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>15</v>
@@ -5524,18 +5515,18 @@
         <v>2</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>15</v>
@@ -5556,18 +5547,18 @@
         <v>2</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>370</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>15</v>
@@ -5588,18 +5579,18 @@
         <v>2</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>371</v>
+        <v>279</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>15</v>
@@ -5620,18 +5611,18 @@
         <v>2</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="C110" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>15</v>
@@ -5652,18 +5643,18 @@
         <v>2</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="C111" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>15</v>
@@ -5684,18 +5675,18 @@
         <v>2</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="C112" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>15</v>
@@ -5716,18 +5707,18 @@
         <v>2</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>318</v>
+        <v>403</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>319</v>
+        <v>404</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>15</v>
@@ -5748,18 +5739,18 @@
         <v>2</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>406</v>
+        <v>317</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>407</v>
+        <v>318</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>15</v>
@@ -5780,18 +5771,18 @@
         <v>2</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>321</v>
-      </c>
       <c r="C115" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>15</v>
@@ -5812,18 +5803,18 @@
         <v>2</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="C116" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>15</v>
@@ -5844,18 +5835,18 @@
         <v>2</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>324</v>
+        <v>183</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>325</v>
+        <v>182</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>15</v>
@@ -5876,18 +5867,18 @@
         <v>2</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>15</v>
@@ -5908,7 +5899,7 @@
         <v>2</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -5916,10 +5907,10 @@
         <v>186</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>15</v>
@@ -5940,18 +5931,18 @@
         <v>2</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>15</v>
@@ -5972,18 +5963,18 @@
         <v>2</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>15</v>
@@ -6004,18 +5995,18 @@
         <v>2</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="C122" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>15</v>
@@ -6036,7 +6027,7 @@
         <v>2</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -6047,7 +6038,7 @@
         <v>192</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>15</v>
@@ -6068,18 +6059,18 @@
         <v>2</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>15</v>
@@ -6100,18 +6091,18 @@
         <v>2</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>15</v>
@@ -6132,18 +6123,18 @@
         <v>2</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>15</v>
@@ -6164,7 +6155,7 @@
         <v>2</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -6175,7 +6166,7 @@
         <v>207</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>15</v>
@@ -6196,7 +6187,7 @@
         <v>2</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -6207,7 +6198,7 @@
         <v>209</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>15</v>
@@ -6228,7 +6219,7 @@
         <v>2</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -6239,7 +6230,7 @@
         <v>211</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>15</v>
@@ -6260,18 +6251,18 @@
         <v>2</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>212</v>
+        <v>400</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>213</v>
+        <v>401</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>217</v>
+        <v>402</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>15</v>
@@ -6292,18 +6283,18 @@
         <v>2</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>403</v>
+        <v>266</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>404</v>
+        <v>265</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>405</v>
+        <v>218</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>15</v>
@@ -6324,18 +6315,18 @@
         <v>2</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>15</v>
@@ -6356,18 +6347,18 @@
         <v>2</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>15</v>
@@ -6388,50 +6379,50 @@
         <v>2</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J134" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>224</v>
+        <v>361</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>225</v>
+        <v>362</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>226</v>
+        <v>359</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>15</v>
@@ -6443,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H135" s="4" t="s">
         <v>12</v>
@@ -6452,18 +6443,18 @@
         <v>2</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>364</v>
+        <v>226</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>362</v>
+        <v>227</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>15</v>
@@ -6475,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>12</v>
@@ -6484,18 +6475,18 @@
         <v>2</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="C137" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>15</v>
@@ -6507,7 +6498,7 @@
         <v>1</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>12</v>
@@ -6516,18 +6507,18 @@
         <v>2</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="C138" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>15</v>
@@ -6539,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>12</v>
@@ -6548,19 +6539,19 @@
         <v>2</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="D139" s="4" t="s">
         <v>15</v>
       </c>
@@ -6571,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>12</v>
@@ -6580,15 +6571,15 @@
         <v>2</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>235</v>
@@ -6603,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>12</v>
@@ -6612,18 +6603,18 @@
         <v>2</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>328</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>15</v>
@@ -6635,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>12</v>
@@ -6644,7 +6635,7 @@
         <v>2</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -6652,10 +6643,10 @@
         <v>330</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>238</v>
+        <v>337</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>15</v>
@@ -6667,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>12</v>
@@ -6676,7 +6667,7 @@
         <v>2</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -6687,7 +6678,7 @@
         <v>332</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>340</v>
+        <v>235</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>15</v>
@@ -6699,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>12</v>
@@ -6708,18 +6699,18 @@
         <v>2</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>15</v>
@@ -6731,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>12</v>
@@ -6740,18 +6731,18 @@
         <v>2</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>15</v>
@@ -6763,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>12</v>
@@ -6772,18 +6763,18 @@
         <v>2</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B146" s="4" t="s">
-        <v>338</v>
-      </c>
       <c r="C146" s="4" t="s">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>15</v>
@@ -6795,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>12</v>
@@ -6804,15 +6795,15 @@
         <v>2</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>235</v>
@@ -6827,7 +6818,7 @@
         <v>1</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>12</v>
@@ -6836,18 +6827,18 @@
         <v>2</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>15</v>
@@ -6859,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>12</v>
@@ -6868,18 +6859,18 @@
         <v>2</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>15</v>
@@ -6891,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>12</v>
@@ -6900,18 +6891,18 @@
         <v>2</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>15</v>
@@ -6923,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>12</v>
@@ -6932,15 +6923,15 @@
         <v>2</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>235</v>
@@ -6955,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>12</v>
@@ -6964,18 +6955,18 @@
         <v>2</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>15</v>
@@ -6987,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>12</v>
@@ -6996,18 +6987,18 @@
         <v>2</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>15</v>
@@ -7019,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>12</v>
@@ -7028,15 +7019,15 @@
         <v>2</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>235</v>
@@ -7051,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>12</v>
@@ -7060,18 +7051,18 @@
         <v>2</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>15</v>
@@ -7083,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>12</v>
@@ -7092,18 +7083,18 @@
         <v>2</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>15</v>
@@ -7115,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>12</v>
@@ -7124,50 +7115,50 @@
         <v>2</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>239</v>
+        <v>410</v>
       </c>
       <c r="C157" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J157" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I157" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J157" s="4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>241</v>
+        <v>408</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>243</v>
+        <v>409</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>15</v>
@@ -7179,7 +7170,7 @@
         <v>1</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H158" s="4" t="s">
         <v>12</v>
@@ -7188,18 +7179,18 @@
         <v>2</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>412</v>
+        <v>280</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>15</v>
@@ -7211,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>12</v>
@@ -7220,114 +7211,114 @@
         <v>2</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H160" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I160" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J160" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B162" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B161" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G161" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H161" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I161" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J161" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
+      <c r="C162" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H162" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I162" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B162" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G162" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H162" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I162" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J162" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
+      <c r="B163" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B163" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>426</v>
+      <c r="C163" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>15</v>
@@ -7339,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H163" s="9" t="s">
         <v>12</v>
@@ -7348,17 +7339,17 @@
         <v>2</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C164" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C164" s="10" t="s">
         <v>427</v>
       </c>
       <c r="D164" s="9" t="s">
@@ -7371,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H164" s="9" t="s">
         <v>12</v>
@@ -7380,7 +7371,7 @@
         <v>2</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -7390,7 +7381,7 @@
       <c r="B165" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C165" s="11" t="s">
         <v>430</v>
       </c>
       <c r="D165" s="9" t="s">
@@ -7403,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H165" s="9" t="s">
         <v>12</v>
@@ -7412,7 +7403,7 @@
         <v>2</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -7435,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H166" s="9" t="s">
         <v>12</v>
@@ -7444,7 +7435,7 @@
         <v>2</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -7452,10 +7443,10 @@
         <v>434</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>15</v>
@@ -7467,7 +7458,7 @@
         <v>1</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H167" s="9" t="s">
         <v>12</v>
@@ -7476,18 +7467,18 @@
         <v>2</v>
       </c>
       <c r="J167" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>15</v>
@@ -7499,7 +7490,7 @@
         <v>1</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H168" s="9" t="s">
         <v>12</v>
@@ -7508,18 +7499,18 @@
         <v>2</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>15</v>
@@ -7531,7 +7522,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H169" s="9" t="s">
         <v>12</v>
@@ -7540,18 +7531,18 @@
         <v>2</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>15</v>
@@ -7563,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H170" s="9" t="s">
         <v>12</v>
@@ -7572,18 +7563,18 @@
         <v>2</v>
       </c>
       <c r="J170" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>15</v>
@@ -7595,7 +7586,7 @@
         <v>1</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H171" s="9" t="s">
         <v>12</v>
@@ -7604,18 +7595,18 @@
         <v>2</v>
       </c>
       <c r="J171" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>15</v>
@@ -7627,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H172" s="9" t="s">
         <v>12</v>
@@ -7636,18 +7627,18 @@
         <v>2</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>15</v>
@@ -7659,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H173" s="9" t="s">
         <v>12</v>
@@ -7668,18 +7659,18 @@
         <v>2</v>
       </c>
       <c r="J173" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D174" s="9" t="s">
         <v>15</v>
@@ -7691,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H174" s="9" t="s">
         <v>12</v>
@@ -7700,18 +7691,18 @@
         <v>2</v>
       </c>
       <c r="J174" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>15</v>
@@ -7723,7 +7714,7 @@
         <v>1</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H175" s="9" t="s">
         <v>12</v>
@@ -7732,18 +7723,18 @@
         <v>2</v>
       </c>
       <c r="J175" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>15</v>
@@ -7755,7 +7746,7 @@
         <v>1</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H176" s="9" t="s">
         <v>12</v>
@@ -7764,18 +7755,18 @@
         <v>2</v>
       </c>
       <c r="J176" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>15</v>
@@ -7787,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H177" s="9" t="s">
         <v>12</v>
@@ -7796,18 +7787,18 @@
         <v>2</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>15</v>
@@ -7819,7 +7810,7 @@
         <v>1</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H178" s="9" t="s">
         <v>12</v>
@@ -7828,18 +7819,18 @@
         <v>2</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D179" s="9" t="s">
         <v>15</v>
@@ -7851,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H179" s="9" t="s">
         <v>12</v>
@@ -7860,18 +7851,18 @@
         <v>2</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D180" s="9" t="s">
         <v>15</v>
@@ -7883,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H180" s="9" t="s">
         <v>12</v>
@@ -7892,18 +7883,18 @@
         <v>2</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D181" s="9" t="s">
         <v>15</v>
@@ -7915,7 +7906,7 @@
         <v>1</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H181" s="9" t="s">
         <v>12</v>
@@ -7924,18 +7915,18 @@
         <v>2</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>15</v>
@@ -7947,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H182" s="9" t="s">
         <v>12</v>
@@ -7956,18 +7947,18 @@
         <v>2</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>15</v>
@@ -7979,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H183" s="9" t="s">
         <v>12</v>
@@ -7988,18 +7979,18 @@
         <v>2</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>15</v>
@@ -8011,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H184" s="9" t="s">
         <v>12</v>
@@ -8020,18 +8011,18 @@
         <v>2</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>15</v>
@@ -8043,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H185" s="9" t="s">
         <v>12</v>
@@ -8052,18 +8043,18 @@
         <v>2</v>
       </c>
       <c r="J185" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>15</v>
@@ -8075,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H186" s="9" t="s">
         <v>12</v>
@@ -8084,18 +8075,18 @@
         <v>2</v>
       </c>
       <c r="J186" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>15</v>
@@ -8107,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H187" s="9" t="s">
         <v>12</v>
@@ -8116,18 +8107,18 @@
         <v>2</v>
       </c>
       <c r="J187" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>15</v>
@@ -8139,7 +8130,7 @@
         <v>1</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H188" s="9" t="s">
         <v>12</v>
@@ -8148,18 +8139,18 @@
         <v>2</v>
       </c>
       <c r="J188" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>15</v>
@@ -8171,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H189" s="9" t="s">
         <v>12</v>
@@ -8180,50 +8171,50 @@
         <v>2</v>
       </c>
       <c r="J189" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A190" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="B190" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="C190" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A190" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="D190" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F190" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G190" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H190" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I190" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J190" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B190" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="C190" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="D190" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F190" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G190" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H190" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I190" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J190" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
         <v>484</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="C191" s="14" t="s">
-        <v>486</v>
+        <v>489</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>503</v>
       </c>
       <c r="D191" s="15" t="s">
         <v>15</v>
@@ -8235,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="G191" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H191" s="15" t="s">
         <v>12</v>
@@ -8244,18 +8235,18 @@
         <v>2</v>
       </c>
       <c r="J191" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D192" s="15" t="s">
         <v>15</v>
@@ -8267,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H192" s="15" t="s">
         <v>12</v>
@@ -8276,18 +8267,18 @@
         <v>2</v>
       </c>
       <c r="J192" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D193" s="15" t="s">
         <v>15</v>
@@ -8299,7 +8290,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H193" s="15" t="s">
         <v>12</v>
@@ -8308,18 +8299,18 @@
         <v>2</v>
       </c>
       <c r="J193" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D194" s="15" t="s">
         <v>15</v>
@@ -8331,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="G194" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H194" s="15" t="s">
         <v>12</v>
@@ -8340,82 +8331,82 @@
         <v>2</v>
       </c>
       <c r="J194" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B195" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F195" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G195" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H195" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I195" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J195" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A196" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C196" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="C195" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="D195" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E195" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F195" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G195" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H195" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I195" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J195" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A196" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="B196" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="C196" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="D196" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E196" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F196" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G196" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H196" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I196" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J196" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="D196" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F196" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G196" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H196" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J196" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A197" s="16" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D197" s="18" t="s">
         <v>15</v>
@@ -8427,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="G197" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H197" s="18" t="s">
         <v>12</v>
@@ -8436,18 +8427,18 @@
         <v>2</v>
       </c>
       <c r="J197" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A198" s="16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B198" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D198" s="18" t="s">
         <v>15</v>
@@ -8459,7 +8450,7 @@
         <v>1</v>
       </c>
       <c r="G198" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H198" s="18" t="s">
         <v>12</v>
@@ -8468,18 +8459,18 @@
         <v>2</v>
       </c>
       <c r="J198" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="B199" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="B199" s="17" t="s">
-        <v>504</v>
-      </c>
       <c r="C199" s="17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D199" s="18" t="s">
         <v>15</v>
@@ -8491,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="G199" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H199" s="18" t="s">
         <v>12</v>
@@ -8500,39 +8491,7 @@
         <v>2</v>
       </c>
       <c r="J199" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A200" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="B200" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="C200" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="D200" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E200" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F200" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G200" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="H200" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I200" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J200" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78D6A62-74B3-4EA3-80A9-12FA57D81537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7686E10E-F1E5-42FC-81B0-EE524E93D60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="514">
   <si>
     <t>Design</t>
   </si>
@@ -1592,6 +1592,15 @@
   </si>
   <si>
     <t xml:space="preserve">Verifica aggancio della pagina Unico verificando che gli aggiornamenti unico siano presenti </t>
+  </si>
+  <si>
+    <t>Verifica su Indicatori Operativi aggancio  Monitoraggio carico</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_Numbers_Verifica su Indicatori Operativi aggancio  Monitoraggio carico</t>
+  </si>
+  <si>
+    <t>Si accede a Numbers, click sul tab Indicatori Operativi, verifica l'atterraggio alla pagina del primo indice di monitoraggio carico</t>
   </si>
 </sst>
 </file>
@@ -2106,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4334,7 +4343,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>128</v>
       </c>
@@ -4366,7 +4375,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>259</v>
       </c>
@@ -4398,7 +4407,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>129</v>
       </c>
@@ -4430,7 +4439,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>130</v>
       </c>
@@ -4462,7 +4471,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>283</v>
       </c>
@@ -4494,7 +4503,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>138</v>
       </c>
@@ -4526,7 +4535,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>142</v>
       </c>
@@ -4558,7 +4567,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>145</v>
       </c>
@@ -4590,7 +4599,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>256</v>
       </c>
@@ -4622,7 +4631,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>148</v>
       </c>
@@ -4654,7 +4663,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>287</v>
       </c>
@@ -4686,7 +4695,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>149</v>
       </c>
@@ -4718,7 +4727,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>291</v>
       </c>
@@ -4750,7 +4759,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>151</v>
       </c>
@@ -4782,7 +4791,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>155</v>
       </c>
@@ -4814,7 +4823,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>293</v>
       </c>
@@ -4878,7 +4887,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>158</v>
       </c>
@@ -4910,7 +4919,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>162</v>
       </c>
@@ -4942,7 +4951,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>163</v>
       </c>
@@ -4974,7 +4983,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>285</v>
       </c>
@@ -5006,7 +5015,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>166</v>
       </c>
@@ -5038,7 +5047,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>167</v>
       </c>
@@ -5070,7 +5079,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>296</v>
       </c>
@@ -5102,7 +5111,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>170</v>
       </c>
@@ -5134,7 +5143,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>300</v>
       </c>
@@ -5198,7 +5207,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>301</v>
       </c>
@@ -5230,7 +5239,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>303</v>
       </c>
@@ -5262,7 +5271,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>172</v>
       </c>
@@ -5294,7 +5303,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>308</v>
       </c>
@@ -5326,7 +5335,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>175</v>
       </c>
@@ -5358,7 +5367,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>177</v>
       </c>
@@ -5390,7 +5399,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>181</v>
       </c>
@@ -5422,7 +5431,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>271</v>
       </c>
@@ -5454,7 +5463,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>273</v>
       </c>
@@ -5486,7 +5495,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>275</v>
       </c>
@@ -5518,7 +5527,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>365</v>
       </c>
@@ -5550,7 +5559,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>366</v>
       </c>
@@ -5838,7 +5847,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>183</v>
       </c>
@@ -5870,7 +5879,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>184</v>
       </c>
@@ -5902,7 +5911,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>186</v>
       </c>
@@ -5934,7 +5943,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>189</v>
       </c>
@@ -5966,7 +5975,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>188</v>
       </c>
@@ -5998,7 +6007,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>191</v>
       </c>
@@ -6030,7 +6039,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>193</v>
       </c>
@@ -6062,7 +6071,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>221</v>
       </c>
@@ -6094,7 +6103,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>201</v>
       </c>
@@ -6126,7 +6135,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>204</v>
       </c>
@@ -6158,7 +6167,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>206</v>
       </c>
@@ -6190,7 +6199,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>208</v>
       </c>
@@ -6222,7 +6231,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>210</v>
       </c>
@@ -6254,7 +6263,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>400</v>
       </c>
@@ -6286,7 +6295,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>266</v>
       </c>
@@ -6318,7 +6327,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>216</v>
       </c>
@@ -6350,7 +6359,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>268</v>
       </c>
@@ -6382,7 +6391,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>222</v>
       </c>
@@ -6414,7 +6423,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>361</v>
       </c>
@@ -6446,7 +6455,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>226</v>
       </c>
@@ -6478,7 +6487,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>229</v>
       </c>
@@ -6510,7 +6519,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>232</v>
       </c>
@@ -6542,7 +6551,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>324</v>
       </c>
@@ -6574,7 +6583,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>326</v>
       </c>
@@ -6606,7 +6615,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>327</v>
       </c>
@@ -6638,7 +6647,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>330</v>
       </c>
@@ -6670,7 +6679,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>333</v>
       </c>
@@ -6702,7 +6711,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>334</v>
       </c>
@@ -6734,7 +6743,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>336</v>
       </c>
@@ -6766,7 +6775,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>342</v>
       </c>
@@ -6798,7 +6807,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>343</v>
       </c>
@@ -6830,7 +6839,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>344</v>
       </c>
@@ -6862,7 +6871,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>346</v>
       </c>
@@ -6894,7 +6903,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>347</v>
       </c>
@@ -6926,7 +6935,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>348</v>
       </c>
@@ -6958,7 +6967,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>349</v>
       </c>
@@ -6990,7 +6999,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>351</v>
       </c>
@@ -7022,7 +7031,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>356</v>
       </c>
@@ -7054,7 +7063,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>358</v>
       </c>
@@ -7086,7 +7095,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>238</v>
       </c>
@@ -7118,15 +7127,15 @@
         <v>242</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>239</v>
+        <v>512</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>410</v>
+        <v>511</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>241</v>
+        <v>513</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>15</v>
@@ -7150,15 +7159,15 @@
         <v>242</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>408</v>
+        <v>239</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>409</v>
+        <v>241</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>15</v>
@@ -7184,13 +7193,13 @@
     </row>
     <row r="159" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>280</v>
+        <v>409</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>15</v>
@@ -7214,47 +7223,47 @@
         <v>242</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="9" t="s">
+    <row r="160" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
         <v>417</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F160" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H160" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I160" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J160" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
-        <v>418</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>416</v>
+      <c r="C161" s="12" t="s">
+        <v>414</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>15</v>
@@ -7278,15 +7287,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>15</v>
@@ -7310,15 +7319,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>424</v>
+        <v>420</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>423</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>15</v>
@@ -7344,13 +7353,13 @@
     </row>
     <row r="164" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>427</v>
+        <v>422</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>15</v>
@@ -7376,13 +7385,13 @@
     </row>
     <row r="165" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="C165" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>427</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>15</v>
@@ -7408,13 +7417,13 @@
     </row>
     <row r="166" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>15</v>
@@ -7440,10 +7449,10 @@
     </row>
     <row r="167" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>433</v>
@@ -7472,10 +7481,10 @@
     </row>
     <row r="168" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>433</v>
@@ -7504,10 +7513,10 @@
     </row>
     <row r="169" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>433</v>
@@ -7536,10 +7545,10 @@
     </row>
     <row r="170" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>433</v>
@@ -7568,10 +7577,10 @@
     </row>
     <row r="171" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>433</v>
@@ -7600,10 +7609,10 @@
     </row>
     <row r="172" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>433</v>
@@ -7632,10 +7641,10 @@
     </row>
     <row r="173" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>433</v>
@@ -7664,10 +7673,10 @@
     </row>
     <row r="174" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>433</v>
@@ -7696,10 +7705,10 @@
     </row>
     <row r="175" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>433</v>
@@ -7728,10 +7737,10 @@
     </row>
     <row r="176" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C176" s="11" t="s">
         <v>433</v>
@@ -7760,10 +7769,10 @@
     </row>
     <row r="177" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>433</v>
@@ -7792,10 +7801,10 @@
     </row>
     <row r="178" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>433</v>
@@ -7824,10 +7833,10 @@
     </row>
     <row r="179" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>433</v>
@@ -7856,10 +7865,10 @@
     </row>
     <row r="180" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>433</v>
@@ -7888,10 +7897,10 @@
     </row>
     <row r="181" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>433</v>
@@ -7920,10 +7929,10 @@
     </row>
     <row r="182" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>433</v>
@@ -7952,10 +7961,10 @@
     </row>
     <row r="183" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>433</v>
@@ -7984,10 +7993,10 @@
     </row>
     <row r="184" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>433</v>
@@ -8016,10 +8025,10 @@
     </row>
     <row r="185" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>433</v>
@@ -8048,10 +8057,10 @@
     </row>
     <row r="186" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>433</v>
@@ -8080,10 +8089,10 @@
     </row>
     <row r="187" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>433</v>
@@ -8112,10 +8121,10 @@
     </row>
     <row r="188" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>433</v>
@@ -8144,13 +8153,13 @@
     </row>
     <row r="189" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>15</v>
@@ -8174,47 +8183,47 @@
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A190" s="13" t="s">
+    <row r="190" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H190" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I190" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J190" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A191" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="B190" s="14" t="s">
+      <c r="B191" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="C190" s="14" t="s">
+      <c r="C191" s="14" t="s">
         <v>483</v>
-      </c>
-      <c r="D190" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E190" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F190" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G190" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="H190" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I190" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J190" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A191" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="B191" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="C191" s="13" t="s">
-        <v>503</v>
       </c>
       <c r="D191" s="15" t="s">
         <v>15</v>
@@ -8240,13 +8249,13 @@
     </row>
     <row r="192" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D192" s="15" t="s">
         <v>15</v>
@@ -8272,13 +8281,13 @@
     </row>
     <row r="193" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D193" s="15" t="s">
         <v>15</v>
@@ -8304,13 +8313,13 @@
     </row>
     <row r="194" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D194" s="15" t="s">
         <v>15</v>
@@ -8336,13 +8345,13 @@
     </row>
     <row r="195" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D195" s="15" t="s">
         <v>15</v>
@@ -8366,47 +8375,47 @@
         <v>131</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A196" s="16" t="s">
+    <row r="196" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A196" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F196" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G196" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H196" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J196" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A197" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="B196" s="17" t="s">
+      <c r="B197" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C197" s="17" t="s">
         <v>495</v>
-      </c>
-      <c r="D196" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E196" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F196" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G196" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H196" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I196" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J196" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A197" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="B197" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="C197" s="17" t="s">
-        <v>508</v>
       </c>
       <c r="D197" s="18" t="s">
         <v>15</v>
@@ -8432,13 +8441,13 @@
     </row>
     <row r="198" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A198" s="16" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B198" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D198" s="18" t="s">
         <v>15</v>
@@ -8464,13 +8473,13 @@
     </row>
     <row r="199" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B199" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D199" s="18" t="s">
         <v>15</v>
@@ -8491,6 +8500,38 @@
         <v>2</v>
       </c>
       <c r="J199" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A200" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="B200" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F200" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G200" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H200" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I200" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J200" s="18" t="s">
         <v>131</v>
       </c>
     </row>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7686E10E-F1E5-42FC-81B0-EE524E93D60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D277E11-2021-4111-A2D6-52B9B0F210D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="532">
   <si>
     <t>Design</t>
   </si>
@@ -1601,6 +1601,60 @@
   </si>
   <si>
     <t>Si accede a Numbers, click sul tab Indicatori Operativi, verifica l'atterraggio alla pagina del primo indice di monitoraggio carico</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Verifica Link da Card Auto</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Verifica Link da Card Auto -&gt; Emissione</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Emisione</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Verifica Link da Card Auto -&gt; Prodotti particolari -&gt; Kasko e ARD per Dipendenti in Missione</t>
+  </si>
+  <si>
+    <t>Verifica la presenza dei link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica la presenza dei link </t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Verifica Link da Card Auto -&gt; Prodotti particolari -&gt; Polizza aperta</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Prodotti particolari -&gt; Kasko e ARD per Dipendenti in Missione</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Prodotti particolari -&gt; Polizza Aperta</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Verifica Link da Card Auto -&gt; Passione BLU</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Auto -&gt; Passione BLU</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Verifica Link da Card Rami vari</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Rami vari</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Verifica Link da Card Rami Vari -&gt; Emissione</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Rami vari -&gt; Emissione</t>
+  </si>
+  <si>
+    <t>MW: Navigazioni Scheda Cliente_Verifica Link da Card Vita</t>
+  </si>
+  <si>
+    <t>Accedi alla scheda cliente di una persona fisica random -&gt; Vita</t>
   </si>
 </sst>
 </file>
@@ -2115,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J200"/>
+  <dimension ref="A1:J208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E246" sqref="E246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7449,13 +7503,13 @@
     </row>
     <row r="167" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>433</v>
+        <v>516</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>519</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>15</v>
@@ -7481,13 +7535,13 @@
     </row>
     <row r="168" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>434</v>
+        <v>515</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>433</v>
+        <v>520</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>15</v>
@@ -7513,13 +7567,13 @@
     </row>
     <row r="169" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>435</v>
+        <v>518</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>433</v>
+        <v>520</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>15</v>
@@ -7545,13 +7599,13 @@
     </row>
     <row r="170" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>436</v>
+        <v>521</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>475</v>
+        <v>523</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>433</v>
+        <v>520</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>15</v>
@@ -7577,13 +7631,13 @@
     </row>
     <row r="171" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>479</v>
+        <v>524</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>433</v>
+        <v>520</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>15</v>
@@ -7609,13 +7663,13 @@
     </row>
     <row r="172" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>437</v>
+        <v>526</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>433</v>
+        <v>520</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>15</v>
@@ -7641,13 +7695,13 @@
     </row>
     <row r="173" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>438</v>
+        <v>528</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>433</v>
+        <v>520</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>15</v>
@@ -7673,13 +7727,13 @@
     </row>
     <row r="174" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>439</v>
+        <v>530</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>433</v>
+        <v>520</v>
       </c>
       <c r="D174" s="9" t="s">
         <v>15</v>
@@ -7705,10 +7759,10 @@
     </row>
     <row r="175" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>433</v>
@@ -7737,10 +7791,10 @@
     </row>
     <row r="176" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="C176" s="11" t="s">
         <v>433</v>
@@ -7769,10 +7823,10 @@
     </row>
     <row r="177" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>433</v>
@@ -7801,10 +7855,10 @@
     </row>
     <row r="178" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>433</v>
@@ -7833,10 +7887,10 @@
     </row>
     <row r="179" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>433</v>
@@ -7865,10 +7919,10 @@
     </row>
     <row r="180" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>433</v>
@@ -7897,10 +7951,10 @@
     </row>
     <row r="181" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>433</v>
@@ -7929,10 +7983,10 @@
     </row>
     <row r="182" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>433</v>
@@ -7961,10 +8015,10 @@
     </row>
     <row r="183" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>433</v>
@@ -7993,10 +8047,10 @@
     </row>
     <row r="184" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>433</v>
@@ -8025,10 +8079,10 @@
     </row>
     <row r="185" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>433</v>
@@ -8057,10 +8111,10 @@
     </row>
     <row r="186" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>433</v>
@@ -8089,10 +8143,10 @@
     </row>
     <row r="187" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>433</v>
@@ -8121,10 +8175,10 @@
     </row>
     <row r="188" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>433</v>
@@ -8153,10 +8207,10 @@
     </row>
     <row r="189" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>433</v>
@@ -8185,13 +8239,13 @@
     </row>
     <row r="190" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>15</v>
@@ -8215,323 +8269,579 @@
         <v>131</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A191" s="13" t="s">
+    <row r="191" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H191" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I191" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J191" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H192" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I192" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J192" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G193" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H193" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I193" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J193" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H194" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I194" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J194" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A195" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G195" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H195" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I195" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J195" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F196" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G196" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H196" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J196" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A197" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J197" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A198" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G198" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H198" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I198" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J198" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A199" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="B191" s="14" t="s">
+      <c r="B199" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="C191" s="14" t="s">
+      <c r="C199" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="D191" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E191" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F191" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G191" s="15" t="s">
+      <c r="D199" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F199" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G199" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H191" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I191" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J191" s="15" t="s">
+      <c r="H199" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I199" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J199" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A192" s="13" t="s">
+    <row r="200" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A200" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="B192" s="14" t="s">
+      <c r="B200" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="C192" s="13" t="s">
+      <c r="C200" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="D192" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E192" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F192" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G192" s="15" t="s">
+      <c r="D200" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F200" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G200" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H192" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I192" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J192" s="15" t="s">
+      <c r="H200" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I200" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J200" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A193" s="13" t="s">
+    <row r="201" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A201" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="B193" s="14" t="s">
+      <c r="B201" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="C193" s="13" t="s">
+      <c r="C201" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="D193" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E193" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F193" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G193" s="15" t="s">
+      <c r="D201" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E201" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F201" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G201" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H193" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I193" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J193" s="15" t="s">
+      <c r="H201" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I201" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J201" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A194" s="13" t="s">
+    <row r="202" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A202" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="B194" s="14" t="s">
+      <c r="B202" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="C194" s="13" t="s">
+      <c r="C202" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="D194" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E194" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F194" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G194" s="15" t="s">
+      <c r="D202" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E202" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F202" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G202" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H194" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I194" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J194" s="15" t="s">
+      <c r="H202" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I202" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J202" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A195" s="13" t="s">
+    <row r="203" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A203" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="B195" s="14" t="s">
+      <c r="B203" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="C195" s="13" t="s">
+      <c r="C203" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="D195" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E195" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F195" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G195" s="15" t="s">
+      <c r="D203" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E203" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F203" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G203" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H195" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I195" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J195" s="15" t="s">
+      <c r="H203" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I203" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J203" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A196" s="13" t="s">
+    <row r="204" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A204" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="B196" s="14" t="s">
+      <c r="B204" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="C196" s="13" t="s">
+      <c r="C204" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="D196" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E196" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F196" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G196" s="15" t="s">
+      <c r="D204" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F204" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G204" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H196" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I196" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J196" s="15" t="s">
+      <c r="H204" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I204" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J204" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A197" s="16" t="s">
+    <row r="205" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A205" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="B197" s="17" t="s">
+      <c r="B205" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C205" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="D197" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E197" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F197" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G197" s="18" t="s">
+      <c r="D205" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E205" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F205" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G205" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H197" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I197" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J197" s="18" t="s">
+      <c r="H205" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I205" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J205" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A198" s="16" t="s">
+    <row r="206" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A206" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="B198" s="17" t="s">
+      <c r="B206" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="C198" s="17" t="s">
+      <c r="C206" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="D198" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E198" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F198" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G198" s="18" t="s">
+      <c r="D206" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F206" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G206" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H198" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I198" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J198" s="18" t="s">
+      <c r="H206" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I206" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J206" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A199" s="16" t="s">
+    <row r="207" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A207" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="B199" s="17" t="s">
+      <c r="B207" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="C199" s="17" t="s">
+      <c r="C207" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="D199" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E199" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F199" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G199" s="18" t="s">
+      <c r="D207" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E207" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F207" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G207" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H199" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I199" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J199" s="18" t="s">
+      <c r="H207" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I207" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J207" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A200" s="16" t="s">
+    <row r="208" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A208" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="B200" s="17" t="s">
+      <c r="B208" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C208" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="D200" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E200" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F200" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G200" s="18" t="s">
+      <c r="D208" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E208" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F208" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G208" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H200" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I200" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J200" s="18" t="s">
+      <c r="H208" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I208" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J208" s="18" t="s">
         <v>131</v>
       </c>
     </row>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D277E11-2021-4111-A2D6-52B9B0F210D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3900E8-24C7-4F57-9AF1-F921BD114E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -827,9 +827,6 @@
     <t>Si accede a Sales, clicca il pannello "Proposte" e verifica dal tab Danni il button "Vedi tutti" l'aggancio alla pagina</t>
   </si>
   <si>
-    <t>Verifica atterraggio VPS Rami Vari("News")</t>
-  </si>
-  <si>
     <t>Verifica  link "Vai al Centro notifiche" notifiche</t>
   </si>
   <si>
@@ -1140,9 +1137,6 @@
   </si>
   <si>
     <t>Click icona Notifiche dai top Menu,  Click sull'ingranaggio(icona) e verifica la presenza di tutti i link</t>
-  </si>
-  <si>
-    <t>MatrixWeb: Navigation_BackOffice_Verifica atterraggio VPS Rami Vari("News")</t>
   </si>
   <si>
     <t>Verifica la presenza dei link su "Emetti Polizza"</t>
@@ -1655,6 +1649,12 @@
   </si>
   <si>
     <t>Accedi alla scheda cliente di una persona fisica random -&gt; Vita</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_BackOffice_Verifica atterraggio IVASS("News")</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio IVASS("News")</t>
   </si>
 </sst>
 </file>
@@ -2171,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
   <dimension ref="A1:J208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E246" sqref="E246"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,13 +2479,13 @@
     </row>
     <row r="10" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>383</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>15</v>
@@ -2701,12 +2701,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>369</v>
+        <v>530</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>264</v>
+        <v>531</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>31</v>
@@ -3119,10 +3119,10 @@
     </row>
     <row r="30" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>31</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>52</v>
@@ -3599,13 +3599,13 @@
     </row>
     <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>15</v>
@@ -3951,13 +3951,13 @@
     </row>
     <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>15</v>
@@ -3983,13 +3983,13 @@
     </row>
     <row r="57" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>380</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>15</v>
@@ -4015,13 +4015,13 @@
     </row>
     <row r="58" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>15</v>
@@ -4047,13 +4047,13 @@
     </row>
     <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>15</v>
@@ -4079,13 +4079,13 @@
     </row>
     <row r="60" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>15</v>
@@ -4111,13 +4111,13 @@
     </row>
     <row r="61" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>15</v>
@@ -4143,13 +4143,13 @@
     </row>
     <row r="62" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>15</v>
@@ -4175,13 +4175,13 @@
     </row>
     <row r="63" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>15</v>
@@ -4527,13 +4527,13 @@
     </row>
     <row r="74" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -4719,13 +4719,13 @@
     </row>
     <row r="80" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
@@ -4783,13 +4783,13 @@
     </row>
     <row r="82" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -4879,13 +4879,13 @@
     </row>
     <row r="85" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="90" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>153</v>
@@ -5135,13 +5135,13 @@
     </row>
     <row r="93" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>15</v>
@@ -5199,13 +5199,13 @@
     </row>
     <row r="95" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -5263,10 +5263,10 @@
     </row>
     <row r="97" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>153</v>
@@ -5295,13 +5295,13 @@
     </row>
     <row r="98" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
@@ -5359,13 +5359,13 @@
     </row>
     <row r="100" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -5487,13 +5487,13 @@
     </row>
     <row r="104" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>15</v>
@@ -5519,13 +5519,13 @@
     </row>
     <row r="105" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="C105" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>15</v>
@@ -5551,13 +5551,13 @@
     </row>
     <row r="106" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="C106" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>15</v>
@@ -5583,13 +5583,13 @@
     </row>
     <row r="107" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>15</v>
@@ -5615,13 +5615,13 @@
     </row>
     <row r="108" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>15</v>
@@ -5647,13 +5647,13 @@
     </row>
     <row r="109" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>310</v>
-      </c>
       <c r="C109" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>15</v>
@@ -5679,13 +5679,13 @@
     </row>
     <row r="110" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>312</v>
-      </c>
       <c r="C110" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>15</v>
@@ -5711,13 +5711,13 @@
     </row>
     <row r="111" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="C111" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>15</v>
@@ -5743,13 +5743,13 @@
     </row>
     <row r="112" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>316</v>
-      </c>
       <c r="C112" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>15</v>
@@ -5775,13 +5775,13 @@
     </row>
     <row r="113" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>15</v>
@@ -5807,13 +5807,13 @@
     </row>
     <row r="114" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="C114" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>15</v>
@@ -5839,13 +5839,13 @@
     </row>
     <row r="115" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>320</v>
-      </c>
       <c r="C115" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>15</v>
@@ -5871,13 +5871,13 @@
     </row>
     <row r="116" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>322</v>
-      </c>
       <c r="C116" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>15</v>
@@ -6319,13 +6319,13 @@
     </row>
     <row r="130" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>15</v>
@@ -6351,10 +6351,10 @@
     </row>
     <row r="131" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>218</v>
@@ -6415,13 +6415,13 @@
     </row>
     <row r="133" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>15</v>
@@ -6479,13 +6479,13 @@
     </row>
     <row r="135" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>362</v>
-      </c>
       <c r="C135" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>15</v>
@@ -6607,10 +6607,10 @@
     </row>
     <row r="139" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>233</v>
@@ -6639,10 +6639,10 @@
     </row>
     <row r="140" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>235</v>
@@ -6671,10 +6671,10 @@
     </row>
     <row r="141" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>236</v>
@@ -6703,13 +6703,13 @@
     </row>
     <row r="142" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>15</v>
@@ -6735,10 +6735,10 @@
     </row>
     <row r="143" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>235</v>
@@ -6767,10 +6767,10 @@
     </row>
     <row r="144" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>236</v>
@@ -6799,13 +6799,13 @@
     </row>
     <row r="145" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>15</v>
@@ -6831,10 +6831,10 @@
     </row>
     <row r="146" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>233</v>
@@ -6863,10 +6863,10 @@
     </row>
     <row r="147" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>235</v>
@@ -6895,10 +6895,10 @@
     </row>
     <row r="148" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>236</v>
@@ -6927,13 +6927,13 @@
     </row>
     <row r="149" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>15</v>
@@ -6959,10 +6959,10 @@
     </row>
     <row r="150" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>233</v>
@@ -6991,10 +6991,10 @@
     </row>
     <row r="151" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>235</v>
@@ -7023,10 +7023,10 @@
     </row>
     <row r="152" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>236</v>
@@ -7055,10 +7055,10 @@
     </row>
     <row r="153" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>233</v>
@@ -7087,10 +7087,10 @@
     </row>
     <row r="154" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>235</v>
@@ -7119,10 +7119,10 @@
     </row>
     <row r="155" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>236</v>
@@ -7183,13 +7183,13 @@
     </row>
     <row r="157" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>513</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>15</v>
@@ -7218,7 +7218,7 @@
         <v>239</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>241</v>
@@ -7247,13 +7247,13 @@
     </row>
     <row r="159" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>15</v>
@@ -7279,13 +7279,13 @@
     </row>
     <row r="160" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>15</v>
@@ -7311,13 +7311,13 @@
     </row>
     <row r="161" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>15</v>
@@ -7343,13 +7343,13 @@
     </row>
     <row r="162" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>15</v>
@@ -7375,13 +7375,13 @@
     </row>
     <row r="163" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>15</v>
@@ -7407,13 +7407,13 @@
     </row>
     <row r="164" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B164" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C164" s="11" t="s">
         <v>422</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>424</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>15</v>
@@ -7439,13 +7439,13 @@
     </row>
     <row r="165" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C165" s="10" t="s">
         <v>425</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>427</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>15</v>
@@ -7471,13 +7471,13 @@
     </row>
     <row r="166" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C166" s="11" t="s">
         <v>428</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>430</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>15</v>
@@ -7503,13 +7503,13 @@
     </row>
     <row r="167" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B167" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B167" s="10" t="s">
-        <v>516</v>
-      </c>
       <c r="C167" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>15</v>
@@ -7535,13 +7535,13 @@
     </row>
     <row r="168" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B168" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="B168" s="10" t="s">
-        <v>517</v>
-      </c>
       <c r="C168" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>15</v>
@@ -7567,13 +7567,13 @@
     </row>
     <row r="169" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C169" s="11" t="s">
         <v>518</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>520</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>15</v>
@@ -7599,13 +7599,13 @@
     </row>
     <row r="170" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B170" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B170" s="10" t="s">
-        <v>523</v>
-      </c>
       <c r="C170" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>15</v>
@@ -7631,13 +7631,13 @@
     </row>
     <row r="171" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>15</v>
@@ -7663,13 +7663,13 @@
     </row>
     <row r="172" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>15</v>
@@ -7695,13 +7695,13 @@
     </row>
     <row r="173" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>15</v>
@@ -7727,13 +7727,13 @@
     </row>
     <row r="174" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D174" s="9" t="s">
         <v>15</v>
@@ -7759,13 +7759,13 @@
     </row>
     <row r="175" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C175" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>433</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>15</v>
@@ -7791,13 +7791,13 @@
     </row>
     <row r="176" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>15</v>
@@ -7823,13 +7823,13 @@
     </row>
     <row r="177" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>15</v>
@@ -7855,13 +7855,13 @@
     </row>
     <row r="178" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>15</v>
@@ -7887,13 +7887,13 @@
     </row>
     <row r="179" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D179" s="9" t="s">
         <v>15</v>
@@ -7919,13 +7919,13 @@
     </row>
     <row r="180" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D180" s="9" t="s">
         <v>15</v>
@@ -7951,13 +7951,13 @@
     </row>
     <row r="181" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D181" s="9" t="s">
         <v>15</v>
@@ -7983,13 +7983,13 @@
     </row>
     <row r="182" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>15</v>
@@ -8015,13 +8015,13 @@
     </row>
     <row r="183" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>15</v>
@@ -8047,13 +8047,13 @@
     </row>
     <row r="184" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>15</v>
@@ -8079,13 +8079,13 @@
     </row>
     <row r="185" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>15</v>
@@ -8111,13 +8111,13 @@
     </row>
     <row r="186" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>15</v>
@@ -8143,13 +8143,13 @@
     </row>
     <row r="187" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>15</v>
@@ -8175,13 +8175,13 @@
     </row>
     <row r="188" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>15</v>
@@ -8207,13 +8207,13 @@
     </row>
     <row r="189" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>15</v>
@@ -8239,13 +8239,13 @@
     </row>
     <row r="190" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>15</v>
@@ -8271,13 +8271,13 @@
     </row>
     <row r="191" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>15</v>
@@ -8303,13 +8303,13 @@
     </row>
     <row r="192" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>15</v>
@@ -8335,13 +8335,13 @@
     </row>
     <row r="193" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>15</v>
@@ -8367,13 +8367,13 @@
     </row>
     <row r="194" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>15</v>
@@ -8399,13 +8399,13 @@
     </row>
     <row r="195" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>15</v>
@@ -8431,13 +8431,13 @@
     </row>
     <row r="196" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>15</v>
@@ -8463,13 +8463,13 @@
     </row>
     <row r="197" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>15</v>
@@ -8495,13 +8495,13 @@
     </row>
     <row r="198" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>15</v>
@@ -8527,13 +8527,13 @@
     </row>
     <row r="199" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B199" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="C199" s="14" t="s">
         <v>481</v>
-      </c>
-      <c r="B199" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="C199" s="14" t="s">
-        <v>483</v>
       </c>
       <c r="D199" s="15" t="s">
         <v>15</v>
@@ -8559,13 +8559,13 @@
     </row>
     <row r="200" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D200" s="15" t="s">
         <v>15</v>
@@ -8591,13 +8591,13 @@
     </row>
     <row r="201" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D201" s="15" t="s">
         <v>15</v>
@@ -8623,13 +8623,13 @@
     </row>
     <row r="202" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D202" s="15" t="s">
         <v>15</v>
@@ -8655,13 +8655,13 @@
     </row>
     <row r="203" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D203" s="15" t="s">
         <v>15</v>
@@ -8687,13 +8687,13 @@
     </row>
     <row r="204" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D204" s="15" t="s">
         <v>15</v>
@@ -8719,13 +8719,13 @@
     </row>
     <row r="205" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A205" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B205" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D205" s="18" t="s">
         <v>15</v>
@@ -8751,13 +8751,13 @@
     </row>
     <row r="206" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A206" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B206" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D206" s="18" t="s">
         <v>15</v>
@@ -8783,13 +8783,13 @@
     </row>
     <row r="207" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="B207" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="B207" s="17" t="s">
-        <v>501</v>
-      </c>
       <c r="C207" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D207" s="18" t="s">
         <v>15</v>
@@ -8815,13 +8815,13 @@
     </row>
     <row r="208" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A208" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B208" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D208" s="18" t="s">
         <v>15</v>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3900E8-24C7-4F57-9AF1-F921BD114E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EA84BF-8E29-41E2-AB69-44CD463B845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="533">
   <si>
     <t>Design</t>
   </si>
@@ -1655,6 +1655,9 @@
   </si>
   <si>
     <t>Verifica atterraggio IVASS("News")</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation_Sales_Verifica aggancio Emetti Polizza - Allianz Ultra Impresa</t>
   </si>
 </sst>
 </file>
@@ -2169,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J208"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,7 +2864,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>93</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>94</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>95</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>96</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>98</v>
       </c>
@@ -3053,7 +3056,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>99</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>396</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>101</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>102</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>103</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>104</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>106</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>246</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>107</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>108</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>394</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>109</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>110</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>111</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>112</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>369</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>113</v>
       </c>
@@ -3661,7 +3664,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>114</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>115</v>
       </c>
@@ -3725,7 +3728,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>116</v>
       </c>
@@ -3757,12 +3760,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>117</v>
+        <v>532</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>52</v>
@@ -3789,12 +3792,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>52</v>
@@ -3821,12 +3824,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>52</v>
@@ -3853,12 +3856,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>52</v>
@@ -3885,12 +3888,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>52</v>
@@ -3917,12 +3920,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>52</v>
@@ -3949,15 +3952,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>374</v>
+        <v>122</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>373</v>
+        <v>66</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>377</v>
+        <v>52</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>15</v>
@@ -3983,13 +3986,13 @@
     </row>
     <row r="57" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>15</v>
@@ -4015,13 +4018,13 @@
     </row>
     <row r="58" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>15</v>
@@ -4045,15 +4048,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>15</v>
@@ -4077,15 +4080,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>15</v>
@@ -4109,15 +4112,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>15</v>
@@ -4141,15 +4144,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>15</v>
@@ -4173,15 +4176,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>15</v>
@@ -4205,15 +4208,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>123</v>
+        <v>409</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>67</v>
+        <v>410</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>257</v>
+        <v>411</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>15</v>
@@ -4237,15 +4240,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>15</v>
@@ -4269,15 +4272,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>15</v>
@@ -4301,15 +4304,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>15</v>
@@ -4333,15 +4336,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>15</v>
@@ -4365,15 +4368,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>15</v>
@@ -4399,13 +4402,13 @@
     </row>
     <row r="70" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>15</v>
@@ -4431,13 +4434,13 @@
     </row>
     <row r="71" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>259</v>
+        <v>128</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>260</v>
+        <v>72</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>15</v>
@@ -4463,13 +4466,13 @@
     </row>
     <row r="72" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>15</v>
@@ -4493,47 +4496,47 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>133</v>
+    <row r="73" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>282</v>
+        <v>130</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -4559,13 +4562,13 @@
     </row>
     <row r="75" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>138</v>
+        <v>282</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>140</v>
+        <v>281</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>15</v>
@@ -4591,13 +4594,13 @@
     </row>
     <row r="76" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>15</v>
@@ -4623,13 +4626,13 @@
     </row>
     <row r="77" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>15</v>
@@ -4655,10 +4658,10 @@
     </row>
     <row r="78" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>153</v>
@@ -4687,10 +4690,10 @@
     </row>
     <row r="79" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>153</v>
@@ -4719,13 +4722,13 @@
     </row>
     <row r="80" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>285</v>
+        <v>147</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>287</v>
+        <v>153</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
@@ -4751,13 +4754,13 @@
     </row>
     <row r="81" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>149</v>
+        <v>286</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>150</v>
+        <v>285</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>153</v>
+        <v>287</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>15</v>
@@ -4783,13 +4786,13 @@
     </row>
     <row r="82" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>289</v>
+        <v>153</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
@@ -4815,13 +4818,13 @@
     </row>
     <row r="83" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>15</v>
@@ -4847,13 +4850,13 @@
     </row>
     <row r="84" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>15</v>
@@ -4879,13 +4882,13 @@
     </row>
     <row r="85" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>292</v>
+        <v>155</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>291</v>
+        <v>154</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>293</v>
+        <v>153</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
@@ -4911,13 +4914,13 @@
     </row>
     <row r="86" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>157</v>
+        <v>291</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
@@ -4943,13 +4946,13 @@
     </row>
     <row r="87" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -4975,10 +4978,10 @@
     </row>
     <row r="88" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>160</v>
@@ -5007,13 +5010,13 @@
     </row>
     <row r="89" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
@@ -5039,13 +5042,13 @@
     </row>
     <row r="90" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>284</v>
+        <v>163</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
@@ -5071,13 +5074,13 @@
     </row>
     <row r="91" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>15</v>
@@ -5103,13 +5106,13 @@
     </row>
     <row r="92" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
@@ -5135,13 +5138,13 @@
     </row>
     <row r="93" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>295</v>
+        <v>167</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>298</v>
+        <v>153</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>15</v>
@@ -5167,13 +5170,13 @@
     </row>
     <row r="94" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>170</v>
+        <v>295</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>171</v>
+        <v>294</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>153</v>
+        <v>298</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -5199,13 +5202,13 @@
     </row>
     <row r="95" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -5231,13 +5234,13 @@
     </row>
     <row r="96" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>169</v>
+        <v>299</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>168</v>
+        <v>296</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>160</v>
+        <v>297</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -5263,13 +5266,13 @@
     </row>
     <row r="97" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>300</v>
+        <v>169</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>301</v>
+        <v>168</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
@@ -5295,13 +5298,13 @@
     </row>
     <row r="98" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
@@ -5327,13 +5330,13 @@
     </row>
     <row r="99" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
@@ -5359,13 +5362,13 @@
     </row>
     <row r="100" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
@@ -5390,46 +5393,46 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G101" s="5" t="s">
+      <c r="A101" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H101" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J101" s="5" t="s">
+      <c r="H101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J101" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>15</v>
@@ -5455,13 +5458,13 @@
     </row>
     <row r="103" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>15</v>
@@ -5487,13 +5490,13 @@
     </row>
     <row r="104" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>15</v>
@@ -5519,10 +5522,10 @@
     </row>
     <row r="105" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>271</v>
@@ -5551,13 +5554,13 @@
     </row>
     <row r="106" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>15</v>
@@ -5583,13 +5586,13 @@
     </row>
     <row r="107" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>364</v>
+        <v>274</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>15</v>
@@ -5615,13 +5618,13 @@
     </row>
     <row r="108" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>15</v>
@@ -5647,13 +5650,13 @@
     </row>
     <row r="109" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>15</v>
@@ -5679,13 +5682,13 @@
     </row>
     <row r="110" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>15</v>
@@ -5711,10 +5714,10 @@
     </row>
     <row r="111" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>277</v>
@@ -5743,10 +5746,10 @@
     </row>
     <row r="112" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>277</v>
@@ -5775,10 +5778,10 @@
     </row>
     <row r="113" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>277</v>
@@ -5807,10 +5810,10 @@
     </row>
     <row r="114" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>317</v>
+        <v>402</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>277</v>
@@ -5839,10 +5842,10 @@
     </row>
     <row r="115" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>277</v>
@@ -5871,10 +5874,10 @@
     </row>
     <row r="116" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>277</v>
@@ -5903,13 +5906,13 @@
     </row>
     <row r="117" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>183</v>
+        <v>320</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>182</v>
+        <v>321</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>15</v>
@@ -5935,13 +5938,13 @@
     </row>
     <row r="118" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>15</v>
@@ -5967,13 +5970,13 @@
     </row>
     <row r="119" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>15</v>
@@ -5999,13 +6002,13 @@
     </row>
     <row r="120" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>15</v>
@@ -6031,13 +6034,13 @@
     </row>
     <row r="121" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>15</v>
@@ -6063,13 +6066,13 @@
     </row>
     <row r="122" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>15</v>
@@ -6095,13 +6098,13 @@
     </row>
     <row r="123" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>15</v>
@@ -6127,13 +6130,13 @@
     </row>
     <row r="124" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>15</v>
@@ -6159,13 +6162,13 @@
     </row>
     <row r="125" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>15</v>
@@ -6191,13 +6194,13 @@
     </row>
     <row r="126" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>15</v>
@@ -6223,13 +6226,13 @@
     </row>
     <row r="127" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>15</v>
@@ -6255,13 +6258,13 @@
     </row>
     <row r="128" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>15</v>
@@ -6287,13 +6290,13 @@
     </row>
     <row r="129" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>15</v>
@@ -6319,13 +6322,13 @@
     </row>
     <row r="130" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>398</v>
+        <v>210</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>399</v>
+        <v>211</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>400</v>
+        <v>215</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>15</v>
@@ -6351,13 +6354,13 @@
     </row>
     <row r="131" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>265</v>
+        <v>398</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>218</v>
+        <v>400</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>15</v>
@@ -6383,13 +6386,13 @@
     </row>
     <row r="132" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>15</v>
@@ -6415,13 +6418,13 @@
     </row>
     <row r="133" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>15</v>
@@ -6445,47 +6448,47 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I134" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J134" s="4" t="s">
-        <v>242</v>
+    <row r="134" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>360</v>
+        <v>222</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>361</v>
+        <v>223</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>358</v>
+        <v>224</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>15</v>
@@ -6511,13 +6514,13 @@
     </row>
     <row r="136" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>226</v>
+        <v>360</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>225</v>
+        <v>361</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>227</v>
+        <v>358</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>15</v>
@@ -6543,13 +6546,13 @@
     </row>
     <row r="137" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>15</v>
@@ -6575,13 +6578,13 @@
     </row>
     <row r="138" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>15</v>
@@ -6607,13 +6610,13 @@
     </row>
     <row r="139" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>323</v>
+        <v>232</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>15</v>
@@ -6639,13 +6642,13 @@
     </row>
     <row r="140" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>15</v>
@@ -6671,13 +6674,13 @@
     </row>
     <row r="141" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>15</v>
@@ -6703,13 +6706,13 @@
     </row>
     <row r="142" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>15</v>
@@ -6735,13 +6738,13 @@
     </row>
     <row r="143" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>235</v>
+        <v>336</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>15</v>
@@ -6767,13 +6770,13 @@
     </row>
     <row r="144" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>15</v>
@@ -6799,13 +6802,13 @@
     </row>
     <row r="145" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>15</v>
@@ -6831,13 +6834,13 @@
     </row>
     <row r="146" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>15</v>
@@ -6863,13 +6866,13 @@
     </row>
     <row r="147" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>15</v>
@@ -6895,13 +6898,13 @@
     </row>
     <row r="148" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>15</v>
@@ -6927,13 +6930,13 @@
     </row>
     <row r="149" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>15</v>
@@ -6959,13 +6962,13 @@
     </row>
     <row r="150" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>15</v>
@@ -6991,13 +6994,13 @@
     </row>
     <row r="151" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>15</v>
@@ -7023,13 +7026,13 @@
     </row>
     <row r="152" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>15</v>
@@ -7055,13 +7058,13 @@
     </row>
     <row r="153" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>15</v>
@@ -7087,13 +7090,13 @@
     </row>
     <row r="154" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>15</v>
@@ -7119,13 +7122,13 @@
     </row>
     <row r="155" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>15</v>
@@ -7151,13 +7154,13 @@
     </row>
     <row r="156" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>238</v>
+        <v>357</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>237</v>
+        <v>356</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>15</v>
@@ -7181,15 +7184,15 @@
         <v>242</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>510</v>
+        <v>238</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>509</v>
+        <v>237</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>511</v>
+        <v>240</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>15</v>
@@ -7213,15 +7216,15 @@
         <v>242</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>239</v>
+        <v>510</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>408</v>
+        <v>509</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>241</v>
+        <v>511</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>15</v>
@@ -7247,13 +7250,13 @@
     </row>
     <row r="159" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>406</v>
+        <v>239</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>407</v>
+        <v>241</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>15</v>
@@ -7279,13 +7282,13 @@
     </row>
     <row r="160" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>279</v>
+        <v>407</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>15</v>
@@ -7309,47 +7312,47 @@
         <v>242</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
+    <row r="161" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G161" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H161" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I161" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J161" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
-        <v>416</v>
       </c>
       <c r="B162" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C162" s="10" t="s">
-        <v>414</v>
+      <c r="C162" s="12" t="s">
+        <v>412</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>15</v>
@@ -7373,15 +7376,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>15</v>
@@ -7405,15 +7408,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>421</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>15</v>
@@ -7439,13 +7442,13 @@
     </row>
     <row r="165" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>15</v>
@@ -7471,13 +7474,13 @@
     </row>
     <row r="166" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>425</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>15</v>
@@ -7503,13 +7506,13 @@
     </row>
     <row r="167" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>512</v>
+        <v>426</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>517</v>
+        <v>427</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>428</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>15</v>
@@ -7535,13 +7538,13 @@
     </row>
     <row r="168" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>517</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>15</v>
@@ -7567,10 +7570,10 @@
     </row>
     <row r="169" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>518</v>
@@ -7599,10 +7602,10 @@
     </row>
     <row r="170" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>518</v>
@@ -7631,10 +7634,10 @@
     </row>
     <row r="171" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>518</v>
@@ -7663,10 +7666,10 @@
     </row>
     <row r="172" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>518</v>
@@ -7695,10 +7698,10 @@
     </row>
     <row r="173" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>518</v>
@@ -7727,10 +7730,10 @@
     </row>
     <row r="174" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>518</v>
@@ -7759,13 +7762,13 @@
     </row>
     <row r="175" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>429</v>
+        <v>528</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>430</v>
+        <v>529</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>431</v>
+        <v>518</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>15</v>
@@ -7791,10 +7794,10 @@
     </row>
     <row r="176" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="C176" s="11" t="s">
         <v>431</v>
@@ -7823,10 +7826,10 @@
     </row>
     <row r="177" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>431</v>
@@ -7855,10 +7858,10 @@
     </row>
     <row r="178" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>431</v>
@@ -7887,10 +7890,10 @@
     </row>
     <row r="179" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>431</v>
@@ -7919,10 +7922,10 @@
     </row>
     <row r="180" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>431</v>
@@ -7951,10 +7954,10 @@
     </row>
     <row r="181" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>431</v>
@@ -7983,10 +7986,10 @@
     </row>
     <row r="182" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>431</v>
@@ -8015,10 +8018,10 @@
     </row>
     <row r="183" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>431</v>
@@ -8047,10 +8050,10 @@
     </row>
     <row r="184" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>431</v>
@@ -8079,10 +8082,10 @@
     </row>
     <row r="185" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>431</v>
@@ -8111,10 +8114,10 @@
     </row>
     <row r="186" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>431</v>
@@ -8143,10 +8146,10 @@
     </row>
     <row r="187" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>431</v>
@@ -8175,10 +8178,10 @@
     </row>
     <row r="188" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>431</v>
@@ -8207,10 +8210,10 @@
     </row>
     <row r="189" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>431</v>
@@ -8239,10 +8242,10 @@
     </row>
     <row r="190" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>431</v>
@@ -8271,10 +8274,10 @@
     </row>
     <row r="191" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>431</v>
@@ -8303,10 +8306,10 @@
     </row>
     <row r="192" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>431</v>
@@ -8335,10 +8338,10 @@
     </row>
     <row r="193" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>431</v>
@@ -8367,10 +8370,10 @@
     </row>
     <row r="194" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>431</v>
@@ -8399,10 +8402,10 @@
     </row>
     <row r="195" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>431</v>
@@ -8431,10 +8434,10 @@
     </row>
     <row r="196" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>431</v>
@@ -8463,10 +8466,10 @@
     </row>
     <row r="197" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>431</v>
@@ -8495,13 +8498,13 @@
     </row>
     <row r="198" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>15</v>
@@ -8525,47 +8528,47 @@
         <v>131</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A199" s="13" t="s">
+    <row r="199" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G199" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H199" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I199" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J199" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A200" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="B199" s="14" t="s">
+      <c r="B200" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="C199" s="14" t="s">
+      <c r="C200" s="14" t="s">
         <v>481</v>
-      </c>
-      <c r="D199" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E199" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F199" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G199" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="H199" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I199" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J199" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A200" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="B200" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>501</v>
       </c>
       <c r="D200" s="15" t="s">
         <v>15</v>
@@ -8591,13 +8594,13 @@
     </row>
     <row r="201" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D201" s="15" t="s">
         <v>15</v>
@@ -8623,13 +8626,13 @@
     </row>
     <row r="202" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D202" s="15" t="s">
         <v>15</v>
@@ -8655,13 +8658,13 @@
     </row>
     <row r="203" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D203" s="15" t="s">
         <v>15</v>
@@ -8687,13 +8690,13 @@
     </row>
     <row r="204" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D204" s="15" t="s">
         <v>15</v>
@@ -8717,47 +8720,47 @@
         <v>131</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A205" s="16" t="s">
+    <row r="205" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A205" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B205" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="D205" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E205" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F205" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G205" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H205" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I205" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J205" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A206" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="B205" s="17" t="s">
+      <c r="B206" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C206" s="17" t="s">
         <v>493</v>
-      </c>
-      <c r="D205" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E205" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F205" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G205" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H205" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I205" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J205" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A206" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="B206" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="C206" s="17" t="s">
-        <v>506</v>
       </c>
       <c r="D206" s="18" t="s">
         <v>15</v>
@@ -8783,13 +8786,13 @@
     </row>
     <row r="207" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B207" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D207" s="18" t="s">
         <v>15</v>
@@ -8815,13 +8818,13 @@
     </row>
     <row r="208" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A208" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B208" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D208" s="18" t="s">
         <v>15</v>
@@ -8842,6 +8845,38 @@
         <v>2</v>
       </c>
       <c r="J208" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A209" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="B209" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="C209" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E209" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F209" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G209" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H209" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I209" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J209" s="18" t="s">
         <v>131</v>
       </c>
     </row>

--- a/docs/tp/Navigation.xlsx
+++ b/docs/tp/Navigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EA84BF-8E29-41E2-AB69-44CD463B845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F664927-B258-4D14-B14D-BDB590B960B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="535">
   <si>
     <t>Design</t>
   </si>
@@ -1658,6 +1658,12 @@
   </si>
   <si>
     <t>MatrixWeb: Navigation_Sales_Verifica aggancio Emetti Polizza - Allianz Ultra Impresa</t>
+  </si>
+  <si>
+    <t>Matrix Web : Navigation_HomePage_Verifica atterraggio da Utilità - Gestione certificati</t>
+  </si>
+  <si>
+    <t>Verifica atterraggio da Utilità - Gestione certificati</t>
   </si>
 </sst>
 </file>
@@ -2172,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,7 +2454,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>82</v>
       </c>
@@ -5938,13 +5944,13 @@
     </row>
     <row r="118" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>183</v>
+        <v>533</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>182</v>
+        <v>534</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>15</v>
@@ -5970,13 +5976,13 @@
     </row>
     <row r="119" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>15</v>
@@ -6002,13 +6008,13 @@
     </row>
     <row r="120" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>15</v>
@@ -6034,13 +6040,13 @@
     </row>
     <row r="121" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>15</v>
@@ -6066,13 +6072,13 @@
     </row>
     <row r="122" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>15</v>
@@ -6098,13 +6104,13 @@
     </row>
     <row r="123" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>15</v>
@@ -6130,13 +6136,13 @@
     </row>
     <row r="124" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>15</v>
@@ -6162,13 +6168,13 @@
     </row>
     <row r="125" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>15</v>
@@ -6194,13 +6200,13 @@
     </row>
     <row r="126" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>15</v>
@@ -6226,13 +6232,13 @@
     </row>
     <row r="127" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>15</v>
@@ -6258,13 +6264,13 @@
     </row>
     <row r="128" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>15</v>
@@ -6290,13 +6296,13 @@
     </row>
     <row r="129" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>15</v>
@@ -6322,13 +6328,13 @@
     </row>
     <row r="130" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>15</v>
@@ -6354,13 +6360,13 @@
     </row>
     <row r="131" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>398</v>
+        <v>210</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>399</v>
+        <v>211</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>400</v>
+        <v>215</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>15</v>
@@ -6386,13 +6392,13 @@
     </row>
     <row r="132" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>265</v>
+        <v>398</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>218</v>
+        <v>400</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>15</v>
@@ -6418,13 +6424,13 @@
     </row>
     <row r="133" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>15</v>
@@ -6450,13 +6456,13 @@
     </row>
     <row r="134" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>15</v>
@@ -6480,47 +6486,47 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J135" s="4" t="s">
-        <v>242</v>
+    <row r="135" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J135" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>360</v>
+        <v>222</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>361</v>
+        <v>223</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>358</v>
+        <v>224</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>15</v>
@@ -6546,13 +6552,13 @@
     </row>
     <row r="137" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>226</v>
+        <v>360</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>225</v>
+        <v>361</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>227</v>
+        <v>358</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>15</v>
@@ -6578,13 +6584,13 @@
     </row>
     <row r="138" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>15</v>
@@ -6610,13 +6616,13 @@
     </row>
     <row r="139" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>15</v>
@@ -6642,13 +6648,13 @@
     </row>
     <row r="140" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>323</v>
+        <v>232</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>15</v>
@@ -6674,13 +6680,13 @@
     </row>
     <row r="141" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>15</v>
@@ -6706,13 +6712,13 @@
     </row>
     <row r="142" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>15</v>
@@ -6738,13 +6744,13 @@
     </row>
     <row r="143" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>15</v>
@@ -6770,13 +6776,13 @@
     </row>
     <row r="144" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>235</v>
+        <v>336</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>15</v>
@@ -6802,13 +6808,13 @@
     </row>
     <row r="145" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>15</v>
@@ -6834,13 +6840,13 @@
     </row>
     <row r="146" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>15</v>
@@ -6866,13 +6872,13 @@
     </row>
     <row r="147" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>15</v>
@@ -6898,13 +6904,13 @@
     </row>
     <row r="148" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>15</v>
@@ -6930,13 +6936,13 @@
     </row>
     <row r="149" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>15</v>
@@ -6962,13 +6968,13 @@
     </row>
     <row r="150" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>15</v>
@@ -6994,13 +7000,13 @@
     </row>
     <row r="151" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>15</v>
@@ -7026,13 +7032,13 @@
     </row>
     <row r="152" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>15</v>
@@ -7058,13 +7064,13 @@
     </row>
     <row r="153" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>15</v>
@@ -7090,13 +7096,13 @@
     </row>
     <row r="154" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>15</v>
@@ -7122,13 +7128,13 @@
     </row>
     <row r="155" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>15</v>
@@ -7154,13 +7160,13 @@
     </row>
     <row r="156" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>15</v>
@@ -7186,13 +7192,13 @@
     </row>
     <row r="157" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>238</v>
+        <v>357</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>237</v>
+        <v>356</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>15</v>
@@ -7216,15 +7222,15 @@
         <v>242</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>510</v>
+        <v>238</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>509</v>
+        <v>237</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>511</v>
+        <v>240</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>15</v>
@@ -7248,15 +7254,15 @@
         <v>242</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>239</v>
+        <v>510</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>408</v>
+        <v>509</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>241</v>
+        <v>511</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>15</v>
@@ -7282,13 +7288,13 @@
     </row>
     <row r="160" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>406</v>
+        <v>239</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>407</v>
+        <v>241</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>15</v>
@@ -7314,13 +7320,13 @@
     </row>
     <row r="161" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>279</v>
+        <v>407</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>15</v>
@@ -7344,47 +7350,47 @@
         <v>242</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
+    <row r="162" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G162" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H162" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I162" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J162" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
-        <v>416</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C163" s="10" t="s">
-        <v>414</v>
+      <c r="C163" s="12" t="s">
+        <v>412</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>15</v>
@@ -7408,15 +7414,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>15</v>
@@ -7440,15 +7446,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C165" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>421</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>15</v>
@@ -7474,13 +7480,13 @@
     </row>
     <row r="166" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>15</v>
@@ -7506,13 +7512,13 @@
     </row>
     <row r="167" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>425</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>15</v>
@@ -7538,13 +7544,13 @@
     </row>
     <row r="168" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>512</v>
+        <v>426</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>517</v>
+        <v>427</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>428</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>15</v>
@@ -7570,13 +7576,13 @@
     </row>
     <row r="169" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>517</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>15</v>
@@ -7602,10 +7608,10 @@
     </row>
     <row r="170" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>518</v>
@@ -7634,10 +7640,10 @@
     </row>
     <row r="171" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>518</v>
@@ -7666,10 +7672,10 @@
     </row>
     <row r="172" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>518</v>
@@ -7698,10 +7704,10 @@
     </row>
     <row r="173" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>518</v>
@@ -7730,10 +7736,10 @@
     </row>
     <row r="174" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>518</v>
@@ -7762,10 +7768,10 @@
     </row>
     <row r="175" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>518</v>
@@ -7794,13 +7800,13 @@
     </row>
     <row r="176" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>429</v>
+        <v>528</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>430</v>
+        <v>529</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>431</v>
+        <v>518</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>15</v>
@@ -7826,10 +7832,10 @@
     </row>
     <row r="177" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>431</v>
@@ -7858,10 +7864,10 @@
     </row>
     <row r="178" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>431</v>
@@ -7890,10 +7896,10 @@
     </row>
     <row r="179" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>431</v>
@@ -7922,10 +7928,10 @@
     </row>
     <row r="180" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>431</v>
@@ -7954,10 +7960,10 @@
     </row>
     <row r="181" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>431</v>
@@ -7986,10 +7992,10 @@
     </row>
     <row r="182" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>431</v>
@@ -8018,10 +8024,10 @@
     </row>
     <row r="183" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>431</v>
@@ -8050,10 +8056,10 @@
     </row>
     <row r="184" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>431</v>
@@ -8082,10 +8088,10 @@
     </row>
     <row r="185" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>431</v>
@@ -8114,10 +8120,10 @@
     </row>
     <row r="186" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>431</v>
@@ -8146,10 +8152,10 @@
     </row>
     <row r="187" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>431</v>
@@ -8178,10 +8184,10 @@
     </row>
     <row r="188" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>431</v>
@@ -8210,10 +8216,10 @@
     </row>
     <row r="189" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>431</v>
@@ -8242,10 +8248,10 @@
     </row>
     <row r="190" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>431</v>
@@ -8274,10 +8280,10 @@
     </row>
     <row r="191" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>431</v>
@@ -8306,10 +8312,10 @@
     </row>
     <row r="192" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>431</v>
@@ -8338,10 +8344,10 @@
     </row>
     <row r="193" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>431</v>
@@ -8370,10 +8376,10 @@
     </row>
     <row r="194" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>431</v>
@@ -8402,10 +8408,10 @@
     </row>
     <row r="195" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>431</v>
@@ -8434,10 +8440,10 @@
     </row>
     <row r="196" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>431</v>
@@ -8466,10 +8472,10 @@
     </row>
     <row r="197" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>431</v>
@@ -8498,10 +8504,10 @@
     </row>
     <row r="198" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>431</v>
@@ -8530,13 +8536,13 @@
     </row>
     <row r="199" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>15</v>
@@ -8560,47 +8566,47 @@
         <v>131</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A200" s="13" t="s">
+    <row r="200" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A200" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F200" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G200" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H200" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I200" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J200" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A201" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="B200" s="14" t="s">
+      <c r="B201" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="C200" s="14" t="s">
+      <c r="C201" s="14" t="s">
         <v>481</v>
-      </c>
-      <c r="D200" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E200" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F200" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G200" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="H200" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I200" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J200" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A201" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="B201" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="C201" s="13" t="s">
-        <v>501</v>
       </c>
       <c r="D201" s="15" t="s">
         <v>15</v>
@@ -8626,13 +8632,13 @@
     </row>
     <row r="202" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D202" s="15" t="s">
         <v>15</v>
@@ -8658,13 +8664,13 @@
     </row>
     <row r="203" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D203" s="15" t="s">
         <v>15</v>
@@ -8690,13 +8696,13 @@
     </row>
     <row r="204" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D204" s="15" t="s">
         <v>15</v>
@@ -8722,13 +8728,13 @@
     </row>
     <row r="205" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D205" s="15" t="s">
         <v>15</v>
@@ -8752,47 +8758,47 @@
         <v>131</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A206" s="16" t="s">
+    <row r="206" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A206" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B206" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="D206" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F206" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G206" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H206" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I206" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J206" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A207" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="B206" s="17" t="s">
+      <c r="B207" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="C206" s="17" t="s">
+      <c r="C207" s="17" t="s">
         <v>493</v>
-      </c>
-      <c r="D206" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E206" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F206" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G206" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H206" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I206" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J206" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A207" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="B207" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="C207" s="17" t="s">
-        <v>506</v>
       </c>
       <c r="D207" s="18" t="s">
         <v>15</v>
@@ -8818,13 +8824,13 @@
     </row>
     <row r="208" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A208" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B208" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D208" s="18" t="s">
         <v>15</v>
@@ -8850,13 +8856,13 @@
     </row>
     <row r="209" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A209" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B209" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C209" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D209" s="18" t="s">
         <v>15</v>
@@ -8877,6 +8883,38 @@
         <v>2</v>
       </c>
       <c r="J209" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A210" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="B210" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F210" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G210" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H210" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I210" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J210" s="18" t="s">
         <v>131</v>
       </c>
     </row>
